--- a/Jogos_da_Semana_FlashScore_2025-05-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-02.xlsx
@@ -1255,37 +1255,37 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P7" t="n">
         <v>1.5</v>
       </c>
-      <c r="M7" t="n">
+      <c r="Q7" t="n">
         <v>2.5</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.38</v>
       </c>
       <c r="R7" t="n">
         <v>2.1</v>
@@ -1297,22 +1297,22 @@
         <v>6</v>
       </c>
       <c r="U7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V7" t="n">
         <v>9.5</v>
       </c>
-      <c r="V7" t="n">
-        <v>10</v>
-      </c>
       <c r="W7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X7" t="n">
         <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA7" t="n">
         <v>6.5</v>
@@ -1324,19 +1324,19 @@
         <v>67</v>
       </c>
       <c r="AD7" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI7" t="n">
         <v>34</v>
@@ -1377,19 +1377,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L8" t="n">
         <v>1.44</v>
@@ -1404,67 +1404,67 @@
         <v>1.53</v>
       </c>
       <c r="P8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R8" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S8" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U8" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="V8" t="n">
         <v>9.5</v>
       </c>
       <c r="W8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z8" t="n">
         <v>7</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD8" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>41</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -1499,13 +1499,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="H9" t="n">
         <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="J9" t="n">
         <v>1.1</v>
@@ -1514,16 +1514,16 @@
         <v>7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P9" t="n">
         <v>1.53</v>
@@ -1532,16 +1532,16 @@
         <v>2.38</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V9" t="n">
         <v>11</v>
@@ -1550,7 +1550,7 @@
         <v>29</v>
       </c>
       <c r="X9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y9" t="n">
         <v>41</v>
@@ -1577,13 +1577,13 @@
         <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
         <v>41</v>
@@ -1621,13 +1621,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J10" t="n">
         <v>1.1</v>
@@ -1666,13 +1666,13 @@
         <v>11</v>
       </c>
       <c r="V10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
         <v>41</v>
@@ -1696,7 +1696,7 @@
         <v>7</v>
       </c>
       <c r="AF10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
@@ -1705,7 +1705,7 @@
         <v>29</v>
       </c>
       <c r="AI10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
         <v>41</v>
@@ -1743,19 +1743,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K11" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
         <v>1.5</v>
@@ -1764,10 +1764,10 @@
         <v>2.5</v>
       </c>
       <c r="N11" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
         <v>1.57</v>
@@ -1782,19 +1782,19 @@
         <v>1.62</v>
       </c>
       <c r="T11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y11" t="n">
         <v>41</v>
@@ -1815,16 +1815,16 @@
         <v>101</v>
       </c>
       <c r="AE11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG11" t="n">
         <v>12</v>
       </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
       <c r="AH11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
@@ -1999,7 +1999,7 @@
         <v>1.03</v>
       </c>
       <c r="K13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>1.17</v>
@@ -2353,19 +2353,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I16" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J16" t="n">
         <v>1.05</v>
       </c>
       <c r="K16" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="L16" t="n">
         <v>1.26</v>
@@ -2380,10 +2380,10 @@
         <v>1.93</v>
       </c>
       <c r="P16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="R16" t="n">
         <v>1.65</v>
@@ -2392,10 +2392,10 @@
         <v>2.12</v>
       </c>
       <c r="T16" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U16" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="V16" t="n">
         <v>9</v>
@@ -2410,22 +2410,22 @@
         <v>25</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AB16" t="n">
         <v>13</v>
       </c>
       <c r="AC16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD16" t="n">
         <v>350</v>
       </c>
       <c r="AE16" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF16" t="n">
         <v>15</v>
@@ -2437,10 +2437,10 @@
         <v>32</v>
       </c>
       <c r="AI16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -2478,7 +2478,7 @@
         <v>2.55</v>
       </c>
       <c r="H17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I17" t="n">
         <v>2.32</v>
@@ -2499,43 +2499,43 @@
         <v>1.4</v>
       </c>
       <c r="O17" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q17" t="n">
         <v>3.6</v>
       </c>
       <c r="R17" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S17" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="T17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="U17" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="V17" t="n">
         <v>10.25</v>
       </c>
       <c r="W17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X17" t="n">
         <v>17.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z17" t="n">
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB17" t="n">
         <v>11</v>
@@ -2547,22 +2547,22 @@
         <v>150</v>
       </c>
       <c r="AE17" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
         <v>9.75</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI17" t="n">
         <v>16</v>
       </c>
       <c r="AJ17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="18">
@@ -2636,10 +2636,10 @@
         <v>2.42</v>
       </c>
       <c r="T18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="U18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V18" t="n">
         <v>8.75</v>
@@ -2648,10 +2648,10 @@
         <v>21</v>
       </c>
       <c r="X18" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z18" t="n">
         <v>9</v>
@@ -2669,10 +2669,10 @@
         <v>200</v>
       </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF18" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG18" t="n">
         <v>10.75</v>
@@ -2681,10 +2681,10 @@
         <v>40</v>
       </c>
       <c r="AI18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>23</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="19">
@@ -2990,10 +2990,10 @@
         <v>1.62</v>
       </c>
       <c r="P21" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R21" t="n">
         <v>2</v>
@@ -3002,10 +3002,10 @@
         <v>1.72</v>
       </c>
       <c r="T21" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="U21" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="V21" t="n">
         <v>8.75</v>
@@ -3035,7 +3035,7 @@
         <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF21" t="n">
         <v>20</v>
@@ -3478,10 +3478,10 @@
         <v>1.65</v>
       </c>
       <c r="P27" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="R27" t="n">
         <v>1.75</v>
@@ -3490,10 +3490,10 @@
         <v>1.85</v>
       </c>
       <c r="T27" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="U27" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="V27" t="n">
         <v>8.75</v>
@@ -3502,10 +3502,10 @@
         <v>21</v>
       </c>
       <c r="X27" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z27" t="n">
         <v>8.25</v>
@@ -3523,19 +3523,19 @@
         <v>600</v>
       </c>
       <c r="AE27" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG27" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH27" t="n">
         <v>50</v>
       </c>
       <c r="AI27" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ27" t="n">
         <v>40</v>
@@ -4061,94 +4061,94 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.55</v>
+        <v>2.92</v>
       </c>
       <c r="H32" t="n">
         <v>3.4</v>
       </c>
       <c r="I32" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="J32" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K32" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="L32" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="M32" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N32" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="O32" t="n">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="P32" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="R32" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="S32" t="n">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="T32" t="n">
+        <v>9</v>
+      </c>
+      <c r="U32" t="n">
+        <v>16</v>
+      </c>
+      <c r="V32" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="W32" t="n">
+        <v>37</v>
+      </c>
+      <c r="X32" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AG32" t="n">
         <v>9.75</v>
       </c>
-      <c r="U32" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="V32" t="n">
-        <v>10</v>
-      </c>
-      <c r="W32" t="n">
+      <c r="AH32" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>32</v>
-      </c>
-      <c r="X32" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="33">
@@ -4570,10 +4570,10 @@
         <v>5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O36" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P36" t="n">
         <v>1.25</v>
@@ -5525,13 +5525,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="H44" t="n">
         <v>3.1</v>
       </c>
       <c r="I44" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="J44" t="n">
         <v>1.05</v>
@@ -5564,7 +5564,7 @@
         <v>2.1</v>
       </c>
       <c r="T44" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U44" t="n">
         <v>13</v>
@@ -5573,10 +5573,10 @@
         <v>10</v>
       </c>
       <c r="W44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y44" t="n">
         <v>29</v>
@@ -5597,16 +5597,16 @@
         <v>201</v>
       </c>
       <c r="AE44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI44" t="n">
         <v>21</v>
@@ -6981,10 +6981,10 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H56" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I56" t="n">
         <v>1.78</v>
@@ -6998,24 +6998,24 @@
         <v>5.2</v>
       </c>
       <c r="N56" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="O56" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S56" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="T56" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="U56" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V56" t="n">
         <v>13</v>
@@ -7024,16 +7024,16 @@
         <v>55</v>
       </c>
       <c r="X56" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y56" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z56" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AA56" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB56" t="n">
         <v>11.75</v>
@@ -7045,10 +7045,10 @@
         <v>175</v>
       </c>
       <c r="AE56" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AF56" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AG56" t="n">
         <v>8.5</v>
@@ -7057,7 +7057,7 @@
         <v>17</v>
       </c>
       <c r="AI56" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ56" t="n">
         <v>17</v>
@@ -8076,10 +8076,10 @@
         <v>1.45</v>
       </c>
       <c r="J65" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L65" t="n">
         <v>1.2</v>
@@ -8340,16 +8340,16 @@
         <v>2.55</v>
       </c>
       <c r="R67" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S67" t="n">
         <v>1.82</v>
       </c>
       <c r="T67" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U67" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="V67" t="n">
         <v>11</v>
@@ -8376,16 +8376,16 @@
         <v>75</v>
       </c>
       <c r="AD67" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE67" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AF67" t="n">
         <v>10.25</v>
       </c>
       <c r="AG67" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH67" t="n">
         <v>23</v>
@@ -8435,7 +8435,7 @@
         <v>3.2</v>
       </c>
       <c r="I68" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -8452,10 +8452,10 @@
         <v>1.57</v>
       </c>
       <c r="P68" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="R68" t="n">
         <v>1.93</v>
@@ -8464,31 +8464,31 @@
         <v>1.7</v>
       </c>
       <c r="T68" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="U68" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="V68" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W68" t="n">
         <v>16</v>
       </c>
       <c r="X68" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y68" t="n">
         <v>35</v>
       </c>
       <c r="Z68" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AA68" t="n">
         <v>6.3</v>
       </c>
       <c r="AB68" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC68" t="n">
         <v>100</v>
@@ -8497,19 +8497,19 @@
         <v>1000</v>
       </c>
       <c r="AE68" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF68" t="n">
         <v>21</v>
       </c>
       <c r="AG68" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH68" t="n">
         <v>65</v>
       </c>
       <c r="AI68" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ68" t="n">
         <v>55</v>
@@ -8547,7 +8547,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="H69" t="n">
         <v>2.77</v>
@@ -8574,13 +8574,13 @@
         <v>1.44</v>
       </c>
       <c r="P69" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R69" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S69" t="n">
         <v>1.65</v>
@@ -8607,7 +8607,7 @@
         <v>6.1</v>
       </c>
       <c r="AA69" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB69" t="n">
         <v>17</v>
@@ -8619,7 +8619,7 @@
         <v>101</v>
       </c>
       <c r="AE69" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AF69" t="n">
         <v>13</v>
@@ -8725,7 +8725,7 @@
         <v>8.75</v>
       </c>
       <c r="AA70" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB70" t="n">
         <v>15</v>
@@ -8752,7 +8752,7 @@
         <v>19.5</v>
       </c>
       <c r="AJ70" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71">
@@ -9095,7 +9095,7 @@
         <v>101</v>
       </c>
       <c r="AE73" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF73" t="n">
         <v>18</v>
@@ -9705,7 +9705,7 @@
         <v>1.17</v>
       </c>
       <c r="M79" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="N79" t="n">
         <v>1.53</v>
@@ -10550,7 +10550,7 @@
         <v>3.05</v>
       </c>
       <c r="N86" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="O86" t="n">
         <v>1.78</v>
@@ -10610,7 +10610,7 @@
         <v>8</v>
       </c>
       <c r="AH86" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI86" t="n">
         <v>13</v>
@@ -10798,19 +10798,19 @@
         <v>2.42</v>
       </c>
       <c r="R88" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S88" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T88" t="n">
         <v>7.5</v>
       </c>
       <c r="U88" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="V88" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W88" t="n">
         <v>25</v>
@@ -10834,7 +10834,7 @@
         <v>65</v>
       </c>
       <c r="AD88" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE88" t="n">
         <v>8.75</v>
@@ -10922,31 +10922,31 @@
         <v>1.75</v>
       </c>
       <c r="T89" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="U89" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="V89" t="n">
         <v>8.5</v>
-      </c>
-      <c r="V89" t="n">
-        <v>8.75</v>
       </c>
       <c r="W89" t="n">
         <v>17</v>
       </c>
       <c r="X89" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y89" t="n">
         <v>32</v>
       </c>
       <c r="Z89" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA89" t="n">
         <v>6.3</v>
       </c>
       <c r="AB89" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC89" t="n">
         <v>90</v>
@@ -10955,22 +10955,22 @@
         <v>800</v>
       </c>
       <c r="AE89" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF89" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG89" t="n">
         <v>13</v>
       </c>
       <c r="AH89" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI89" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ89" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90">
@@ -11005,13 +11005,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H90" t="n">
         <v>3.2</v>
       </c>
       <c r="I90" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -11034,16 +11034,16 @@
         <v>2.47</v>
       </c>
       <c r="R90" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="S90" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="T90" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="U90" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V90" t="n">
         <v>9.75</v>
@@ -11055,16 +11055,16 @@
         <v>24</v>
       </c>
       <c r="Y90" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z90" t="n">
         <v>9.5</v>
       </c>
       <c r="AA90" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB90" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AC90" t="n">
         <v>45</v>
@@ -11073,22 +11073,22 @@
         <v>300</v>
       </c>
       <c r="AE90" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AF90" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG90" t="n">
         <v>7.2</v>
       </c>
       <c r="AH90" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI90" t="n">
         <v>13</v>
       </c>
       <c r="AJ90" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
@@ -11673,16 +11673,20 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="H96" t="n">
         <v>8.5</v>
       </c>
       <c r="I96" t="n">
-        <v>12</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K96" t="n">
+        <v>34</v>
+      </c>
       <c r="L96" t="n">
         <v>1.05</v>
       </c>
@@ -11729,16 +11733,16 @@
         <v>34</v>
       </c>
       <c r="AA96" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB96" t="n">
         <v>23</v>
       </c>
       <c r="AC96" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD96" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE96" t="n">
         <v>41</v>
@@ -11747,7 +11751,7 @@
         <v>67</v>
       </c>
       <c r="AG96" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH96" t="n">
         <v>151</v>
@@ -11756,7 +11760,7 @@
         <v>67</v>
       </c>
       <c r="AJ96" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97">
@@ -13135,13 +13139,13 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="H109" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I109" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J109" t="n">
         <v>1.05</v>
@@ -13150,16 +13154,16 @@
         <v>11</v>
       </c>
       <c r="L109" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M109" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N109" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="O109" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="P109" t="n">
         <v>1.36</v>
@@ -13177,13 +13181,13 @@
         <v>7.5</v>
       </c>
       <c r="U109" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V109" t="n">
         <v>9</v>
       </c>
-      <c r="V109" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W109" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X109" t="n">
         <v>15</v>
@@ -13192,10 +13196,10 @@
         <v>26</v>
       </c>
       <c r="Z109" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA109" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB109" t="n">
         <v>15</v>
@@ -13207,10 +13211,10 @@
         <v>201</v>
       </c>
       <c r="AE109" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF109" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG109" t="n">
         <v>13</v>
@@ -13219,10 +13223,10 @@
         <v>41</v>
       </c>
       <c r="AI109" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ109" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ109" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="110">
@@ -13388,10 +13392,10 @@
         <v>9.5</v>
       </c>
       <c r="J111" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K111" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L111" t="n">
         <v>1.3</v>
@@ -13415,7 +13419,7 @@
         <v>2.5</v>
       </c>
       <c r="S111" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T111" t="n">
         <v>5.5</v>
@@ -13532,7 +13536,7 @@
         <v>3.25</v>
       </c>
       <c r="R112" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S112" t="n">
         <v>2</v>
@@ -13621,7 +13625,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H113" t="n">
         <v>3.2</v>
@@ -13654,7 +13658,7 @@
         <v>2.75</v>
       </c>
       <c r="R113" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S113" t="n">
         <v>2</v>
@@ -13764,10 +13768,10 @@
         <v>3.5</v>
       </c>
       <c r="N114" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O114" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P114" t="n">
         <v>1.36</v>
@@ -13776,10 +13780,10 @@
         <v>3</v>
       </c>
       <c r="R114" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S114" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T114" t="n">
         <v>7</v>
@@ -15017,19 +15021,19 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H125" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I125" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="J125" t="n">
         <v>1.05</v>
       </c>
       <c r="K125" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L125" t="n">
         <v>1.25</v>
@@ -15044,67 +15048,67 @@
         <v>1.95</v>
       </c>
       <c r="P125" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q125" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="R125" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S125" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="T125" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="U125" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="V125" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="W125" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X125" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y125" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z125" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AA125" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AB125" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF125" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC125" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD125" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE125" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF125" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AG125" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH125" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AI125" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AJ125" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126">
@@ -15758,13 +15762,13 @@
         <v>3.6</v>
       </c>
       <c r="J131" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K131" t="n">
         <v>9</v>
       </c>
       <c r="L131" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M131" t="n">
         <v>3</v>
@@ -15871,7 +15875,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H132" t="n">
         <v>3.2</v>
@@ -15880,13 +15884,13 @@
         <v>2.05</v>
       </c>
       <c r="J132" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K132" t="n">
         <v>8.5</v>
       </c>
       <c r="L132" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M132" t="n">
         <v>3</v>
@@ -15910,16 +15914,16 @@
         <v>1.8</v>
       </c>
       <c r="T132" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U132" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V132" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W132" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X132" t="n">
         <v>29</v>
@@ -15993,88 +15997,88 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="H133" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I133" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J133" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="K133" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="L133" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M133" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N133" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O133" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P133" t="n">
         <v>1.44</v>
       </c>
-      <c r="M133" t="n">
+      <c r="Q133" t="n">
         <v>2.63</v>
       </c>
-      <c r="N133" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O133" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P133" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q133" t="n">
-        <v>2.5</v>
-      </c>
       <c r="R133" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S133" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="T133" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U133" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V133" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="W133" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X133" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Y133" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="Z133" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AA133" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB133" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC133" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD133" t="n">
         <v>600</v>
       </c>
       <c r="AE133" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF133" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG133" t="n">
         <v>12</v>
       </c>
       <c r="AH133" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI133" t="n">
         <v>26</v>
@@ -16725,13 +16729,13 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="H139" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I139" t="n">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -16739,7 +16743,7 @@
         <v>1.42</v>
       </c>
       <c r="M139" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N139" t="n">
         <v>2.28</v>
@@ -16754,25 +16758,25 @@
         <v>2.45</v>
       </c>
       <c r="R139" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="S139" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="T139" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="U139" t="n">
         <v>16</v>
       </c>
       <c r="V139" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W139" t="n">
         <v>50</v>
       </c>
       <c r="X139" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y139" t="n">
         <v>50</v>
@@ -16784,7 +16788,7 @@
         <v>5.2</v>
       </c>
       <c r="AB139" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC139" t="n">
         <v>101</v>
@@ -16796,13 +16800,13 @@
         <v>5</v>
       </c>
       <c r="AF139" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AG139" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AH139" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI139" t="n">
         <v>16</v>
@@ -17086,36 +17090,96 @@
           <t>Carabobo</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr"/>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
-      <c r="Z142" t="inlineStr"/>
-      <c r="AA142" t="inlineStr"/>
-      <c r="AB142" t="inlineStr"/>
-      <c r="AC142" t="inlineStr"/>
-      <c r="AD142" t="inlineStr"/>
-      <c r="AE142" t="inlineStr"/>
-      <c r="AF142" t="inlineStr"/>
-      <c r="AG142" t="inlineStr"/>
-      <c r="AH142" t="inlineStr"/>
-      <c r="AI142" t="inlineStr"/>
-      <c r="AJ142" t="inlineStr"/>
+      <c r="G142" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I142" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K142" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M142" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N142" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O142" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R142" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S142" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T142" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="U142" t="n">
+        <v>13</v>
+      </c>
+      <c r="V142" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="W142" t="n">
+        <v>35</v>
+      </c>
+      <c r="X142" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -17148,36 +17212,92 @@
           <t>Dep. Tachira</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
+      <c r="G143" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H143" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I143" t="n">
+        <v>2.25</v>
+      </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
-      <c r="Z143" t="inlineStr"/>
-      <c r="AA143" t="inlineStr"/>
-      <c r="AB143" t="inlineStr"/>
-      <c r="AC143" t="inlineStr"/>
-      <c r="AD143" t="inlineStr"/>
-      <c r="AE143" t="inlineStr"/>
-      <c r="AF143" t="inlineStr"/>
-      <c r="AG143" t="inlineStr"/>
-      <c r="AH143" t="inlineStr"/>
-      <c r="AI143" t="inlineStr"/>
-      <c r="AJ143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M143" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N143" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O143" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R143" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S143" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T143" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="U143" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="V143" t="n">
+        <v>12</v>
+      </c>
+      <c r="W143" t="n">
+        <v>50</v>
+      </c>
+      <c r="X143" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-05-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-02.xlsx
@@ -900,10 +900,10 @@
         <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" t="n">
         <v>1.22</v>
@@ -1502,10 +1502,10 @@
         <v>2.63</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="J9" t="n">
         <v>1.1</v>
@@ -1520,10 +1520,10 @@
         <v>2.63</v>
       </c>
       <c r="N9" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
         <v>1.53</v>
@@ -1538,16 +1538,16 @@
         <v>1.7</v>
       </c>
       <c r="T9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V9" t="n">
         <v>11</v>
       </c>
       <c r="W9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X9" t="n">
         <v>26</v>
@@ -1559,10 +1559,10 @@
         <v>7</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC9" t="n">
         <v>67</v>
@@ -1571,16 +1571,16 @@
         <v>501</v>
       </c>
       <c r="AE9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
         <v>26</v>
@@ -1630,10 +1630,10 @@
         <v>2.88</v>
       </c>
       <c r="J10" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.44</v>
@@ -1642,25 +1642,25 @@
         <v>2.63</v>
       </c>
       <c r="N10" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U10" t="n">
         <v>11</v>
@@ -1678,22 +1678,22 @@
         <v>41</v>
       </c>
       <c r="Z10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA10" t="n">
         <v>6</v>
       </c>
       <c r="AB10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC10" t="n">
         <v>67</v>
       </c>
       <c r="AD10" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF10" t="n">
         <v>13</v>
@@ -1705,7 +1705,7 @@
         <v>29</v>
       </c>
       <c r="AI10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ10" t="n">
         <v>41</v>
@@ -2231,13 +2231,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
         <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
         <v>1.06</v>
@@ -2294,7 +2294,7 @@
         <v>6</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
         <v>41</v>
@@ -2356,7 +2356,7 @@
         <v>2.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
         <v>2.82</v>
@@ -2419,7 +2419,7 @@
         <v>13</v>
       </c>
       <c r="AC16" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD16" t="n">
         <v>350</v>
@@ -2437,7 +2437,7 @@
         <v>32</v>
       </c>
       <c r="AI16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="H17" t="n">
         <v>3.85</v>
@@ -2499,7 +2499,7 @@
         <v>1.4</v>
       </c>
       <c r="O17" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="P17" t="n">
         <v>1.25</v>
@@ -2514,22 +2514,22 @@
         <v>2.8</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V17" t="n">
         <v>10.25</v>
       </c>
       <c r="W17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X17" t="n">
         <v>17.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z17" t="n">
         <v>10</v>
@@ -2538,31 +2538,31 @@
         <v>8.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AC17" t="n">
         <v>29</v>
       </c>
       <c r="AD17" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG17" t="n">
         <v>9.75</v>
       </c>
       <c r="AH17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
         <v>16</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -2624,7 +2624,7 @@
         <v>2.3</v>
       </c>
       <c r="P18" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="Q18" t="n">
         <v>3.2</v>
@@ -2636,7 +2636,7 @@
         <v>2.42</v>
       </c>
       <c r="T18" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="U18" t="n">
         <v>12.5</v>
@@ -2651,7 +2651,7 @@
         <v>15</v>
       </c>
       <c r="Y18" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z18" t="n">
         <v>9</v>
@@ -2669,7 +2669,7 @@
         <v>200</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF18" t="n">
         <v>19.5</v>
@@ -2684,7 +2684,7 @@
         <v>22</v>
       </c>
       <c r="AJ18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -2978,37 +2978,37 @@
         <v>6.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M21" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="N21" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="O21" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P21" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S21" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T21" t="n">
         <v>6.1</v>
       </c>
       <c r="U21" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="V21" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W21" t="n">
         <v>15</v>
@@ -3017,13 +3017,13 @@
         <v>16.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z21" t="n">
         <v>6.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB21" t="n">
         <v>17.5</v>
@@ -3032,16 +3032,16 @@
         <v>100</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH21" t="n">
         <v>60</v>
@@ -3050,7 +3050,7 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
@@ -3585,7 +3585,7 @@
         <v>1.08</v>
       </c>
       <c r="K28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L28" t="n">
         <v>1.44</v>
@@ -3606,10 +3606,10 @@
         <v>2.5</v>
       </c>
       <c r="R28" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S28" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T28" t="n">
         <v>5.5</v>
@@ -3627,10 +3627,10 @@
         <v>17</v>
       </c>
       <c r="Y28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA28" t="n">
         <v>7</v>
@@ -3645,7 +3645,7 @@
         <v>351</v>
       </c>
       <c r="AE28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF28" t="n">
         <v>23</v>
@@ -3948,10 +3948,10 @@
         <v>4.33</v>
       </c>
       <c r="J31" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L31" t="n">
         <v>1.33</v>
@@ -4692,10 +4692,10 @@
         <v>4</v>
       </c>
       <c r="N37" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O37" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P37" t="n">
         <v>1.33</v>
@@ -5049,7 +5049,7 @@
         <v>1.08</v>
       </c>
       <c r="K40" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L40" t="n">
         <v>1.4</v>
@@ -5412,22 +5412,22 @@
         <v>2.2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L43" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M43" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N43" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P43" t="n">
         <v>1.4</v>
@@ -7588,10 +7588,10 @@
         <v>3.1</v>
       </c>
       <c r="J61" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K61" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L61" t="n">
         <v>1.33</v>
@@ -7954,10 +7954,10 @@
         <v>4.75</v>
       </c>
       <c r="J64" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L64" t="n">
         <v>1.3</v>
@@ -8311,13 +8311,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H67" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I67" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -8340,49 +8340,49 @@
         <v>2.55</v>
       </c>
       <c r="R67" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S67" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T67" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U67" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="V67" t="n">
         <v>11</v>
       </c>
       <c r="W67" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X67" t="n">
         <v>29</v>
       </c>
       <c r="Y67" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z67" t="n">
         <v>8</v>
       </c>
       <c r="AA67" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB67" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC67" t="n">
         <v>75</v>
       </c>
       <c r="AD67" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE67" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AF67" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AG67" t="n">
         <v>9.25</v>
@@ -8452,10 +8452,10 @@
         <v>1.57</v>
       </c>
       <c r="P68" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="R68" t="n">
         <v>1.93</v>
@@ -8464,55 +8464,55 @@
         <v>1.7</v>
       </c>
       <c r="T68" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="U68" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="V68" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W68" t="n">
         <v>16</v>
       </c>
       <c r="X68" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y68" t="n">
         <v>35</v>
       </c>
       <c r="Z68" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AA68" t="n">
         <v>6.3</v>
       </c>
       <c r="AB68" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC68" t="n">
         <v>100</v>
       </c>
       <c r="AD68" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE68" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF68" t="n">
         <v>21</v>
       </c>
       <c r="AG68" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH68" t="n">
         <v>65</v>
       </c>
       <c r="AI68" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ68" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69">
@@ -8547,10 +8547,10 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H69" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="I69" t="n">
         <v>2.85</v>
@@ -8565,13 +8565,13 @@
         <v>1.5</v>
       </c>
       <c r="M69" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="N69" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="O69" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="P69" t="n">
         <v>1.57</v>
@@ -8580,37 +8580,37 @@
         <v>2.1</v>
       </c>
       <c r="R69" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S69" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T69" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="U69" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="V69" t="n">
         <v>10.5</v>
       </c>
       <c r="W69" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X69" t="n">
         <v>28</v>
       </c>
       <c r="Y69" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z69" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AA69" t="n">
         <v>5.6</v>
       </c>
       <c r="AB69" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC69" t="n">
         <v>110</v>
@@ -8628,7 +8628,7 @@
         <v>11</v>
       </c>
       <c r="AH69" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI69" t="n">
         <v>30</v>
@@ -8680,7 +8680,7 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M70" t="n">
         <v>2.77</v>
@@ -8701,10 +8701,10 @@
         <v>1.78</v>
       </c>
       <c r="S70" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T70" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U70" t="n">
         <v>15</v>
@@ -8725,7 +8725,7 @@
         <v>8.75</v>
       </c>
       <c r="AA70" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB70" t="n">
         <v>15</v>
@@ -8787,13 +8787,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H71" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I71" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -8825,7 +8825,7 @@
         <v>5.9</v>
       </c>
       <c r="U71" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="V71" t="n">
         <v>8.25</v>
@@ -8855,10 +8855,10 @@
         <v>900</v>
       </c>
       <c r="AE71" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF71" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG71" t="n">
         <v>16</v>
@@ -8908,7 +8908,7 @@
         <v>1.62</v>
       </c>
       <c r="H72" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I72" t="n">
         <v>5</v>
@@ -8919,7 +8919,7 @@
         <v>1.3</v>
       </c>
       <c r="M72" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="N72" t="n">
         <v>1.88</v>
@@ -8931,7 +8931,7 @@
         <v>1.4</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R72" t="n">
         <v>1.9</v>
@@ -8955,7 +8955,7 @@
         <v>13.5</v>
       </c>
       <c r="Y72" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z72" t="n">
         <v>9.5</v>
@@ -8982,7 +8982,7 @@
         <v>16.5</v>
       </c>
       <c r="AH72" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI72" t="n">
         <v>55</v>
@@ -9026,7 +9026,7 @@
         <v>2.12</v>
       </c>
       <c r="H73" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I73" t="n">
         <v>3.6</v>
@@ -9059,7 +9059,7 @@
         <v>2.05</v>
       </c>
       <c r="S73" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T73" t="n">
         <v>5.5</v>
@@ -9083,10 +9083,10 @@
         <v>6.3</v>
       </c>
       <c r="AA73" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB73" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC73" t="n">
         <v>120</v>
@@ -9098,7 +9098,7 @@
         <v>8</v>
       </c>
       <c r="AF73" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG73" t="n">
         <v>13</v>
@@ -9145,18 +9145,18 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="H74" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="I74" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M74" t="n">
         <v>2.55</v>
@@ -9180,25 +9180,25 @@
         <v>1.87</v>
       </c>
       <c r="T74" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="U74" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V74" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W74" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X74" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y74" t="n">
         <v>32</v>
       </c>
       <c r="Z74" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AA74" t="n">
         <v>5.1</v>
@@ -9213,19 +9213,19 @@
         <v>500</v>
       </c>
       <c r="AE74" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF74" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG74" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH74" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI74" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ74" t="n">
         <v>37</v>
@@ -9702,7 +9702,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M79" t="n">
         <v>4.4</v>
@@ -10426,16 +10426,16 @@
         <v>9</v>
       </c>
       <c r="L85" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M85" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N85" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O85" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P85" t="n">
         <v>1.44</v>
@@ -10533,13 +10533,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="H86" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I86" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -10550,7 +10550,7 @@
         <v>3.05</v>
       </c>
       <c r="N86" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="O86" t="n">
         <v>1.78</v>
@@ -10559,25 +10559,25 @@
         <v>1.39</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R86" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S86" t="n">
         <v>1.75</v>
       </c>
       <c r="T86" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U86" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V86" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="W86" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="X86" t="n">
         <v>60</v>
@@ -10586,10 +10586,10 @@
         <v>60</v>
       </c>
       <c r="Z86" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA86" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AB86" t="n">
         <v>17.5</v>
@@ -10601,22 +10601,22 @@
         <v>700</v>
       </c>
       <c r="AE86" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AF86" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AG86" t="n">
         <v>8</v>
       </c>
       <c r="AH86" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AI86" t="n">
         <v>13</v>
       </c>
       <c r="AJ86" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87">
@@ -10769,13 +10769,13 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H88" t="n">
         <v>3.15</v>
       </c>
       <c r="I88" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -10786,10 +10786,10 @@
         <v>2.82</v>
       </c>
       <c r="N88" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O88" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P88" t="n">
         <v>1.44</v>
@@ -10804,16 +10804,16 @@
         <v>1.87</v>
       </c>
       <c r="T88" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="U88" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="V88" t="n">
         <v>9.5</v>
       </c>
       <c r="W88" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X88" t="n">
         <v>21</v>
@@ -10831,22 +10831,22 @@
         <v>14</v>
       </c>
       <c r="AC88" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD88" t="n">
         <v>600</v>
       </c>
       <c r="AE88" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF88" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG88" t="n">
         <v>10.25</v>
       </c>
       <c r="AH88" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI88" t="n">
         <v>24</v>
@@ -10887,13 +10887,13 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="H89" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I89" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -10907,7 +10907,7 @@
         <v>2.05</v>
       </c>
       <c r="O89" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P89" t="n">
         <v>1.4</v>
@@ -10916,52 +10916,52 @@
         <v>2.52</v>
       </c>
       <c r="R89" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S89" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T89" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="U89" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="V89" t="n">
         <v>8.5</v>
       </c>
       <c r="W89" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X89" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y89" t="n">
         <v>32</v>
       </c>
       <c r="Z89" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA89" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB89" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC89" t="n">
         <v>90</v>
       </c>
       <c r="AD89" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE89" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF89" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG89" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH89" t="n">
         <v>60</v>
@@ -10970,7 +10970,7 @@
         <v>40</v>
       </c>
       <c r="AJ89" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90">
@@ -11122,36 +11122,92 @@
           <t>Hegelmann</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2.37</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
-      <c r="AA91" t="inlineStr"/>
-      <c r="AB91" t="inlineStr"/>
-      <c r="AC91" t="inlineStr"/>
-      <c r="AD91" t="inlineStr"/>
-      <c r="AE91" t="inlineStr"/>
-      <c r="AF91" t="inlineStr"/>
-      <c r="AG91" t="inlineStr"/>
-      <c r="AH91" t="inlineStr"/>
-      <c r="AI91" t="inlineStr"/>
-      <c r="AJ91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="T91" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U91" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W91" t="n">
+        <v>30</v>
+      </c>
+      <c r="X91" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -13160,10 +13216,10 @@
         <v>3.5</v>
       </c>
       <c r="N109" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O109" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P109" t="n">
         <v>1.36</v>
@@ -13419,7 +13475,7 @@
         <v>2.5</v>
       </c>
       <c r="S111" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T111" t="n">
         <v>5.5</v>
@@ -13536,7 +13592,7 @@
         <v>3.25</v>
       </c>
       <c r="R112" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S112" t="n">
         <v>2</v>
@@ -13658,7 +13714,7 @@
         <v>2.75</v>
       </c>
       <c r="R113" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S113" t="n">
         <v>2</v>
@@ -13780,10 +13836,10 @@
         <v>3</v>
       </c>
       <c r="R114" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S114" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T114" t="n">
         <v>7</v>
@@ -14167,13 +14223,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H118" t="n">
         <v>3</v>
       </c>
       <c r="I118" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J118" t="n">
         <v>1.08</v>
@@ -14182,16 +14238,16 @@
         <v>7</v>
       </c>
       <c r="L118" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M118" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N118" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O118" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P118" t="n">
         <v>1.5</v>
@@ -14209,13 +14265,13 @@
         <v>6.5</v>
       </c>
       <c r="U118" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V118" t="n">
         <v>10</v>
       </c>
       <c r="W118" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X118" t="n">
         <v>21</v>
@@ -14236,22 +14292,22 @@
         <v>51</v>
       </c>
       <c r="AD118" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE118" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF118" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG118" t="n">
         <v>13</v>
       </c>
       <c r="AH118" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI118" t="n">
         <v>34</v>
-      </c>
-      <c r="AI118" t="n">
-        <v>29</v>
       </c>
       <c r="AJ118" t="n">
         <v>41</v>
@@ -15024,7 +15080,7 @@
         <v>2.5</v>
       </c>
       <c r="H125" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I125" t="n">
         <v>2.5</v>
@@ -15081,7 +15137,7 @@
         <v>7.8</v>
       </c>
       <c r="AA125" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB125" t="n">
         <v>12.5</v>
@@ -15093,7 +15149,7 @@
         <v>350</v>
       </c>
       <c r="AE125" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF125" t="n">
         <v>13.5</v>
@@ -15102,13 +15158,13 @@
         <v>9.5</v>
       </c>
       <c r="AH125" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI125" t="n">
         <v>20</v>
       </c>
       <c r="AJ125" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126">
@@ -15762,13 +15818,13 @@
         <v>3.6</v>
       </c>
       <c r="J131" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K131" t="n">
         <v>9</v>
       </c>
       <c r="L131" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M131" t="n">
         <v>3</v>
@@ -15884,13 +15940,13 @@
         <v>2.05</v>
       </c>
       <c r="J132" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K132" t="n">
         <v>8.5</v>
       </c>
       <c r="L132" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M132" t="n">
         <v>3</v>
@@ -15944,7 +16000,7 @@
         <v>51</v>
       </c>
       <c r="AD132" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE132" t="n">
         <v>7</v>
@@ -16006,13 +16062,13 @@
         <v>3</v>
       </c>
       <c r="J133" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K133" t="n">
         <v>8.5</v>
       </c>
       <c r="L133" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M133" t="n">
         <v>3.25</v>
@@ -16066,7 +16122,7 @@
         <v>51</v>
       </c>
       <c r="AD133" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE133" t="n">
         <v>9.5</v>
@@ -16119,7 +16175,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="H134" t="n">
         <v>3.75</v>
@@ -16128,73 +16184,73 @@
         <v>2.72</v>
       </c>
       <c r="J134" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K134" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="L134" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M134" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="N134" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O134" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="P134" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R134" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S134" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T134" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="U134" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V134" t="n">
         <v>9</v>
       </c>
-      <c r="L134" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M134" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="N134" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O134" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="P134" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q134" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R134" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S134" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="T134" t="n">
-        <v>11</v>
-      </c>
-      <c r="U134" t="n">
-        <v>13</v>
-      </c>
-      <c r="V134" t="n">
-        <v>9.25</v>
-      </c>
       <c r="W134" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X134" t="n">
         <v>16</v>
       </c>
       <c r="Y134" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z134" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA134" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AB134" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC134" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD134" t="n">
         <v>250</v>
       </c>
       <c r="AE134" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF134" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG134" t="n">
         <v>10.25</v>
@@ -16206,7 +16262,7 @@
         <v>20</v>
       </c>
       <c r="AJ134" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135">
@@ -16729,51 +16785,51 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H139" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I139" t="n">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M139" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="N139" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="O139" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="P139" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="Q139" t="n">
         <v>2.45</v>
       </c>
       <c r="R139" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="S139" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="T139" t="n">
         <v>7.4</v>
       </c>
       <c r="U139" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V139" t="n">
         <v>11</v>
       </c>
       <c r="W139" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="X139" t="n">
         <v>35</v>
@@ -16785,31 +16841,31 @@
         <v>6.4</v>
       </c>
       <c r="AA139" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AB139" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC139" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AD139" t="n">
         <v>101</v>
       </c>
       <c r="AE139" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="AF139" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AG139" t="n">
         <v>7.8</v>
       </c>
       <c r="AH139" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI139" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ139" t="n">
         <v>35</v>
@@ -17094,13 +17150,13 @@
         <v>2.8</v>
       </c>
       <c r="H142" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="I142" t="n">
         <v>2.62</v>
       </c>
       <c r="J142" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="K142" t="n">
         <v>5.8</v>
@@ -17112,7 +17168,7 @@
         <v>2.32</v>
       </c>
       <c r="N142" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="O142" t="n">
         <v>1.45</v>
@@ -17130,22 +17186,22 @@
         <v>1.65</v>
       </c>
       <c r="T142" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="U142" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V142" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="W142" t="n">
         <v>35</v>
       </c>
       <c r="X142" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y142" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z142" t="n">
         <v>6.3</v>
@@ -17163,19 +17219,19 @@
         <v>101</v>
       </c>
       <c r="AE142" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AF142" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG142" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH142" t="n">
         <v>30</v>
       </c>
       <c r="AI142" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ142" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-02.xlsx
@@ -900,10 +900,10 @@
         <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" t="n">
         <v>1.22</v>
@@ -939,7 +939,7 @@
         <v>9.5</v>
       </c>
       <c r="W4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X4" t="n">
         <v>17</v>
@@ -972,10 +972,10 @@
         <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ4" t="n">
         <v>29</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
         <v>1.1</v>
@@ -1055,10 +1055,10 @@
         <v>6.5</v>
       </c>
       <c r="U5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W5" t="n">
         <v>21</v>
@@ -1085,7 +1085,7 @@
         <v>401</v>
       </c>
       <c r="AE5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
@@ -1267,7 +1267,7 @@
         <v>1.08</v>
       </c>
       <c r="K7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L7" t="n">
         <v>1.44</v>
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I8" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.5</v>
       </c>
       <c r="J8" t="n">
         <v>1.08</v>
@@ -1404,10 +1404,10 @@
         <v>1.53</v>
       </c>
       <c r="P8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R8" t="n">
         <v>2.05</v>
@@ -1416,22 +1416,22 @@
         <v>1.7</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X8" t="n">
         <v>21</v>
       </c>
       <c r="Y8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z8" t="n">
         <v>7</v>
@@ -1449,19 +1449,19 @@
         <v>501</v>
       </c>
       <c r="AE8" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>
@@ -1746,16 +1746,16 @@
         <v>2.4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J11" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
         <v>1.5</v>
@@ -1770,16 +1770,16 @@
         <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T11" t="n">
         <v>6</v>
@@ -1800,13 +1800,13 @@
         <v>41</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA11" t="n">
         <v>6.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="n">
         <v>81</v>
@@ -1999,7 +1999,7 @@
         <v>1.03</v>
       </c>
       <c r="K13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L13" t="n">
         <v>1.17</v>
@@ -2020,10 +2020,10 @@
         <v>3.5</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T13" t="n">
         <v>11</v>
@@ -2062,7 +2062,7 @@
         <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
@@ -2109,19 +2109,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L14" t="n">
         <v>1.2</v>
@@ -2130,10 +2130,10 @@
         <v>4.5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O14" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P14" t="n">
         <v>1.29</v>
@@ -2154,7 +2154,7 @@
         <v>17</v>
       </c>
       <c r="V14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W14" t="n">
         <v>29</v>
@@ -2175,7 +2175,7 @@
         <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD14" t="n">
         <v>126</v>
@@ -2190,7 +2190,7 @@
         <v>9.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
         <v>17</v>
@@ -2252,10 +2252,10 @@
         <v>3.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O15" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P15" t="n">
         <v>1.4</v>
@@ -2356,7 +2356,7 @@
         <v>2.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I16" t="n">
         <v>2.82</v>
@@ -2484,67 +2484,67 @@
         <v>2.32</v>
       </c>
       <c r="J17" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K17" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="T17" t="n">
+        <v>14</v>
+      </c>
+      <c r="U17" t="n">
+        <v>17</v>
+      </c>
+      <c r="V17" t="n">
         <v>10</v>
       </c>
-      <c r="L17" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T17" t="n">
-        <v>16</v>
-      </c>
-      <c r="U17" t="n">
-        <v>19</v>
-      </c>
-      <c r="V17" t="n">
-        <v>10.25</v>
-      </c>
       <c r="W17" t="n">
+        <v>30</v>
+      </c>
+      <c r="X17" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AC17" t="n">
         <v>32</v>
       </c>
-      <c r="X17" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>29</v>
-      </c>
       <c r="AD17" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AE17" t="n">
         <v>14</v>
@@ -2553,7 +2553,7 @@
         <v>16</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH17" t="n">
         <v>26</v>
@@ -2562,7 +2562,7 @@
         <v>16</v>
       </c>
       <c r="AJ17" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="18">
@@ -2624,7 +2624,7 @@
         <v>2.3</v>
       </c>
       <c r="P18" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="Q18" t="n">
         <v>3.2</v>
@@ -2648,7 +2648,7 @@
         <v>21</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y18" t="n">
         <v>19.5</v>
@@ -2672,7 +2672,7 @@
         <v>13.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
         <v>10.75</v>
@@ -2681,7 +2681,7 @@
         <v>40</v>
       </c>
       <c r="AI18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ18" t="n">
         <v>24</v>
@@ -3271,10 +3271,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H25" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
         <v>4.75</v>
@@ -3292,10 +3292,10 @@
         <v>5</v>
       </c>
       <c r="N25" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O25" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P25" t="n">
         <v>1.25</v>
@@ -3319,13 +3319,13 @@
         <v>8.5</v>
       </c>
       <c r="W25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X25" t="n">
         <v>12</v>
       </c>
       <c r="Y25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z25" t="n">
         <v>17</v>
@@ -3346,7 +3346,7 @@
         <v>17</v>
       </c>
       <c r="AF25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG25" t="n">
         <v>15</v>
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H29" t="n">
         <v>3.3</v>
@@ -3817,7 +3817,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H30" t="n">
         <v>3.3</v>
@@ -3939,7 +3939,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="H31" t="n">
         <v>3.4</v>
@@ -4189,7 +4189,7 @@
         <v>4.1</v>
       </c>
       <c r="I33" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="J33" t="n">
         <v>1.05</v>
@@ -4427,94 +4427,94 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.27</v>
+        <v>2.95</v>
       </c>
       <c r="H35" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I35" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="J35" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K35" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="L35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P35" t="n">
         <v>1.47</v>
       </c>
-      <c r="M35" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.55</v>
-      </c>
       <c r="Q35" t="n">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="R35" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S35" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T35" t="n">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="U35" t="n">
+        <v>15</v>
+      </c>
+      <c r="V35" t="n">
+        <v>12</v>
+      </c>
+      <c r="W35" t="n">
+        <v>40</v>
+      </c>
+      <c r="X35" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AG35" t="n">
         <v>10.25</v>
       </c>
-      <c r="V35" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="W35" t="n">
+      <c r="AH35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI35" t="n">
         <v>24</v>
       </c>
-      <c r="X35" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y35" t="n">
+      <c r="AJ35" t="n">
         <v>45</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>120</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>55</v>
       </c>
     </row>
     <row r="36">
@@ -4692,10 +4692,10 @@
         <v>4</v>
       </c>
       <c r="N37" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O37" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P37" t="n">
         <v>1.33</v>
@@ -7222,10 +7222,10 @@
         <v>1.55</v>
       </c>
       <c r="J58" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L58" t="n">
         <v>1.3</v>
@@ -7234,10 +7234,10 @@
         <v>3.4</v>
       </c>
       <c r="N58" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O58" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P58" t="n">
         <v>1.4</v>
@@ -7282,7 +7282,7 @@
         <v>67</v>
       </c>
       <c r="AD58" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE58" t="n">
         <v>6</v>
@@ -7832,10 +7832,10 @@
         <v>2.3</v>
       </c>
       <c r="J63" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K63" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L63" t="n">
         <v>1.33</v>
@@ -8267,7 +8267,7 @@
         <v>29</v>
       </c>
       <c r="AG66" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH66" t="n">
         <v>51</v>
@@ -8276,7 +8276,7 @@
         <v>34</v>
       </c>
       <c r="AJ66" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67">
@@ -8314,7 +8314,7 @@
         <v>3.1</v>
       </c>
       <c r="H67" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I67" t="n">
         <v>2.27</v>
@@ -8322,49 +8322,49 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M67" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="N67" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="O67" t="n">
         <v>1.6</v>
       </c>
       <c r="P67" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="R67" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S67" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T67" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U67" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="V67" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="W67" t="n">
         <v>40</v>
       </c>
       <c r="X67" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y67" t="n">
         <v>40</v>
       </c>
       <c r="Z67" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AA67" t="n">
         <v>6</v>
@@ -8373,25 +8373,25 @@
         <v>15</v>
       </c>
       <c r="AC67" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AD67" t="n">
         <v>700</v>
       </c>
       <c r="AE67" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AF67" t="n">
         <v>10.5</v>
       </c>
       <c r="AG67" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH67" t="n">
         <v>23</v>
       </c>
       <c r="AI67" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ67" t="n">
         <v>32</v>
@@ -8435,7 +8435,7 @@
         <v>3.2</v>
       </c>
       <c r="I68" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -8464,19 +8464,19 @@
         <v>1.7</v>
       </c>
       <c r="T68" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="U68" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="V68" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W68" t="n">
         <v>16</v>
       </c>
       <c r="X68" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y68" t="n">
         <v>35</v>
@@ -8488,31 +8488,31 @@
         <v>6.3</v>
       </c>
       <c r="AB68" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC68" t="n">
         <v>100</v>
       </c>
       <c r="AD68" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE68" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF68" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG68" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH68" t="n">
         <v>65</v>
       </c>
       <c r="AI68" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ68" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69">
@@ -8547,10 +8547,10 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H69" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I69" t="n">
         <v>2.85</v>
@@ -8565,13 +8565,13 @@
         <v>1.5</v>
       </c>
       <c r="M69" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="N69" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="O69" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P69" t="n">
         <v>1.57</v>
@@ -8580,28 +8580,28 @@
         <v>2.1</v>
       </c>
       <c r="R69" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S69" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T69" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="U69" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="V69" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="W69" t="n">
         <v>30</v>
       </c>
       <c r="X69" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y69" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z69" t="n">
         <v>6.2</v>
@@ -8610,7 +8610,7 @@
         <v>5.6</v>
       </c>
       <c r="AB69" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC69" t="n">
         <v>110</v>
@@ -8619,7 +8619,7 @@
         <v>101</v>
       </c>
       <c r="AE69" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AF69" t="n">
         <v>13</v>
@@ -8628,10 +8628,10 @@
         <v>11</v>
       </c>
       <c r="AH69" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI69" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ69" t="n">
         <v>50</v>
@@ -8669,10 +8669,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H70" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I70" t="n">
         <v>2.25</v>
@@ -8695,28 +8695,28 @@
         <v>1.44</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R70" t="n">
         <v>1.78</v>
       </c>
       <c r="S70" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T70" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U70" t="n">
         <v>15</v>
       </c>
       <c r="V70" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="W70" t="n">
         <v>37</v>
       </c>
       <c r="X70" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y70" t="n">
         <v>37</v>
@@ -8725,7 +8725,7 @@
         <v>8.75</v>
       </c>
       <c r="AA70" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB70" t="n">
         <v>15</v>
@@ -8743,13 +8743,13 @@
         <v>10.5</v>
       </c>
       <c r="AG70" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH70" t="n">
         <v>22</v>
       </c>
       <c r="AI70" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AJ70" t="n">
         <v>32</v>
@@ -8787,13 +8787,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H71" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I71" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -8825,7 +8825,7 @@
         <v>5.9</v>
       </c>
       <c r="U71" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="V71" t="n">
         <v>8.25</v>
@@ -8855,10 +8855,10 @@
         <v>900</v>
       </c>
       <c r="AE71" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF71" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG71" t="n">
         <v>16</v>
@@ -8908,7 +8908,7 @@
         <v>1.62</v>
       </c>
       <c r="H72" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I72" t="n">
         <v>5</v>
@@ -8919,7 +8919,7 @@
         <v>1.3</v>
       </c>
       <c r="M72" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="N72" t="n">
         <v>1.88</v>
@@ -8931,7 +8931,7 @@
         <v>1.4</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R72" t="n">
         <v>1.9</v>
@@ -8982,7 +8982,7 @@
         <v>16.5</v>
       </c>
       <c r="AH72" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI72" t="n">
         <v>55</v>
@@ -9059,22 +9059,22 @@
         <v>2.05</v>
       </c>
       <c r="S73" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T73" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="U73" t="n">
         <v>8.75</v>
       </c>
       <c r="V73" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W73" t="n">
         <v>20</v>
       </c>
       <c r="X73" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y73" t="n">
         <v>45</v>
@@ -9083,7 +9083,7 @@
         <v>6.3</v>
       </c>
       <c r="AA73" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AB73" t="n">
         <v>18.5</v>
@@ -9095,7 +9095,7 @@
         <v>101</v>
       </c>
       <c r="AE73" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AF73" t="n">
         <v>17.5</v>
@@ -9110,7 +9110,7 @@
         <v>40</v>
       </c>
       <c r="AJ73" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74">
@@ -9145,13 +9145,13 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.65</v>
+        <v>2.52</v>
       </c>
       <c r="H74" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="I74" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -9180,19 +9180,19 @@
         <v>1.87</v>
       </c>
       <c r="T74" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="U74" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V74" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W74" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X74" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y74" t="n">
         <v>32</v>
@@ -9210,22 +9210,22 @@
         <v>65</v>
       </c>
       <c r="AD74" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE74" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF74" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG74" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH74" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI74" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ74" t="n">
         <v>37</v>
@@ -9705,27 +9705,27 @@
         <v>1.18</v>
       </c>
       <c r="M79" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="N79" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O79" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S79" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="T79" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U79" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="V79" t="n">
         <v>11.5</v>
@@ -9734,43 +9734,43 @@
         <v>45</v>
       </c>
       <c r="X79" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y79" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z79" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA79" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AB79" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC79" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD79" t="n">
         <v>250</v>
       </c>
       <c r="AE79" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF79" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AG79" t="n">
         <v>8.5</v>
       </c>
       <c r="AH79" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI79" t="n">
         <v>14</v>
       </c>
       <c r="AJ79" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
@@ -10411,13 +10411,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H85" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I85" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J85" t="n">
         <v>1.07</v>
@@ -10426,16 +10426,16 @@
         <v>9</v>
       </c>
       <c r="L85" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M85" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="N85" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="O85" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="P85" t="n">
         <v>1.44</v>
@@ -10444,49 +10444,49 @@
         <v>2.63</v>
       </c>
       <c r="R85" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S85" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T85" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U85" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V85" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W85" t="n">
+        <v>13</v>
+      </c>
+      <c r="X85" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z85" t="n">
         <v>9</v>
       </c>
-      <c r="W85" t="n">
-        <v>15</v>
-      </c>
-      <c r="X85" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>8</v>
-      </c>
       <c r="AA85" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB85" t="n">
         <v>17</v>
       </c>
       <c r="AC85" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD85" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AE85" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF85" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG85" t="n">
         <v>15</v>
@@ -10562,13 +10562,13 @@
         <v>2.57</v>
       </c>
       <c r="R86" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S86" t="n">
         <v>1.75</v>
       </c>
       <c r="T86" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="U86" t="n">
         <v>32</v>
@@ -10589,7 +10589,7 @@
         <v>10</v>
       </c>
       <c r="AA86" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AB86" t="n">
         <v>17.5</v>
@@ -10598,19 +10598,19 @@
         <v>90</v>
       </c>
       <c r="AD86" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE86" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AF86" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AG86" t="n">
         <v>8</v>
       </c>
       <c r="AH86" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AI86" t="n">
         <v>13</v>
@@ -10665,31 +10665,31 @@
         <v>1.28</v>
       </c>
       <c r="M87" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="N87" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="O87" t="n">
         <v>1.78</v>
       </c>
       <c r="P87" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q87" t="n">
         <v>2.57</v>
       </c>
       <c r="R87" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S87" t="n">
         <v>1.82</v>
       </c>
-      <c r="S87" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T87" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="U87" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="V87" t="n">
         <v>8.25</v>
@@ -10701,7 +10701,7 @@
         <v>14</v>
       </c>
       <c r="Y87" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z87" t="n">
         <v>10.25</v>
@@ -10710,13 +10710,13 @@
         <v>7.1</v>
       </c>
       <c r="AB87" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC87" t="n">
         <v>80</v>
       </c>
       <c r="AD87" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE87" t="n">
         <v>11.5</v>
@@ -10734,7 +10734,7 @@
         <v>40</v>
       </c>
       <c r="AJ87" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88">
@@ -10786,10 +10786,10 @@
         <v>2.82</v>
       </c>
       <c r="N88" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O88" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P88" t="n">
         <v>1.44</v>
@@ -10798,16 +10798,16 @@
         <v>2.42</v>
       </c>
       <c r="R88" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S88" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T88" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="U88" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="V88" t="n">
         <v>9.5</v>
@@ -10831,13 +10831,13 @@
         <v>14</v>
       </c>
       <c r="AC88" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD88" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE88" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF88" t="n">
         <v>14</v>
@@ -10890,10 +10890,10 @@
         <v>1.88</v>
       </c>
       <c r="H89" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I89" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -10940,19 +10940,19 @@
         <v>32</v>
       </c>
       <c r="Z89" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA89" t="n">
         <v>6.4</v>
       </c>
       <c r="AB89" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC89" t="n">
         <v>90</v>
       </c>
       <c r="AD89" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE89" t="n">
         <v>9.5</v>
@@ -11005,13 +11005,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H90" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -11022,7 +11022,7 @@
         <v>3.45</v>
       </c>
       <c r="N90" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="O90" t="n">
         <v>1.78</v>
@@ -11040,31 +11040,31 @@
         <v>2.01</v>
       </c>
       <c r="T90" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="U90" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V90" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W90" t="n">
+        <v>40</v>
+      </c>
+      <c r="X90" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z90" t="n">
         <v>9.75</v>
       </c>
-      <c r="W90" t="n">
-        <v>37</v>
-      </c>
-      <c r="X90" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z90" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AA90" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB90" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AC90" t="n">
         <v>45</v>
@@ -11073,22 +11073,22 @@
         <v>300</v>
       </c>
       <c r="AE90" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AF90" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG90" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AH90" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI90" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ90" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="91">
@@ -11497,7 +11497,7 @@
         <v>1.02</v>
       </c>
       <c r="K94" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L94" t="n">
         <v>1.13</v>
@@ -13073,19 +13073,19 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="H108" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I108" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J108" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K108" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L108" t="n">
         <v>1.22</v>
@@ -13100,28 +13100,28 @@
         <v>2.08</v>
       </c>
       <c r="P108" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q108" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R108" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S108" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T108" t="n">
         <v>7</v>
       </c>
       <c r="U108" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="V108" t="n">
         <v>9</v>
       </c>
       <c r="W108" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X108" t="n">
         <v>12</v>
@@ -13130,10 +13130,10 @@
         <v>29</v>
       </c>
       <c r="Z108" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA108" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB108" t="n">
         <v>21</v>
@@ -13160,7 +13160,7 @@
         <v>67</v>
       </c>
       <c r="AJ108" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109">
@@ -13195,19 +13195,19 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H109" t="n">
         <v>3.3</v>
       </c>
       <c r="I109" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J109" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K109" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L109" t="n">
         <v>1.29</v>
@@ -13246,7 +13246,7 @@
         <v>17</v>
       </c>
       <c r="X109" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y109" t="n">
         <v>26</v>
@@ -13264,7 +13264,7 @@
         <v>51</v>
       </c>
       <c r="AD109" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE109" t="n">
         <v>11</v>
@@ -13338,10 +13338,10 @@
         <v>4.5</v>
       </c>
       <c r="N110" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O110" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P110" t="n">
         <v>1.29</v>
@@ -14244,10 +14244,10 @@
         <v>3</v>
       </c>
       <c r="N118" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O118" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P118" t="n">
         <v>1.5</v>
@@ -14348,7 +14348,7 @@
         <v>1.3</v>
       </c>
       <c r="H119" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I119" t="n">
         <v>8</v>
@@ -14357,25 +14357,25 @@
         <v>1.01</v>
       </c>
       <c r="K119" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L119" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M119" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N119" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="O119" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="P119" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q119" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R119" t="n">
         <v>1.83</v>
@@ -14384,10 +14384,10 @@
         <v>1.83</v>
       </c>
       <c r="T119" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U119" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V119" t="n">
         <v>9</v>
@@ -14399,10 +14399,10 @@
         <v>11</v>
       </c>
       <c r="Y119" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z119" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA119" t="n">
         <v>10</v>
@@ -14414,7 +14414,7 @@
         <v>51</v>
       </c>
       <c r="AD119" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE119" t="n">
         <v>23</v>
@@ -14955,13 +14955,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H124" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I124" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J124" t="n">
         <v>1.06</v>
@@ -14994,7 +14994,7 @@
         <v>1.62</v>
       </c>
       <c r="T124" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U124" t="n">
         <v>23</v>
@@ -15018,7 +15018,7 @@
         <v>8</v>
       </c>
       <c r="AB124" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC124" t="n">
         <v>81</v>
@@ -15027,7 +15027,7 @@
         <v>1250</v>
       </c>
       <c r="AE124" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF124" t="n">
         <v>7</v>
@@ -15036,7 +15036,7 @@
         <v>9</v>
       </c>
       <c r="AH124" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI124" t="n">
         <v>15</v>
@@ -15321,13 +15321,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="H127" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I127" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="J127" t="n">
         <v>1.01</v>
@@ -15348,19 +15348,19 @@
         <v>3.4</v>
       </c>
       <c r="P127" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Q127" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="R127" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S127" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T127" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U127" t="n">
         <v>12</v>
@@ -15372,7 +15372,7 @@
         <v>15</v>
       </c>
       <c r="X127" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y127" t="n">
         <v>17</v>
@@ -15387,7 +15387,7 @@
         <v>13</v>
       </c>
       <c r="AC127" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD127" t="n">
         <v>81</v>
@@ -15402,13 +15402,13 @@
         <v>15</v>
       </c>
       <c r="AH127" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI127" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ127" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ127" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="128">
@@ -16053,19 +16053,19 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H133" t="n">
         <v>3.1</v>
       </c>
       <c r="I133" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J133" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K133" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="L133" t="n">
         <v>1.33</v>
@@ -16074,10 +16074,10 @@
         <v>3.25</v>
       </c>
       <c r="N133" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O133" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P133" t="n">
         <v>1.44</v>
@@ -16092,16 +16092,16 @@
         <v>1.83</v>
       </c>
       <c r="T133" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U133" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V133" t="n">
         <v>9.5</v>
       </c>
       <c r="W133" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X133" t="n">
         <v>19</v>
@@ -16125,19 +16125,19 @@
         <v>500</v>
       </c>
       <c r="AE133" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF133" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG133" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH133" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI133" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ133" t="n">
         <v>41</v>
@@ -17150,7 +17150,7 @@
         <v>2.8</v>
       </c>
       <c r="H142" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="I142" t="n">
         <v>2.62</v>
@@ -17186,13 +17186,13 @@
         <v>1.65</v>
       </c>
       <c r="T142" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="U142" t="n">
         <v>12.5</v>
       </c>
       <c r="V142" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="W142" t="n">
         <v>35</v>
@@ -17207,7 +17207,7 @@
         <v>6.3</v>
       </c>
       <c r="AA142" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB142" t="n">
         <v>17</v>
@@ -17219,10 +17219,10 @@
         <v>101</v>
       </c>
       <c r="AE142" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AF142" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AG142" t="n">
         <v>10.25</v>
@@ -17231,7 +17231,7 @@
         <v>30</v>
       </c>
       <c r="AI142" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ142" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-02.xlsx
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H2" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
         <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
         <v>1.17</v>
@@ -680,19 +680,19 @@
         <v>3.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U2" t="n">
         <v>8</v>
       </c>
       <c r="V2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W2" t="n">
         <v>10</v>
@@ -719,13 +719,13 @@
         <v>301</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH2" t="n">
         <v>101</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.03</v>
@@ -784,10 +784,10 @@
         <v>15</v>
       </c>
       <c r="L3" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N3" t="n">
         <v>1.62</v>
@@ -802,10 +802,10 @@
         <v>3.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="S3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
         <v>8.5</v>
@@ -829,7 +829,7 @@
         <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB3" t="n">
         <v>17</v>
@@ -850,10 +850,10 @@
         <v>21</v>
       </c>
       <c r="AH3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
@@ -924,7 +924,7 @@
         <v>3.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S4" t="n">
         <v>2.2</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
         <v>1.1</v>
@@ -1049,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T5" t="n">
         <v>6.5</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
         <v>1.13</v>
@@ -1159,7 +1159,7 @@
         <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P6" t="n">
         <v>1.62</v>
@@ -1192,7 +1192,7 @@
         <v>41</v>
       </c>
       <c r="Z6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA6" t="n">
         <v>6</v>
@@ -1201,11 +1201,11 @@
         <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF6" t="n">
         <v>15</v>
@@ -1279,7 +1279,7 @@
         <v>2.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
         <v>1.5</v>
@@ -1380,16 +1380,16 @@
         <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
         <v>1.44</v>
@@ -1401,7 +1401,7 @@
         <v>2.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
         <v>1.53</v>
@@ -1499,19 +1499,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
@@ -1523,7 +1523,7 @@
         <v>2.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P9" t="n">
         <v>1.53</v>
@@ -1538,7 +1538,7 @@
         <v>1.7</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U9" t="n">
         <v>11</v>
@@ -1550,16 +1550,16 @@
         <v>26</v>
       </c>
       <c r="X9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
         <v>41</v>
       </c>
       <c r="Z9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB9" t="n">
         <v>17</v>
@@ -1568,22 +1568,22 @@
         <v>67</v>
       </c>
       <c r="AD9" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG9" t="n">
         <v>12</v>
       </c>
-      <c r="AG9" t="n">
-        <v>11</v>
-      </c>
       <c r="AH9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI9" t="n">
         <v>29</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>26</v>
       </c>
       <c r="AJ9" t="n">
         <v>41</v>
@@ -1749,7 +1749,7 @@
         <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
         <v>1.1</v>
@@ -1987,19 +1987,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H13" t="n">
         <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>1.2</v>
@@ -2014,16 +2014,16 @@
         <v>2.2</v>
       </c>
       <c r="P13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S13" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T13" t="n">
         <v>12</v>
@@ -2047,7 +2047,7 @@
         <v>15</v>
       </c>
       <c r="AA13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB13" t="n">
         <v>12</v>
@@ -2059,7 +2059,7 @@
         <v>126</v>
       </c>
       <c r="AE13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
         <v>13</v>
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
@@ -2270,10 +2270,10 @@
         <v>2.12</v>
       </c>
       <c r="T15" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="U15" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="V15" t="n">
         <v>9</v>
@@ -2297,16 +2297,16 @@
         <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD15" t="n">
         <v>350</v>
       </c>
       <c r="AE15" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG15" t="n">
         <v>10.25</v>
@@ -2318,7 +2318,7 @@
         <v>22</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -2374,7 +2374,7 @@
         <v>4.9</v>
       </c>
       <c r="N16" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="O16" t="n">
         <v>2.57</v>
@@ -2392,13 +2392,13 @@
         <v>2.67</v>
       </c>
       <c r="T16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="U16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="V16" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W16" t="n">
         <v>30</v>
@@ -2407,7 +2407,7 @@
         <v>18</v>
       </c>
       <c r="Y16" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z16" t="n">
         <v>9.75</v>
@@ -2416,7 +2416,7 @@
         <v>8.25</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
         <v>32</v>
@@ -2425,10 +2425,10 @@
         <v>150</v>
       </c>
       <c r="AE16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG16" t="n">
         <v>9.5</v>
@@ -2440,7 +2440,7 @@
         <v>16</v>
       </c>
       <c r="AJ16" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -2493,19 +2493,19 @@
         <v>1.18</v>
       </c>
       <c r="M17" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="N17" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O17" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="P17" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="R17" t="n">
         <v>1.5</v>
@@ -2538,7 +2538,7 @@
         <v>7.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC17" t="n">
         <v>37</v>
@@ -2547,7 +2547,7 @@
         <v>200</v>
       </c>
       <c r="AE17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF17" t="n">
         <v>19</v>
@@ -2562,7 +2562,7 @@
         <v>23</v>
       </c>
       <c r="AJ17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -2913,10 +2913,10 @@
         <v>900</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG20" t="n">
         <v>13.5</v>
@@ -3238,7 +3238,7 @@
         <v>3.75</v>
       </c>
       <c r="R24" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S24" t="n">
         <v>2.25</v>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H25" t="n">
         <v>3.4</v>
@@ -3360,13 +3360,13 @@
         <v>3.25</v>
       </c>
       <c r="R25" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="S25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U25" t="n">
         <v>10</v>
@@ -3449,13 +3449,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H26" t="n">
         <v>3.05</v>
       </c>
       <c r="I26" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -3478,25 +3478,25 @@
         <v>2.35</v>
       </c>
       <c r="R26" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S26" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="T26" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="U26" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="V26" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="W26" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="X26" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y26" t="n">
         <v>28</v>
@@ -3505,34 +3505,34 @@
         <v>8.25</v>
       </c>
       <c r="AA26" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB26" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD26" t="n">
         <v>600</v>
       </c>
       <c r="AE26" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AF26" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AG26" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AI26" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ26" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H27" t="n">
         <v>3.5</v>
@@ -3603,7 +3603,7 @@
         <v>2.2</v>
       </c>
       <c r="S27" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T27" t="n">
         <v>5.5</v>
@@ -3639,10 +3639,10 @@
         <v>351</v>
       </c>
       <c r="AE27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
         <v>17</v>
@@ -3689,7 +3689,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H28" t="n">
         <v>3.3</v>
@@ -3710,10 +3710,10 @@
         <v>3.5</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="O28" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="P28" t="n">
         <v>1.4</v>
@@ -3722,7 +3722,7 @@
         <v>2.75</v>
       </c>
       <c r="R28" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S28" t="n">
         <v>2</v>
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="J29" t="n">
         <v>1.06</v>
@@ -3832,10 +3832,10 @@
         <v>3.5</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="O29" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="P29" t="n">
         <v>1.4</v>
@@ -3844,22 +3844,22 @@
         <v>2.75</v>
       </c>
       <c r="R29" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S29" t="n">
         <v>2</v>
       </c>
       <c r="T29" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V29" t="n">
         <v>9.5</v>
       </c>
       <c r="W29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X29" t="n">
         <v>19</v>
@@ -3883,7 +3883,7 @@
         <v>201</v>
       </c>
       <c r="AE29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF29" t="n">
         <v>15</v>
@@ -3892,7 +3892,7 @@
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI29" t="n">
         <v>23</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="H30" t="n">
         <v>3.4</v>
@@ -3966,10 +3966,10 @@
         <v>2.63</v>
       </c>
       <c r="R30" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S30" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T30" t="n">
         <v>6.5</v>
@@ -4180,10 +4180,10 @@
         <v>5.25</v>
       </c>
       <c r="H32" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I32" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="J32" t="n">
         <v>1.05</v>
@@ -4198,10 +4198,10 @@
         <v>3.5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="O32" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="P32" t="n">
         <v>1.36</v>
@@ -4213,7 +4213,7 @@
         <v>2</v>
       </c>
       <c r="S32" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T32" t="n">
         <v>13</v>
@@ -4222,10 +4222,10 @@
         <v>29</v>
       </c>
       <c r="V32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="W32" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="X32" t="n">
         <v>41</v>
@@ -4234,7 +4234,7 @@
         <v>51</v>
       </c>
       <c r="Z32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA32" t="n">
         <v>8</v>
@@ -4299,7 +4299,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="H33" t="n">
         <v>3.6</v>
@@ -4332,7 +4332,7 @@
         <v>3.4</v>
       </c>
       <c r="R33" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S33" t="n">
         <v>2.1</v>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H35" t="n">
         <v>4</v>
@@ -4576,7 +4576,7 @@
         <v>3.75</v>
       </c>
       <c r="R35" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S35" t="n">
         <v>2.25</v>
@@ -4686,10 +4686,10 @@
         <v>4</v>
       </c>
       <c r="N36" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O36" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P36" t="n">
         <v>1.33</v>
@@ -5034,28 +5034,28 @@
         <v>1.8</v>
       </c>
       <c r="H39" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I39" t="n">
         <v>4.75</v>
       </c>
       <c r="J39" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L39" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M39" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N39" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O39" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="P39" t="n">
         <v>1.5</v>
@@ -5064,13 +5064,13 @@
         <v>2.5</v>
       </c>
       <c r="R39" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S39" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T39" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U39" t="n">
         <v>7.5</v>
@@ -5085,19 +5085,19 @@
         <v>17</v>
       </c>
       <c r="Y39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z39" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA39" t="n">
         <v>6.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC39" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD39" t="n">
         <v>101</v>
@@ -5109,7 +5109,7 @@
         <v>21</v>
       </c>
       <c r="AG39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH39" t="n">
         <v>51</v>
@@ -5275,19 +5275,19 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H41" t="n">
         <v>3.5</v>
       </c>
       <c r="I41" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J41" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L41" t="n">
         <v>1.33</v>
@@ -5519,13 +5519,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H43" t="n">
         <v>3.1</v>
       </c>
       <c r="I43" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J43" t="n">
         <v>1.05</v>
@@ -5567,10 +5567,10 @@
         <v>10</v>
       </c>
       <c r="W43" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y43" t="n">
         <v>29</v>
@@ -5591,16 +5591,16 @@
         <v>201</v>
       </c>
       <c r="AE43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG43" t="n">
         <v>10</v>
       </c>
-      <c r="AF43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>11</v>
-      </c>
       <c r="AH43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI43" t="n">
         <v>21</v>
@@ -5784,10 +5784,10 @@
         <v>3.5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="O45" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="P45" t="n">
         <v>1.36</v>
@@ -5796,7 +5796,7 @@
         <v>3</v>
       </c>
       <c r="R45" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S45" t="n">
         <v>2</v>
@@ -5918,7 +5918,7 @@
         <v>3.25</v>
       </c>
       <c r="R46" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S46" t="n">
         <v>2.2</v>
@@ -6028,10 +6028,10 @@
         <v>3.4</v>
       </c>
       <c r="N47" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O47" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P47" t="n">
         <v>1.4</v>
@@ -6043,7 +6043,7 @@
         <v>2</v>
       </c>
       <c r="S47" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="T47" t="n">
         <v>6</v>
@@ -6251,52 +6251,52 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H49" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="I49" t="n">
         <v>3.65</v>
       </c>
       <c r="J49" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="K49" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L49" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M49" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="N49" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="O49" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P49" t="n">
         <v>1.62</v>
       </c>
       <c r="Q49" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R49" t="n">
         <v>2.18</v>
-      </c>
-      <c r="R49" t="n">
-        <v>2.15</v>
       </c>
       <c r="S49" t="n">
         <v>1.62</v>
       </c>
       <c r="T49" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="U49" t="n">
         <v>10.25</v>
       </c>
       <c r="V49" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="W49" t="n">
         <v>27</v>
@@ -6305,16 +6305,16 @@
         <v>26</v>
       </c>
       <c r="Y49" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z49" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AA49" t="n">
         <v>5.3</v>
       </c>
       <c r="AB49" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC49" t="n">
         <v>120</v>
@@ -6323,7 +6323,7 @@
         <v>101</v>
       </c>
       <c r="AE49" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AF49" t="n">
         <v>17.5</v>
@@ -6387,7 +6387,7 @@
         <v>1.19</v>
       </c>
       <c r="M50" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="N50" t="n">
         <v>1.62</v>
@@ -6398,10 +6398,10 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S50" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="T50" t="n">
         <v>15</v>
@@ -6496,10 +6496,10 @@
         <v>3.25</v>
       </c>
       <c r="J51" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K51" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L51" t="n">
         <v>1.25</v>
@@ -6508,10 +6508,10 @@
         <v>3.75</v>
       </c>
       <c r="N51" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O51" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P51" t="n">
         <v>1.36</v>
@@ -6609,13 +6609,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H52" t="n">
         <v>3.7</v>
       </c>
       <c r="I52" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J52" t="n">
         <v>1.03</v>
@@ -6624,16 +6624,16 @@
         <v>15</v>
       </c>
       <c r="L52" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M52" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N52" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="O52" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P52" t="n">
         <v>1.29</v>
@@ -6642,13 +6642,13 @@
         <v>3.5</v>
       </c>
       <c r="R52" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S52" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U52" t="n">
         <v>13</v>
@@ -6746,10 +6746,10 @@
         <v>17</v>
       </c>
       <c r="L53" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N53" t="n">
         <v>1.53</v>
@@ -6874,10 +6874,10 @@
         <v>3.75</v>
       </c>
       <c r="N54" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O54" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P54" t="n">
         <v>1.36</v>
@@ -7362,7 +7362,7 @@
         <v>3.25</v>
       </c>
       <c r="R58" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S58" t="n">
         <v>2.2</v>
@@ -7484,7 +7484,7 @@
         <v>3</v>
       </c>
       <c r="R59" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S59" t="n">
         <v>2.1</v>
@@ -7606,10 +7606,10 @@
         <v>2.75</v>
       </c>
       <c r="R60" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S60" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T60" t="n">
         <v>8</v>
@@ -7728,10 +7728,10 @@
         <v>3</v>
       </c>
       <c r="R61" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S61" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T61" t="n">
         <v>7</v>
@@ -7850,10 +7850,10 @@
         <v>2.75</v>
       </c>
       <c r="R62" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S62" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T62" t="n">
         <v>9.5</v>
@@ -7972,10 +7972,10 @@
         <v>2.75</v>
       </c>
       <c r="R63" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S63" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T63" t="n">
         <v>6.5</v>
@@ -8076,16 +8076,16 @@
         <v>15</v>
       </c>
       <c r="L64" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M64" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N64" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O64" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P64" t="n">
         <v>1.3</v>
@@ -8094,10 +8094,10 @@
         <v>3.4</v>
       </c>
       <c r="R64" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S64" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T64" t="n">
         <v>17</v>
@@ -8198,16 +8198,16 @@
         <v>15</v>
       </c>
       <c r="L65" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M65" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N65" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O65" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P65" t="n">
         <v>1.29</v>
@@ -8216,7 +8216,7 @@
         <v>3.5</v>
       </c>
       <c r="R65" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S65" t="n">
         <v>2.1</v>
@@ -8470,7 +8470,7 @@
         <v>16</v>
       </c>
       <c r="X67" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y67" t="n">
         <v>35</v>
@@ -8494,7 +8494,7 @@
         <v>9.5</v>
       </c>
       <c r="AF67" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG67" t="n">
         <v>13.5</v>
@@ -8541,13 +8541,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.62</v>
+        <v>2.42</v>
       </c>
       <c r="H68" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I68" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="J68" t="n">
         <v>1.11</v>
@@ -8574,7 +8574,7 @@
         <v>2.1</v>
       </c>
       <c r="R68" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S68" t="n">
         <v>1.65</v>
@@ -8583,19 +8583,19 @@
         <v>6.2</v>
       </c>
       <c r="U68" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="V68" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="W68" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="X68" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Y68" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Z68" t="n">
         <v>6.2</v>
@@ -8604,7 +8604,7 @@
         <v>5.6</v>
       </c>
       <c r="AB68" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC68" t="n">
         <v>110</v>
@@ -8616,19 +8616,19 @@
         <v>7</v>
       </c>
       <c r="AF68" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG68" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AH68" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI68" t="n">
         <v>35</v>
       </c>
-      <c r="AI68" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ68" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69">
@@ -8677,7 +8677,7 @@
         <v>1.34</v>
       </c>
       <c r="M69" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="N69" t="n">
         <v>1.98</v>
@@ -8695,10 +8695,10 @@
         <v>1.78</v>
       </c>
       <c r="S69" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T69" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U69" t="n">
         <v>15</v>
@@ -8710,13 +8710,13 @@
         <v>37</v>
       </c>
       <c r="X69" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y69" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z69" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA69" t="n">
         <v>6.2</v>
@@ -8731,7 +8731,7 @@
         <v>600</v>
       </c>
       <c r="AE69" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AF69" t="n">
         <v>10.5</v>
@@ -8746,7 +8746,7 @@
         <v>19</v>
       </c>
       <c r="AJ69" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
@@ -8949,13 +8949,13 @@
         <v>13.5</v>
       </c>
       <c r="Y71" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z71" t="n">
         <v>9.5</v>
       </c>
       <c r="AA71" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AB71" t="n">
         <v>18</v>
@@ -9256,9 +9256,15 @@
           <t>Dila Gori</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2.95</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
@@ -9334,7 +9340,7 @@
         <v>23</v>
       </c>
       <c r="L75" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="M75" t="n">
         <v>6.5</v>
@@ -9346,16 +9352,16 @@
         <v>2.88</v>
       </c>
       <c r="P75" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="Q75" t="n">
         <v>4</v>
       </c>
       <c r="R75" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S75" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="T75" t="n">
         <v>12</v>
@@ -9450,31 +9456,31 @@
         <v>1.95</v>
       </c>
       <c r="J76" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K76" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L76" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O76" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P76" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="Q76" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R76" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S76" t="n">
         <v>2.5</v>
@@ -9498,10 +9504,10 @@
         <v>26</v>
       </c>
       <c r="Z76" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA76" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB76" t="n">
         <v>11</v>
@@ -9572,13 +9578,13 @@
         <v>3.3</v>
       </c>
       <c r="J77" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K77" t="n">
         <v>12</v>
       </c>
       <c r="L77" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M77" t="n">
         <v>3.75</v>
@@ -9596,7 +9602,7 @@
         <v>3.25</v>
       </c>
       <c r="R77" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S77" t="n">
         <v>2.1</v>
@@ -10286,7 +10292,7 @@
         <v>3</v>
       </c>
       <c r="H83" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I83" t="n">
         <v>2.35</v>
@@ -10298,31 +10304,31 @@
         <v>9</v>
       </c>
       <c r="L83" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M83" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N83" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O83" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="P83" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R83" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S83" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T83" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U83" t="n">
         <v>15</v>
@@ -10337,10 +10343,10 @@
         <v>26</v>
       </c>
       <c r="Y83" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z83" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA83" t="n">
         <v>6</v>
@@ -10352,10 +10358,10 @@
         <v>51</v>
       </c>
       <c r="AD83" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE83" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF83" t="n">
         <v>11</v>
@@ -10370,7 +10376,7 @@
         <v>21</v>
       </c>
       <c r="AJ83" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
@@ -10527,7 +10533,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H85" t="n">
         <v>3.75</v>
@@ -10553,10 +10559,10 @@
         <v>1.39</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="R85" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S85" t="n">
         <v>1.75</v>
@@ -10568,7 +10574,7 @@
         <v>32</v>
       </c>
       <c r="V85" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="W85" t="n">
         <v>110</v>
@@ -10577,10 +10583,10 @@
         <v>60</v>
       </c>
       <c r="Y85" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z85" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA85" t="n">
         <v>7.3</v>
@@ -10607,7 +10613,7 @@
         <v>11.25</v>
       </c>
       <c r="AI85" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ85" t="n">
         <v>28</v>
@@ -10662,7 +10668,7 @@
         <v>3.05</v>
       </c>
       <c r="N86" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="O86" t="n">
         <v>1.78</v>
@@ -10677,7 +10683,7 @@
         <v>1.8</v>
       </c>
       <c r="S86" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="T86" t="n">
         <v>6.9</v>
@@ -10704,7 +10710,7 @@
         <v>7.1</v>
       </c>
       <c r="AB86" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC86" t="n">
         <v>80</v>
@@ -10786,37 +10792,37 @@
         <v>1.7</v>
       </c>
       <c r="P87" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="R87" t="n">
         <v>1.72</v>
       </c>
       <c r="S87" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T87" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="U87" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="V87" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W87" t="n">
         <v>26</v>
       </c>
       <c r="X87" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y87" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z87" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA87" t="n">
         <v>6.1</v>
@@ -10831,13 +10837,13 @@
         <v>500</v>
       </c>
       <c r="AE87" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF87" t="n">
         <v>14</v>
       </c>
       <c r="AG87" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AH87" t="n">
         <v>32</v>
@@ -10846,7 +10852,7 @@
         <v>24</v>
       </c>
       <c r="AJ87" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88">
@@ -10884,10 +10890,10 @@
         <v>1.88</v>
       </c>
       <c r="H88" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I88" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -10898,7 +10904,7 @@
         <v>2.67</v>
       </c>
       <c r="N88" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O88" t="n">
         <v>1.62</v>
@@ -10916,7 +10922,7 @@
         <v>1.72</v>
       </c>
       <c r="T88" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U88" t="n">
         <v>8.25</v>
@@ -10928,7 +10934,7 @@
         <v>16</v>
       </c>
       <c r="X88" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y88" t="n">
         <v>32</v>
@@ -10952,7 +10958,7 @@
         <v>9.75</v>
       </c>
       <c r="AF88" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG88" t="n">
         <v>13.5</v>
@@ -10999,27 +11005,27 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H89" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I89" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M89" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N89" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="O89" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="P89" t="n">
         <v>1.38</v>
@@ -11028,49 +11034,49 @@
         <v>2.47</v>
       </c>
       <c r="R89" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="S89" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T89" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="U89" t="n">
         <v>15.5</v>
       </c>
       <c r="V89" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="W89" t="n">
         <v>40</v>
       </c>
       <c r="X89" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y89" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z89" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA89" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="AB89" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC89" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD89" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE89" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF89" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AG89" t="n">
         <v>7.1</v>
@@ -11079,10 +11085,10 @@
         <v>14</v>
       </c>
       <c r="AI89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ89" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
@@ -11128,10 +11134,10 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M90" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="N90" t="n">
         <v>1.93</v>
@@ -11146,10 +11152,10 @@
         <v>2.47</v>
       </c>
       <c r="R90" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="S90" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="T90" t="n">
         <v>7.7</v>
@@ -11262,7 +11268,7 @@
         <v>2.7</v>
       </c>
       <c r="P91" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="Q91" t="n">
         <v>4</v>
@@ -11357,13 +11363,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H92" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I92" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J92" t="n">
         <v>1.04</v>
@@ -11384,7 +11390,7 @@
         <v>2.1</v>
       </c>
       <c r="P92" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Q92" t="n">
         <v>3.4</v>
@@ -11396,7 +11402,7 @@
         <v>2.25</v>
       </c>
       <c r="T92" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U92" t="n">
         <v>12</v>
@@ -11405,7 +11411,7 @@
         <v>9</v>
       </c>
       <c r="W92" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X92" t="n">
         <v>15</v>
@@ -11417,13 +11423,13 @@
         <v>13</v>
       </c>
       <c r="AA92" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB92" t="n">
         <v>12</v>
       </c>
       <c r="AC92" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD92" t="n">
         <v>126</v>
@@ -11494,19 +11500,19 @@
         <v>19</v>
       </c>
       <c r="L93" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M93" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N93" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O93" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="P93" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="Q93" t="n">
         <v>4</v>
@@ -11628,7 +11634,7 @@
         <v>2.5</v>
       </c>
       <c r="P94" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q94" t="n">
         <v>3.75</v>
@@ -11723,10 +11729,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="H95" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I95" t="n">
         <v>11</v>
@@ -11744,28 +11750,28 @@
         <v>11</v>
       </c>
       <c r="N95" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="O95" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="P95" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Q95" t="n">
         <v>6</v>
       </c>
       <c r="R95" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S95" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T95" t="n">
         <v>17</v>
       </c>
       <c r="U95" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V95" t="n">
         <v>11</v>
@@ -11789,10 +11795,10 @@
         <v>23</v>
       </c>
       <c r="AC95" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD95" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE95" t="n">
         <v>41</v>
@@ -11845,10 +11851,10 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H96" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="I96" t="n">
         <v>4.75</v>
@@ -11872,7 +11878,7 @@
         <v>2.35</v>
       </c>
       <c r="P96" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q96" t="n">
         <v>3.75</v>
@@ -11967,19 +11973,19 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H97" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I97" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="J97" t="n">
         <v>1.01</v>
       </c>
       <c r="K97" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L97" t="n">
         <v>1.1</v>
@@ -11994,28 +12000,28 @@
         <v>3.4</v>
       </c>
       <c r="P97" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="Q97" t="n">
         <v>4.5</v>
       </c>
       <c r="R97" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S97" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T97" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U97" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V97" t="n">
         <v>9</v>
       </c>
       <c r="W97" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X97" t="n">
         <v>11</v>
@@ -12024,16 +12030,16 @@
         <v>17</v>
       </c>
       <c r="Z97" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA97" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB97" t="n">
         <v>13</v>
       </c>
       <c r="AC97" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD97" t="n">
         <v>81</v>
@@ -12045,16 +12051,16 @@
         <v>34</v>
       </c>
       <c r="AG97" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH97" t="n">
         <v>51</v>
       </c>
       <c r="AI97" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ97" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98">
@@ -12089,49 +12095,49 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H98" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I98" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="J98" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K98" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L98" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M98" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N98" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O98" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R98" t="n">
         <v>1.53</v>
       </c>
-      <c r="O98" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P98" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R98" t="n">
-        <v>1.57</v>
-      </c>
       <c r="S98" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T98" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U98" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V98" t="n">
         <v>15</v>
@@ -12146,10 +12152,10 @@
         <v>34</v>
       </c>
       <c r="Z98" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA98" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB98" t="n">
         <v>13</v>
@@ -12161,22 +12167,22 @@
         <v>126</v>
       </c>
       <c r="AE98" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF98" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG98" t="n">
         <v>8.5</v>
       </c>
       <c r="AH98" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI98" t="n">
         <v>12</v>
       </c>
       <c r="AJ98" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
@@ -12211,19 +12217,19 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H99" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J99" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K99" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L99" t="n">
         <v>1.1</v>
@@ -12262,7 +12268,7 @@
         <v>21</v>
       </c>
       <c r="X99" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y99" t="n">
         <v>17</v>
@@ -12274,7 +12280,7 @@
         <v>8.5</v>
       </c>
       <c r="AB99" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC99" t="n">
         <v>26</v>
@@ -12286,13 +12292,13 @@
         <v>19</v>
       </c>
       <c r="AF99" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH99" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI99" t="n">
         <v>21</v>
@@ -12333,13 +12339,13 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H100" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="J100" t="n">
         <v>1.04</v>
@@ -12354,16 +12360,16 @@
         <v>4.33</v>
       </c>
       <c r="N100" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="O100" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P100" t="n">
         <v>1.3</v>
       </c>
       <c r="Q100" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R100" t="n">
         <v>1.57</v>
@@ -12393,7 +12399,7 @@
         <v>13</v>
       </c>
       <c r="AA100" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB100" t="n">
         <v>12</v>
@@ -12402,10 +12408,10 @@
         <v>41</v>
       </c>
       <c r="AD100" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE100" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF100" t="n">
         <v>11</v>
@@ -12420,7 +12426,7 @@
         <v>15</v>
       </c>
       <c r="AJ100" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101">
@@ -12455,13 +12461,13 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H101" t="n">
         <v>3.25</v>
       </c>
       <c r="I101" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="J101" t="n">
         <v>1.07</v>
@@ -12479,13 +12485,13 @@
         <v>2.15</v>
       </c>
       <c r="O101" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P101" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R101" t="n">
         <v>1.95</v>
@@ -12601,10 +12607,10 @@
         <v>2.35</v>
       </c>
       <c r="O102" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P102" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q102" t="n">
         <v>2.5</v>
@@ -12699,7 +12705,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="H103" t="n">
         <v>3.2</v>
@@ -12708,10 +12714,10 @@
         <v>2.5</v>
       </c>
       <c r="J103" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K103" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L103" t="n">
         <v>1.4</v>
@@ -12720,13 +12726,13 @@
         <v>2.75</v>
       </c>
       <c r="N103" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O103" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="P103" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q103" t="n">
         <v>2.5</v>
@@ -12820,36 +12826,92 @@
           <t>River Plate</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
+      <c r="G104" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H104" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I104" t="n">
+        <v>4.5</v>
+      </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
-      <c r="Z104" t="inlineStr"/>
-      <c r="AA104" t="inlineStr"/>
-      <c r="AB104" t="inlineStr"/>
-      <c r="AC104" t="inlineStr"/>
-      <c r="AD104" t="inlineStr"/>
-      <c r="AE104" t="inlineStr"/>
-      <c r="AF104" t="inlineStr"/>
-      <c r="AG104" t="inlineStr"/>
-      <c r="AH104" t="inlineStr"/>
-      <c r="AI104" t="inlineStr"/>
-      <c r="AJ104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N104" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P104" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S104" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="T104" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="U104" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="V104" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="W104" t="n">
+        <v>11</v>
+      </c>
+      <c r="X104" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -13442,10 +13504,10 @@
         <v>8</v>
       </c>
       <c r="J110" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K110" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="L110" t="n">
         <v>1.3</v>
@@ -13675,13 +13737,13 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H112" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I112" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="J112" t="n">
         <v>1.06</v>
@@ -13830,7 +13892,7 @@
         <v>3.25</v>
       </c>
       <c r="R113" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S113" t="n">
         <v>2</v>
@@ -14110,16 +14172,16 @@
         <v>10</v>
       </c>
       <c r="L116" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M116" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N116" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O116" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P116" t="n">
         <v>1.3</v>
@@ -14714,22 +14776,22 @@
         <v>3.8</v>
       </c>
       <c r="J121" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K121" t="n">
         <v>8.5</v>
       </c>
       <c r="L121" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M121" t="n">
         <v>3.5</v>
       </c>
       <c r="N121" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O121" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P121" t="n">
         <v>1.4</v>
@@ -14836,16 +14898,16 @@
         <v>2.4</v>
       </c>
       <c r="J122" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K122" t="n">
         <v>6</v>
       </c>
       <c r="L122" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M122" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="N122" t="n">
         <v>2.63</v>
@@ -14958,13 +15020,13 @@
         <v>1.62</v>
       </c>
       <c r="J123" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K123" t="n">
         <v>8</v>
       </c>
       <c r="L123" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M123" t="n">
         <v>3</v>
@@ -15071,22 +15133,22 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H124" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I124" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="J124" t="n">
         <v>1.05</v>
       </c>
       <c r="K124" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="L124" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M124" t="n">
         <v>3.55</v>
@@ -15110,28 +15172,28 @@
         <v>2.15</v>
       </c>
       <c r="T124" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="U124" t="n">
         <v>14</v>
       </c>
       <c r="V124" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W124" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X124" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y124" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z124" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AA124" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB124" t="n">
         <v>12.5</v>
@@ -15146,16 +15208,16 @@
         <v>9.5</v>
       </c>
       <c r="AF124" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG124" t="n">
         <v>9.5</v>
       </c>
       <c r="AH124" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI124" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ124" t="n">
         <v>26</v>
@@ -15193,39 +15255,39 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H125" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I125" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="M125" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N125" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="O125" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="P125" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Q125" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R125" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="S125" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="T125" t="n">
         <v>41</v>
@@ -15243,40 +15305,40 @@
         <v>41</v>
       </c>
       <c r="Y125" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z125" t="n">
         <v>34</v>
       </c>
       <c r="AA125" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB125" t="n">
         <v>19</v>
       </c>
-      <c r="AB125" t="n">
+      <c r="AC125" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ125" t="n">
         <v>17</v>
-      </c>
-      <c r="AC125" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD125" t="n">
-        <v>51</v>
-      </c>
-      <c r="AE125" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF125" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG125" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH125" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI125" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ125" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="126">
@@ -15311,67 +15373,63 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="H126" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I126" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J126" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K126" t="n">
-        <v>29</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="M126" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N126" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O126" t="n">
+        <v>4</v>
+      </c>
+      <c r="P126" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>5</v>
+      </c>
+      <c r="R126" t="n">
         <v>1.33</v>
       </c>
-      <c r="O126" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="P126" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Q126" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="R126" t="n">
-        <v>1.4</v>
-      </c>
       <c r="S126" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T126" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U126" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V126" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W126" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X126" t="n">
         <v>11</v>
       </c>
       <c r="Y126" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z126" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA126" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB126" t="n">
         <v>13</v>
@@ -15380,13 +15438,13 @@
         <v>29</v>
       </c>
       <c r="AD126" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AE126" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AF126" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG126" t="n">
         <v>15</v>
@@ -15395,7 +15453,7 @@
         <v>51</v>
       </c>
       <c r="AI126" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ126" t="n">
         <v>23</v>
@@ -15564,13 +15622,13 @@
         <v>2.45</v>
       </c>
       <c r="J128" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K128" t="n">
         <v>11</v>
       </c>
       <c r="L128" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M128" t="n">
         <v>3.5</v>
@@ -15802,43 +15860,43 @@
         <v>2.05</v>
       </c>
       <c r="H130" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I130" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K130" t="n">
+        <v>10</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M130" t="n">
         <v>3.4</v>
       </c>
-      <c r="J130" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K130" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L130" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M130" t="n">
-        <v>3.25</v>
-      </c>
       <c r="N130" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O130" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P130" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R130" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S130" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T130" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U130" t="n">
         <v>9.5</v>
@@ -15847,19 +15905,19 @@
         <v>9</v>
       </c>
       <c r="W130" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X130" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y130" t="n">
         <v>29</v>
       </c>
       <c r="Z130" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA130" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB130" t="n">
         <v>15</v>
@@ -15868,13 +15926,13 @@
         <v>51</v>
       </c>
       <c r="AD130" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE130" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF130" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG130" t="n">
         <v>13</v>
@@ -15942,10 +16000,10 @@
         <v>3.25</v>
       </c>
       <c r="N131" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O131" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P131" t="n">
         <v>1.44</v>
@@ -16064,10 +16122,10 @@
         <v>3.25</v>
       </c>
       <c r="N132" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O132" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P132" t="n">
         <v>1.44</v>
@@ -16409,10 +16467,10 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H135" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I135" t="n">
         <v>3.75</v>
@@ -16427,25 +16485,25 @@
         <v>1.23</v>
       </c>
       <c r="M135" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="N135" t="n">
         <v>1.7</v>
       </c>
       <c r="O135" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="P135" t="n">
         <v>1.36</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="R135" t="n">
         <v>1.62</v>
       </c>
       <c r="S135" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="T135" t="n">
         <v>8.25</v>
@@ -16457,10 +16515,10 @@
         <v>8.25</v>
       </c>
       <c r="W135" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="X135" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y135" t="n">
         <v>22</v>
@@ -16469,25 +16527,25 @@
         <v>8</v>
       </c>
       <c r="AA135" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB135" t="n">
         <v>12.5</v>
       </c>
       <c r="AC135" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD135" t="n">
         <v>300</v>
       </c>
       <c r="AE135" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF135" t="n">
         <v>23</v>
       </c>
       <c r="AG135" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH135" t="n">
         <v>55</v>
@@ -16496,7 +16554,7 @@
         <v>30</v>
       </c>
       <c r="AJ135" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="136">
@@ -16653,94 +16711,94 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.75</v>
+        <v>4.15</v>
       </c>
       <c r="H137" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="I137" t="n">
-        <v>2.16</v>
+        <v>1.87</v>
       </c>
       <c r="J137" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="K137" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="L137" t="n">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="M137" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="N137" t="n">
-        <v>3.05</v>
+        <v>2.37</v>
       </c>
       <c r="O137" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="P137" t="n">
-        <v>1.69</v>
+        <v>1.52</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="R137" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="S137" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="T137" t="n">
-        <v>6</v>
+        <v>8.75</v>
       </c>
       <c r="U137" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="V137" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="W137" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="X137" t="n">
         <v>50</v>
       </c>
       <c r="Y137" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="Z137" t="n">
-        <v>4.4</v>
+        <v>6.8</v>
       </c>
       <c r="AA137" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB137" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC137" t="n">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="AD137" t="n">
         <v>101</v>
       </c>
       <c r="AE137" t="n">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="AF137" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AG137" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH137" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI137" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ137" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="138">
@@ -16775,13 +16833,13 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="H138" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I138" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -16792,10 +16850,10 @@
         <v>2.8</v>
       </c>
       <c r="N138" t="n">
-        <v>2.24</v>
+        <v>2.21</v>
       </c>
       <c r="O138" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P138" t="n">
         <v>1.48</v>
@@ -16804,34 +16862,34 @@
         <v>2.45</v>
       </c>
       <c r="R138" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="S138" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="T138" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="U138" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V138" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W138" t="n">
+        <v>40</v>
+      </c>
+      <c r="X138" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y138" t="n">
         <v>45</v>
       </c>
-      <c r="X138" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y138" t="n">
-        <v>50</v>
-      </c>
       <c r="Z138" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AA138" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AB138" t="n">
         <v>14</v>
@@ -16843,16 +16901,16 @@
         <v>101</v>
       </c>
       <c r="AE138" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AF138" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG138" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AH138" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI138" t="n">
         <v>17</v>
@@ -16914,10 +16972,10 @@
         <v>2.75</v>
       </c>
       <c r="N139" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O139" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P139" t="n">
         <v>1.44</v>
@@ -17176,22 +17234,22 @@
         <v>1.65</v>
       </c>
       <c r="T141" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="U141" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V141" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="W141" t="n">
         <v>35</v>
       </c>
       <c r="X141" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y141" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z141" t="n">
         <v>6.4</v>
@@ -17209,19 +17267,19 @@
         <v>101</v>
       </c>
       <c r="AE141" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AF141" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AG141" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH141" t="n">
         <v>30</v>
       </c>
       <c r="AI141" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ141" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-02.xlsx
@@ -650,10 +650,10 @@
         <v>1.36</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.03</v>
@@ -680,10 +680,10 @@
         <v>3.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T2" t="n">
         <v>9.5</v>
@@ -704,28 +704,28 @@
         <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
         <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH2" t="n">
         <v>101</v>
@@ -802,7 +802,7 @@
         <v>3.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S3" t="n">
         <v>2</v>
@@ -900,10 +900,10 @@
         <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" t="n">
         <v>1.22</v>
@@ -924,7 +924,7 @@
         <v>3.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
         <v>2.2</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
         <v>1.1</v>
@@ -1049,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="T5" t="n">
         <v>6.5</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
         <v>1.13</v>
@@ -1159,7 +1159,7 @@
         <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
         <v>1.62</v>
@@ -1183,7 +1183,7 @@
         <v>11</v>
       </c>
       <c r="W6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X6" t="n">
         <v>26</v>
@@ -1201,7 +1201,7 @@
         <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
@@ -1258,43 +1258,43 @@
         <v>2.05</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U7" t="n">
         <v>8.5</v>
@@ -1309,19 +1309,19 @@
         <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA7" t="n">
         <v>6.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD7" t="n">
         <v>501</v>
@@ -1339,7 +1339,7 @@
         <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -1392,13 +1392,13 @@
         <v>7</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.5</v>
@@ -1499,19 +1499,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="n">
         <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
@@ -1523,7 +1523,7 @@
         <v>2.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
         <v>1.53</v>
@@ -1544,10 +1544,10 @@
         <v>11</v>
       </c>
       <c r="V9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X9" t="n">
         <v>23</v>
@@ -1559,7 +1559,7 @@
         <v>6.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB9" t="n">
         <v>17</v>
@@ -1568,7 +1568,7 @@
         <v>67</v>
       </c>
       <c r="AD9" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE9" t="n">
         <v>7.5</v>
@@ -1621,31 +1621,31 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P10" t="n">
         <v>1.5</v>
@@ -1654,25 +1654,25 @@
         <v>2.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V10" t="n">
         <v>9.5</v>
       </c>
       <c r="W10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
         <v>34</v>
@@ -1687,22 +1687,22 @@
         <v>17</v>
       </c>
       <c r="AC10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD10" t="n">
         <v>401</v>
       </c>
       <c r="AE10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI10" t="n">
         <v>29</v>
@@ -1752,10 +1752,10 @@
         <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
         <v>1.5</v>
@@ -2059,7 +2059,7 @@
         <v>126</v>
       </c>
       <c r="AE13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF13" t="n">
         <v>13</v>
@@ -2068,7 +2068,7 @@
         <v>9.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
         <v>17</v>
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
@@ -2124,28 +2124,28 @@
         <v>11</v>
       </c>
       <c r="L14" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T14" t="n">
         <v>9</v>
@@ -2184,7 +2184,7 @@
         <v>12</v>
       </c>
       <c r="AF14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG14" t="n">
         <v>12</v>
@@ -2374,7 +2374,7 @@
         <v>4.9</v>
       </c>
       <c r="N16" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="O16" t="n">
         <v>2.57</v>
@@ -2478,79 +2478,79 @@
         <v>2.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q17" t="n">
         <v>3.05</v>
       </c>
-      <c r="J17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K17" t="n">
-        <v>9</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="R17" t="n">
         <v>1.57</v>
       </c>
-      <c r="O17" t="n">
+      <c r="S17" t="n">
         <v>2.27</v>
       </c>
-      <c r="P17" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.42</v>
-      </c>
       <c r="T17" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="U17" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="V17" t="n">
         <v>8.75</v>
       </c>
       <c r="W17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X17" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Z17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AD17" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG17" t="n">
         <v>10.75</v>
@@ -2562,7 +2562,7 @@
         <v>23</v>
       </c>
       <c r="AJ17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -2844,91 +2844,91 @@
         <v>1.87</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="J20" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K20" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="M20" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="N20" t="n">
-        <v>2.12</v>
+        <v>2.27</v>
       </c>
       <c r="O20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S20" t="n">
         <v>1.65</v>
       </c>
-      <c r="P20" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.75</v>
-      </c>
       <c r="T20" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="U20" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="V20" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W20" t="n">
         <v>15</v>
       </c>
       <c r="X20" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Z20" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AA20" t="n">
         <v>6.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AD20" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF20" t="n">
         <v>20</v>
       </c>
       <c r="AG20" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>60</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="21">
@@ -3205,49 +3205,49 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
         <v>4.75</v>
       </c>
       <c r="J24" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L24" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O24" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P24" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q24" t="n">
         <v>3.75</v>
       </c>
       <c r="R24" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S24" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T24" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="U24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V24" t="n">
         <v>8.5</v>
@@ -3262,22 +3262,22 @@
         <v>19</v>
       </c>
       <c r="Z24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB24" t="n">
         <v>13</v>
       </c>
       <c r="AC24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD24" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
         <v>29</v>
@@ -3292,7 +3292,7 @@
         <v>34</v>
       </c>
       <c r="AJ24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J25" t="n">
         <v>1.04</v>
@@ -3354,7 +3354,7 @@
         <v>2.08</v>
       </c>
       <c r="P25" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q25" t="n">
         <v>3.25</v>
@@ -3369,13 +3369,13 @@
         <v>8.5</v>
       </c>
       <c r="U25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V25" t="n">
         <v>8.5</v>
       </c>
       <c r="W25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X25" t="n">
         <v>15</v>
@@ -3484,10 +3484,10 @@
         <v>1.82</v>
       </c>
       <c r="T26" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="U26" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="V26" t="n">
         <v>8.25</v>
@@ -3496,7 +3496,7 @@
         <v>18</v>
       </c>
       <c r="X26" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y26" t="n">
         <v>28</v>
@@ -3517,22 +3517,22 @@
         <v>600</v>
       </c>
       <c r="AE26" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH26" t="n">
         <v>65</v>
       </c>
       <c r="AI26" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ26" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27">
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H27" t="n">
         <v>3.5</v>
@@ -3579,7 +3579,7 @@
         <v>1.08</v>
       </c>
       <c r="K27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L27" t="n">
         <v>1.44</v>
@@ -3594,7 +3594,7 @@
         <v>1.57</v>
       </c>
       <c r="P27" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q27" t="n">
         <v>2.5</v>
@@ -3689,7 +3689,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H28" t="n">
         <v>3.3</v>
@@ -3698,10 +3698,10 @@
         <v>3.3</v>
       </c>
       <c r="J28" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L28" t="n">
         <v>1.29</v>
@@ -3710,10 +3710,10 @@
         <v>3.5</v>
       </c>
       <c r="N28" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="O28" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="P28" t="n">
         <v>1.4</v>
@@ -3722,7 +3722,7 @@
         <v>2.75</v>
       </c>
       <c r="R28" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S28" t="n">
         <v>2</v>
@@ -3761,7 +3761,7 @@
         <v>201</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF28" t="n">
         <v>17</v>
@@ -3811,13 +3811,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H29" t="n">
         <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J29" t="n">
         <v>1.06</v>
@@ -3832,10 +3832,10 @@
         <v>3.5</v>
       </c>
       <c r="N29" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="P29" t="n">
         <v>1.4</v>
@@ -3844,7 +3844,7 @@
         <v>2.75</v>
       </c>
       <c r="R29" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S29" t="n">
         <v>2</v>
@@ -3933,7 +3933,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="H30" t="n">
         <v>3.4</v>
@@ -3942,10 +3942,10 @@
         <v>4.33</v>
       </c>
       <c r="J30" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L30" t="n">
         <v>1.33</v>
@@ -3966,10 +3966,10 @@
         <v>2.63</v>
       </c>
       <c r="R30" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S30" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T30" t="n">
         <v>6.5</v>
@@ -4014,7 +4014,7 @@
         <v>15</v>
       </c>
       <c r="AH30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI30" t="n">
         <v>41</v>
@@ -4183,7 +4183,7 @@
         <v>3.9</v>
       </c>
       <c r="I32" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="J32" t="n">
         <v>1.05</v>
@@ -4198,10 +4198,10 @@
         <v>3.5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="O32" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="P32" t="n">
         <v>1.36</v>
@@ -4213,7 +4213,7 @@
         <v>2</v>
       </c>
       <c r="S32" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T32" t="n">
         <v>13</v>
@@ -4299,7 +4299,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="H33" t="n">
         <v>3.6</v>
@@ -4332,7 +4332,7 @@
         <v>3.4</v>
       </c>
       <c r="R33" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S33" t="n">
         <v>2.1</v>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
         <v>4</v>
@@ -4576,7 +4576,7 @@
         <v>3.75</v>
       </c>
       <c r="R35" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S35" t="n">
         <v>2.25</v>
@@ -4918,10 +4918,10 @@
         <v>3.6</v>
       </c>
       <c r="J38" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K38" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L38" t="n">
         <v>1.33</v>
@@ -5153,13 +5153,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H40" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="J40" t="n">
         <v>1.08</v>
@@ -5186,25 +5186,25 @@
         <v>2.38</v>
       </c>
       <c r="R40" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S40" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T40" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U40" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="V40" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y40" t="n">
         <v>41</v>
@@ -5216,7 +5216,7 @@
         <v>7</v>
       </c>
       <c r="AB40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC40" t="n">
         <v>81</v>
@@ -5225,22 +5225,22 @@
         <v>101</v>
       </c>
       <c r="AE40" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG40" t="n">
         <v>15</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>13</v>
       </c>
       <c r="AH40" t="n">
         <v>41</v>
       </c>
       <c r="AI40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41">
@@ -5406,10 +5406,10 @@
         <v>2.2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L42" t="n">
         <v>1.25</v>
@@ -5424,22 +5424,22 @@
         <v>1.9</v>
       </c>
       <c r="P42" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V42" t="n">
         <v>12</v>
@@ -5469,10 +5469,10 @@
         <v>201</v>
       </c>
       <c r="AE42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG42" t="n">
         <v>9.5</v>
@@ -5484,7 +5484,7 @@
         <v>19</v>
       </c>
       <c r="AJ42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
@@ -5784,10 +5784,10 @@
         <v>3.5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="O45" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="P45" t="n">
         <v>1.36</v>
@@ -5796,7 +5796,7 @@
         <v>3</v>
       </c>
       <c r="R45" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S45" t="n">
         <v>2</v>
@@ -5844,7 +5844,7 @@
         <v>9</v>
       </c>
       <c r="AH45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI45" t="n">
         <v>17</v>
@@ -5894,10 +5894,10 @@
         <v>2.25</v>
       </c>
       <c r="J46" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K46" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L46" t="n">
         <v>1.22</v>
@@ -5918,7 +5918,7 @@
         <v>3.25</v>
       </c>
       <c r="R46" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S46" t="n">
         <v>2.2</v>
@@ -5930,7 +5930,7 @@
         <v>15</v>
       </c>
       <c r="V46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W46" t="n">
         <v>29</v>
@@ -5960,13 +5960,13 @@
         <v>10</v>
       </c>
       <c r="AF46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG46" t="n">
         <v>9.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI46" t="n">
         <v>17</v>
@@ -6028,10 +6028,10 @@
         <v>3.4</v>
       </c>
       <c r="N47" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O47" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P47" t="n">
         <v>1.4</v>
@@ -6043,7 +6043,7 @@
         <v>2</v>
       </c>
       <c r="S47" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="T47" t="n">
         <v>6</v>
@@ -6496,10 +6496,10 @@
         <v>3.25</v>
       </c>
       <c r="J51" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K51" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L51" t="n">
         <v>1.25</v>
@@ -6508,10 +6508,10 @@
         <v>3.75</v>
       </c>
       <c r="N51" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="O51" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P51" t="n">
         <v>1.36</v>
@@ -6740,10 +6740,10 @@
         <v>1.95</v>
       </c>
       <c r="J53" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L53" t="n">
         <v>1.14</v>
@@ -6752,10 +6752,10 @@
         <v>5.5</v>
       </c>
       <c r="N53" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O53" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P53" t="n">
         <v>1.25</v>
@@ -6868,16 +6868,16 @@
         <v>11</v>
       </c>
       <c r="L54" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M54" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N54" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O54" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P54" t="n">
         <v>1.36</v>
@@ -6975,10 +6975,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H55" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I55" t="n">
         <v>1.78</v>
@@ -6992,10 +6992,10 @@
         <v>5.2</v>
       </c>
       <c r="N55" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="O55" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
@@ -7006,43 +7006,43 @@
         <v>2.47</v>
       </c>
       <c r="T55" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="U55" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="V55" t="n">
         <v>13</v>
       </c>
       <c r="W55" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="X55" t="n">
         <v>28</v>
       </c>
       <c r="Y55" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z55" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA55" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB55" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC55" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AD55" t="n">
         <v>175</v>
       </c>
       <c r="AE55" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF55" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AG55" t="n">
         <v>8.5</v>
@@ -7095,21 +7095,21 @@
         <v>3.05</v>
       </c>
       <c r="I56" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M56" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="N56" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O56" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P56" t="n">
         <v>1.4</v>
@@ -7118,13 +7118,13 @@
         <v>2.52</v>
       </c>
       <c r="R56" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S56" t="n">
         <v>2.05</v>
       </c>
       <c r="T56" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="U56" t="n">
         <v>17</v>
@@ -7136,13 +7136,13 @@
         <v>40</v>
       </c>
       <c r="X56" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y56" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z56" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA56" t="n">
         <v>6</v>
@@ -7157,22 +7157,22 @@
         <v>350</v>
       </c>
       <c r="AE56" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF56" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AG56" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH56" t="n">
         <v>25</v>
       </c>
       <c r="AI56" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AJ56" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57">
@@ -7362,7 +7362,7 @@
         <v>3.25</v>
       </c>
       <c r="R58" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S58" t="n">
         <v>2.2</v>
@@ -7484,7 +7484,7 @@
         <v>3</v>
       </c>
       <c r="R59" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S59" t="n">
         <v>2.1</v>
@@ -7606,10 +7606,10 @@
         <v>2.75</v>
       </c>
       <c r="R60" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S60" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T60" t="n">
         <v>8</v>
@@ -7728,10 +7728,10 @@
         <v>3</v>
       </c>
       <c r="R61" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S61" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T61" t="n">
         <v>7</v>
@@ -7850,10 +7850,10 @@
         <v>2.75</v>
       </c>
       <c r="R62" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S62" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T62" t="n">
         <v>9.5</v>
@@ -7972,10 +7972,10 @@
         <v>2.75</v>
       </c>
       <c r="R63" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S63" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T63" t="n">
         <v>6.5</v>
@@ -8094,10 +8094,10 @@
         <v>3.4</v>
       </c>
       <c r="R64" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S64" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T64" t="n">
         <v>17</v>
@@ -8216,7 +8216,7 @@
         <v>3.5</v>
       </c>
       <c r="R65" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S65" t="n">
         <v>2.1</v>
@@ -9257,41 +9257,91 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="H74" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="I74" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr"/>
-      <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="inlineStr"/>
-      <c r="AC74" t="inlineStr"/>
-      <c r="AD74" t="inlineStr"/>
-      <c r="AE74" t="inlineStr"/>
-      <c r="AF74" t="inlineStr"/>
-      <c r="AG74" t="inlineStr"/>
-      <c r="AH74" t="inlineStr"/>
-      <c r="AI74" t="inlineStr"/>
-      <c r="AJ74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N74" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T74" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="U74" t="n">
+        <v>9</v>
+      </c>
+      <c r="V74" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="W74" t="n">
+        <v>19</v>
+      </c>
+      <c r="X74" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9340,7 +9390,7 @@
         <v>23</v>
       </c>
       <c r="L75" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="M75" t="n">
         <v>6.5</v>
@@ -9358,10 +9408,10 @@
         <v>4</v>
       </c>
       <c r="R75" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S75" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T75" t="n">
         <v>12</v>
@@ -9447,61 +9497,61 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H76" t="n">
         <v>3.4</v>
       </c>
       <c r="I76" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J76" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K76" t="n">
         <v>15</v>
       </c>
       <c r="L76" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="M76" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N76" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O76" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P76" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q76" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R76" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="S76" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T76" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U76" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V76" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W76" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X76" t="n">
         <v>23</v>
       </c>
       <c r="Y76" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z76" t="n">
         <v>15</v>
@@ -9510,16 +9560,16 @@
         <v>7</v>
       </c>
       <c r="AB76" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC76" t="n">
         <v>34</v>
       </c>
       <c r="AD76" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF76" t="n">
         <v>12</v>
@@ -9578,13 +9628,13 @@
         <v>3.3</v>
       </c>
       <c r="J77" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K77" t="n">
         <v>12</v>
       </c>
       <c r="L77" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M77" t="n">
         <v>3.75</v>
@@ -9602,7 +9652,7 @@
         <v>3.25</v>
       </c>
       <c r="R77" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S77" t="n">
         <v>2.1</v>
@@ -9932,10 +9982,10 @@
         <v>5.25</v>
       </c>
       <c r="J80" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K80" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L80" t="n">
         <v>1.29</v>
@@ -9944,10 +9994,10 @@
         <v>3.5</v>
       </c>
       <c r="N80" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O80" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P80" t="n">
         <v>1.36</v>
@@ -10304,16 +10354,16 @@
         <v>9</v>
       </c>
       <c r="L83" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M83" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N83" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O83" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P83" t="n">
         <v>1.44</v>
@@ -11123,24 +11173,24 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I90" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M90" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="N90" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="O90" t="n">
         <v>1.7</v>
@@ -11152,16 +11202,16 @@
         <v>2.47</v>
       </c>
       <c r="R90" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S90" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="T90" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="U90" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V90" t="n">
         <v>9.25</v>
@@ -11173,13 +11223,13 @@
         <v>22</v>
       </c>
       <c r="Y90" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z90" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA90" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AB90" t="n">
         <v>11</v>
@@ -11191,22 +11241,22 @@
         <v>300</v>
       </c>
       <c r="AE90" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AF90" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AG90" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AH90" t="n">
         <v>17.5</v>
       </c>
       <c r="AI90" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ90" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
@@ -11241,19 +11291,19 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H91" t="n">
         <v>3.75</v>
       </c>
       <c r="I91" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J91" t="n">
         <v>1.02</v>
       </c>
       <c r="K91" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L91" t="n">
         <v>1.13</v>
@@ -11283,7 +11333,7 @@
         <v>13</v>
       </c>
       <c r="U91" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V91" t="n">
         <v>9.5</v>
@@ -11316,7 +11366,7 @@
         <v>17</v>
       </c>
       <c r="AF91" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG91" t="n">
         <v>12</v>
@@ -11328,7 +11378,7 @@
         <v>21</v>
       </c>
       <c r="AJ91" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
@@ -11390,7 +11440,7 @@
         <v>2.1</v>
       </c>
       <c r="P92" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q92" t="n">
         <v>3.4</v>
@@ -11485,13 +11535,13 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I93" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J93" t="n">
         <v>1.02</v>
@@ -11512,19 +11562,19 @@
         <v>2.5</v>
       </c>
       <c r="P93" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="Q93" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R93" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S93" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T93" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U93" t="n">
         <v>13</v>
@@ -11536,13 +11586,13 @@
         <v>19</v>
       </c>
       <c r="X93" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y93" t="n">
         <v>19</v>
       </c>
       <c r="Z93" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA93" t="n">
         <v>8</v>
@@ -11554,7 +11604,7 @@
         <v>29</v>
       </c>
       <c r="AD93" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE93" t="n">
         <v>17</v>
@@ -11563,7 +11613,7 @@
         <v>21</v>
       </c>
       <c r="AG93" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH93" t="n">
         <v>41</v>
@@ -11607,13 +11657,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="H94" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I94" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J94" t="n">
         <v>1.02</v>
@@ -11634,7 +11684,7 @@
         <v>2.5</v>
       </c>
       <c r="P94" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q94" t="n">
         <v>3.75</v>
@@ -11649,13 +11699,13 @@
         <v>13</v>
       </c>
       <c r="U94" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V94" t="n">
         <v>10</v>
       </c>
       <c r="W94" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X94" t="n">
         <v>17</v>
@@ -11679,19 +11729,19 @@
         <v>81</v>
       </c>
       <c r="AE94" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF94" t="n">
         <v>17</v>
       </c>
       <c r="AG94" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH94" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI94" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ94" t="n">
         <v>21</v>
@@ -11756,7 +11806,7 @@
         <v>4.33</v>
       </c>
       <c r="P95" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Q95" t="n">
         <v>6</v>
@@ -11878,7 +11928,7 @@
         <v>2.35</v>
       </c>
       <c r="P96" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q96" t="n">
         <v>3.75</v>
@@ -12000,7 +12050,7 @@
         <v>3.4</v>
       </c>
       <c r="P97" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="Q97" t="n">
         <v>4.5</v>
@@ -12095,13 +12145,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H98" t="n">
         <v>4.2</v>
       </c>
       <c r="I98" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="J98" t="n">
         <v>1.02</v>
@@ -12110,10 +12160,10 @@
         <v>19</v>
       </c>
       <c r="L98" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M98" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N98" t="n">
         <v>1.48</v>
@@ -12122,22 +12172,22 @@
         <v>2.6</v>
       </c>
       <c r="P98" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q98" t="n">
         <v>3.75</v>
       </c>
       <c r="R98" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S98" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T98" t="n">
         <v>19</v>
       </c>
       <c r="U98" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V98" t="n">
         <v>15</v>
@@ -12146,10 +12196,10 @@
         <v>51</v>
       </c>
       <c r="X98" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y98" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z98" t="n">
         <v>19</v>
@@ -12161,13 +12211,13 @@
         <v>13</v>
       </c>
       <c r="AC98" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD98" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE98" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF98" t="n">
         <v>10</v>
@@ -12176,7 +12226,7 @@
         <v>8.5</v>
       </c>
       <c r="AH98" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI98" t="n">
         <v>12</v>
@@ -12217,34 +12267,34 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H99" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I99" t="n">
         <v>3.1</v>
       </c>
       <c r="J99" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K99" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L99" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="M99" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N99" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="O99" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="P99" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Q99" t="n">
         <v>4.33</v>
@@ -12268,7 +12318,7 @@
         <v>21</v>
       </c>
       <c r="X99" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y99" t="n">
         <v>17</v>
@@ -12292,13 +12342,13 @@
         <v>19</v>
       </c>
       <c r="AF99" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG99" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH99" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI99" t="n">
         <v>21</v>
@@ -12345,13 +12395,13 @@
         <v>3.5</v>
       </c>
       <c r="I100" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="J100" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K100" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L100" t="n">
         <v>1.2</v>
@@ -12360,7 +12410,7 @@
         <v>4.33</v>
       </c>
       <c r="N100" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="O100" t="n">
         <v>2.15</v>
@@ -12461,19 +12511,19 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H101" t="n">
         <v>3.25</v>
       </c>
       <c r="I101" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="J101" t="n">
         <v>1.07</v>
       </c>
       <c r="K101" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L101" t="n">
         <v>1.36</v>
@@ -12485,7 +12535,7 @@
         <v>2.15</v>
       </c>
       <c r="O101" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P101" t="n">
         <v>1.44</v>
@@ -12494,13 +12544,13 @@
         <v>2.63</v>
       </c>
       <c r="R101" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S101" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T101" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U101" t="n">
         <v>12</v>
@@ -12521,7 +12571,7 @@
         <v>8.5</v>
       </c>
       <c r="AA101" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB101" t="n">
         <v>15</v>
@@ -12530,19 +12580,19 @@
         <v>51</v>
       </c>
       <c r="AD101" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE101" t="n">
         <v>8</v>
       </c>
       <c r="AF101" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG101" t="n">
         <v>10</v>
       </c>
       <c r="AH101" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI101" t="n">
         <v>23</v>
@@ -12583,31 +12633,31 @@
         </is>
       </c>
       <c r="G102" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H102" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K102" t="n">
+        <v>9</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N102" t="n">
         <v>2.25</v>
       </c>
-      <c r="H102" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K102" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L102" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M102" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N102" t="n">
-        <v>2.35</v>
-      </c>
       <c r="O102" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="P102" t="n">
         <v>1.5</v>
@@ -12640,7 +12690,7 @@
         <v>34</v>
       </c>
       <c r="Z102" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA102" t="n">
         <v>6.5</v>
@@ -12661,13 +12711,13 @@
         <v>15</v>
       </c>
       <c r="AG102" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH102" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI102" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ102" t="n">
         <v>41</v>
@@ -12705,7 +12755,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="H103" t="n">
         <v>3.2</v>
@@ -12729,7 +12779,7 @@
         <v>2.25</v>
       </c>
       <c r="O103" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="P103" t="n">
         <v>1.5</v>
@@ -12944,36 +12994,92 @@
           <t>Pastoreo</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
+      <c r="G105" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+      <c r="I105" t="n">
+        <v>2.95</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr"/>
-      <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
-      <c r="Z105" t="inlineStr"/>
-      <c r="AA105" t="inlineStr"/>
-      <c r="AB105" t="inlineStr"/>
-      <c r="AC105" t="inlineStr"/>
-      <c r="AD105" t="inlineStr"/>
-      <c r="AE105" t="inlineStr"/>
-      <c r="AF105" t="inlineStr"/>
-      <c r="AG105" t="inlineStr"/>
-      <c r="AH105" t="inlineStr"/>
-      <c r="AI105" t="inlineStr"/>
-      <c r="AJ105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="N105" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P105" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S105" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="T105" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="U105" t="n">
+        <v>8</v>
+      </c>
+      <c r="V105" t="n">
+        <v>8</v>
+      </c>
+      <c r="W105" t="n">
+        <v>20</v>
+      </c>
+      <c r="X105" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -13495,13 +13601,13 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="H110" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="I110" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="J110" t="n">
         <v>1.05</v>
@@ -13892,7 +13998,7 @@
         <v>3.25</v>
       </c>
       <c r="R113" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S113" t="n">
         <v>2</v>
@@ -14654,10 +14760,10 @@
         <v>10</v>
       </c>
       <c r="J120" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K120" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L120" t="n">
         <v>1.14</v>
@@ -14690,16 +14796,16 @@
         <v>7</v>
       </c>
       <c r="V120" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W120" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X120" t="n">
         <v>11</v>
       </c>
       <c r="Y120" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z120" t="n">
         <v>17</v>
@@ -14714,7 +14820,7 @@
         <v>67</v>
       </c>
       <c r="AD120" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE120" t="n">
         <v>26</v>
@@ -14776,13 +14882,13 @@
         <v>3.8</v>
       </c>
       <c r="J121" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K121" t="n">
         <v>8.5</v>
       </c>
       <c r="L121" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M121" t="n">
         <v>3.5</v>
@@ -14898,16 +15004,16 @@
         <v>2.4</v>
       </c>
       <c r="J122" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K122" t="n">
         <v>6</v>
       </c>
       <c r="L122" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M122" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="N122" t="n">
         <v>2.63</v>
@@ -15020,13 +15126,13 @@
         <v>1.62</v>
       </c>
       <c r="J123" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K123" t="n">
         <v>8</v>
       </c>
       <c r="L123" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M123" t="n">
         <v>3</v>
@@ -15263,10 +15369,14 @@
       <c r="I125" t="n">
         <v>1.22</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K125" t="n">
+        <v>34</v>
+      </c>
       <c r="L125" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="M125" t="n">
         <v>11</v>
@@ -15373,21 +15483,25 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="H126" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I126" t="n">
-        <v>4</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K126" t="n">
+        <v>34</v>
+      </c>
       <c r="L126" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="M126" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N126" t="n">
         <v>1.25</v>
@@ -15396,16 +15510,16 @@
         <v>4</v>
       </c>
       <c r="P126" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Q126" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="R126" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S126" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T126" t="n">
         <v>17</v>
@@ -15417,7 +15531,7 @@
         <v>9.5</v>
       </c>
       <c r="W126" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X126" t="n">
         <v>11</v>
@@ -15429,10 +15543,10 @@
         <v>34</v>
       </c>
       <c r="AA126" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB126" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC126" t="n">
         <v>29</v>
@@ -15441,19 +15555,19 @@
         <v>67</v>
       </c>
       <c r="AE126" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF126" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG126" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH126" t="n">
         <v>51</v>
       </c>
       <c r="AI126" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ126" t="n">
         <v>23</v>
@@ -15491,16 +15605,16 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H127" t="n">
         <v>3.45</v>
       </c>
       <c r="I127" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J127" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K127" t="n">
         <v>7.1</v>
@@ -15518,31 +15632,31 @@
         <v>1.75</v>
       </c>
       <c r="P127" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q127" t="n">
         <v>2.8</v>
       </c>
       <c r="R127" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S127" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T127" t="n">
         <v>9</v>
       </c>
       <c r="U127" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="V127" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="W127" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X127" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y127" t="n">
         <v>37</v>
@@ -15554,7 +15668,7 @@
         <v>6.6</v>
       </c>
       <c r="AB127" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC127" t="n">
         <v>75</v>
@@ -15563,16 +15677,16 @@
         <v>600</v>
       </c>
       <c r="AE127" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AF127" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AG127" t="n">
         <v>9</v>
       </c>
       <c r="AH127" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI127" t="n">
         <v>18</v>
@@ -15738,10 +15852,10 @@
         <v>1.95</v>
       </c>
       <c r="H129" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I129" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J129" t="n">
         <v>1.07</v>
@@ -15750,34 +15864,34 @@
         <v>9</v>
       </c>
       <c r="L129" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M129" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N129" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O129" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="P129" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q129" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R129" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S129" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T129" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U129" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V129" t="n">
         <v>9</v>
@@ -15792,19 +15906,19 @@
         <v>29</v>
       </c>
       <c r="Z129" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA129" t="n">
         <v>6.5</v>
       </c>
       <c r="AB129" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC129" t="n">
         <v>51</v>
       </c>
       <c r="AD129" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AE129" t="n">
         <v>10</v>
@@ -15857,13 +15971,13 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H130" t="n">
         <v>3.3</v>
       </c>
       <c r="I130" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J130" t="n">
         <v>1.06</v>
@@ -15878,10 +15992,10 @@
         <v>3.4</v>
       </c>
       <c r="N130" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O130" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P130" t="n">
         <v>1.4</v>
@@ -15985,13 +16099,13 @@
         <v>3.2</v>
       </c>
       <c r="I131" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J131" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K131" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L131" t="n">
         <v>1.33</v>
@@ -16000,10 +16114,10 @@
         <v>3.25</v>
       </c>
       <c r="N131" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O131" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P131" t="n">
         <v>1.44</v>
@@ -16048,7 +16162,7 @@
         <v>51</v>
       </c>
       <c r="AD131" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE131" t="n">
         <v>7</v>
@@ -16060,13 +16174,13 @@
         <v>9.5</v>
       </c>
       <c r="AH131" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI131" t="n">
         <v>19</v>
       </c>
       <c r="AJ131" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132">
@@ -16604,16 +16718,16 @@
         <v>11</v>
       </c>
       <c r="L136" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M136" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N136" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="O136" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="P136" t="n">
         <v>1.36</v>
@@ -16711,13 +16825,13 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.15</v>
+        <v>4.4</v>
       </c>
       <c r="H137" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I137" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="J137" t="n">
         <v>1.11</v>
@@ -16738,10 +16852,10 @@
         <v>1.45</v>
       </c>
       <c r="P137" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R137" t="n">
         <v>2.15</v>
@@ -16750,25 +16864,25 @@
         <v>1.55</v>
       </c>
       <c r="T137" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="U137" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="V137" t="n">
         <v>15.5</v>
       </c>
       <c r="W137" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="X137" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Y137" t="n">
         <v>75</v>
       </c>
       <c r="Z137" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AA137" t="n">
         <v>6.4</v>
@@ -16783,19 +16897,19 @@
         <v>101</v>
       </c>
       <c r="AE137" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AF137" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG137" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH137" t="n">
         <v>15</v>
       </c>
       <c r="AI137" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ137" t="n">
         <v>45</v>
@@ -16833,90 +16947,90 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H138" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I138" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M138" t="n">
-        <v>2.8</v>
+        <v>2.42</v>
       </c>
       <c r="N138" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="O138" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="P138" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="Q138" t="n">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="R138" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="S138" t="n">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="T138" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="U138" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V138" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="W138" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X138" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y138" t="n">
         <v>45</v>
       </c>
       <c r="Z138" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AA138" t="n">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB138" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AC138" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD138" t="n">
         <v>101</v>
       </c>
       <c r="AE138" t="n">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="AF138" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AG138" t="n">
-        <v>8</v>
+        <v>9.75</v>
       </c>
       <c r="AH138" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AI138" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AJ138" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139">
@@ -17085,7 +17199,7 @@
         <v>1.06</v>
       </c>
       <c r="K140" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L140" t="n">
         <v>1.33</v>
@@ -17207,7 +17321,7 @@
         <v>1.11</v>
       </c>
       <c r="K141" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="L141" t="n">
         <v>1.47</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-02.xlsx
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
         <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L2" t="n">
         <v>1.17</v>
@@ -680,22 +680,22 @@
         <v>3.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V2" t="n">
         <v>9.5</v>
       </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -704,7 +704,7 @@
         <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
         <v>10</v>
@@ -725,7 +725,7 @@
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH2" t="n">
         <v>101</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>1.05</v>
@@ -930,10 +930,10 @@
         <v>2.2</v>
       </c>
       <c r="T4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V4" t="n">
         <v>9.5</v>
@@ -963,10 +963,10 @@
         <v>151</v>
       </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
@@ -978,7 +978,7 @@
         <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -1135,43 +1135,43 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="M6" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
         <v>5.5</v>
@@ -1180,13 +1180,13 @@
         <v>9.5</v>
       </c>
       <c r="V6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W6" t="n">
         <v>21</v>
       </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y6" t="n">
         <v>41</v>
@@ -1201,7 +1201,7 @@
         <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
@@ -1270,16 +1270,16 @@
         <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P7" t="n">
         <v>1.53</v>
@@ -1288,10 +1288,10 @@
         <v>2.38</v>
       </c>
       <c r="R7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T7" t="n">
         <v>5.5</v>
@@ -1303,7 +1303,7 @@
         <v>9.5</v>
       </c>
       <c r="W7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X7" t="n">
         <v>21</v>
@@ -1874,16 +1874,16 @@
         <v>4.75</v>
       </c>
       <c r="J12" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="K12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="M12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N12" t="n">
         <v>2.88</v>
@@ -1996,10 +1996,10 @@
         <v>2.3</v>
       </c>
       <c r="J13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L13" t="n">
         <v>1.2</v>
@@ -2130,10 +2130,10 @@
         <v>3.75</v>
       </c>
       <c r="N14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O14" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P14" t="n">
         <v>1.33</v>
@@ -2234,7 +2234,7 @@
         <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
         <v>2.82</v>
@@ -2270,7 +2270,7 @@
         <v>2.12</v>
       </c>
       <c r="T15" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U15" t="n">
         <v>11.75</v>
@@ -2297,16 +2297,16 @@
         <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD15" t="n">
         <v>350</v>
       </c>
       <c r="AE15" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
         <v>10.25</v>
@@ -2318,7 +2318,7 @@
         <v>22</v>
       </c>
       <c r="AJ15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -2353,13 +2353,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="H16" t="n">
         <v>3.85</v>
       </c>
       <c r="I16" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="J16" t="n">
         <v>1.03</v>
@@ -2392,19 +2392,19 @@
         <v>2.67</v>
       </c>
       <c r="T16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="U16" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="V16" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W16" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y16" t="n">
         <v>19.5</v>
@@ -2416,7 +2416,7 @@
         <v>8.25</v>
       </c>
       <c r="AB16" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AC16" t="n">
         <v>32</v>
@@ -2425,19 +2425,19 @@
         <v>150</v>
       </c>
       <c r="AE16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI16" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ16" t="n">
         <v>19</v>
@@ -2481,7 +2481,7 @@
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J17" t="n">
         <v>1.04</v>
@@ -2490,16 +2490,16 @@
         <v>8.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M17" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="N17" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O17" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="P17" t="n">
         <v>1.33</v>
@@ -2508,28 +2508,28 @@
         <v>3.05</v>
       </c>
       <c r="R17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S17" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="T17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="V17" t="n">
         <v>8.75</v>
       </c>
       <c r="W17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z17" t="n">
         <v>8.5</v>
@@ -2541,7 +2541,7 @@
         <v>12</v>
       </c>
       <c r="AC17" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD17" t="n">
         <v>250</v>
@@ -2841,37 +2841,37 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H20" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="J20" t="n">
         <v>1.09</v>
       </c>
       <c r="K20" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="L20" t="n">
         <v>1.44</v>
       </c>
       <c r="M20" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="N20" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P20" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="R20" t="n">
         <v>2.1</v>
@@ -2883,7 +2883,7 @@
         <v>5.6</v>
       </c>
       <c r="U20" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="V20" t="n">
         <v>8.75</v>
@@ -2898,13 +2898,13 @@
         <v>37</v>
       </c>
       <c r="Z20" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="n">
         <v>120</v>
@@ -2913,7 +2913,7 @@
         <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
         <v>20</v>
@@ -2963,10 +2963,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H21" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
         <v>5.7</v>
@@ -2974,55 +2974,55 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M21" t="n">
-        <v>2.52</v>
+        <v>2.67</v>
       </c>
       <c r="N21" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O21" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="P21" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="R21" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="S21" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="T21" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="U21" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="V21" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W21" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="X21" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z21" t="n">
-        <v>7.4</v>
+        <v>8.25</v>
       </c>
       <c r="AA21" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC21" t="n">
         <v>120</v>
@@ -3031,22 +3031,22 @@
         <v>101</v>
       </c>
       <c r="AE21" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF21" t="n">
         <v>32</v>
       </c>
       <c r="AG21" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH21" t="n">
         <v>120</v>
       </c>
       <c r="AI21" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>75</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -3205,19 +3205,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
         <v>4.75</v>
       </c>
       <c r="J24" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L24" t="n">
         <v>1.14</v>
@@ -3226,13 +3226,13 @@
         <v>5.5</v>
       </c>
       <c r="N24" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O24" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P24" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q24" t="n">
         <v>3.75</v>
@@ -3244,7 +3244,7 @@
         <v>2.38</v>
       </c>
       <c r="T24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U24" t="n">
         <v>10</v>
@@ -3262,10 +3262,10 @@
         <v>19</v>
       </c>
       <c r="Z24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB24" t="n">
         <v>13</v>
@@ -3274,7 +3274,7 @@
         <v>34</v>
       </c>
       <c r="AD24" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
@@ -3292,7 +3292,7 @@
         <v>34</v>
       </c>
       <c r="AJ24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -3327,19 +3327,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J25" t="n">
         <v>1.04</v>
       </c>
       <c r="K25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L25" t="n">
         <v>1.22</v>
@@ -3348,13 +3348,13 @@
         <v>4</v>
       </c>
       <c r="N25" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O25" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P25" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q25" t="n">
         <v>3.25</v>
@@ -3369,13 +3369,13 @@
         <v>8.5</v>
       </c>
       <c r="U25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V25" t="n">
         <v>8.5</v>
       </c>
       <c r="W25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X25" t="n">
         <v>15</v>
@@ -3384,7 +3384,7 @@
         <v>23</v>
       </c>
       <c r="Z25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA25" t="n">
         <v>7</v>
@@ -3576,16 +3576,16 @@
         <v>4.75</v>
       </c>
       <c r="J27" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K27" t="n">
         <v>8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M27" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N27" t="n">
         <v>2.35</v>
@@ -3594,7 +3594,7 @@
         <v>1.57</v>
       </c>
       <c r="P27" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q27" t="n">
         <v>2.5</v>
@@ -3698,13 +3698,13 @@
         <v>3.3</v>
       </c>
       <c r="J28" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K28" t="n">
         <v>10</v>
       </c>
       <c r="L28" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M28" t="n">
         <v>3.5</v>
@@ -4558,10 +4558,10 @@
         <v>17</v>
       </c>
       <c r="L35" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N35" t="n">
         <v>1.53</v>
@@ -4680,16 +4680,16 @@
         <v>13</v>
       </c>
       <c r="L36" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N36" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O36" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P36" t="n">
         <v>1.33</v>
@@ -5046,16 +5046,16 @@
         <v>7</v>
       </c>
       <c r="L39" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M39" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N39" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O39" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P39" t="n">
         <v>1.5</v>
@@ -5278,43 +5278,43 @@
         <v>1.67</v>
       </c>
       <c r="H41" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I41" t="n">
         <v>4.33</v>
       </c>
       <c r="J41" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K41" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L41" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M41" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N41" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="O41" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P41" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R41" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S41" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T41" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U41" t="n">
         <v>7.5</v>
@@ -5332,19 +5332,19 @@
         <v>29</v>
       </c>
       <c r="Z41" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB41" t="n">
         <v>19</v>
       </c>
       <c r="AC41" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD41" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AE41" t="n">
         <v>11</v>
@@ -5656,16 +5656,16 @@
         <v>15</v>
       </c>
       <c r="L44" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M44" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N44" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O44" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P44" t="n">
         <v>1.3</v>
@@ -5784,10 +5784,10 @@
         <v>3.5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O45" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P45" t="n">
         <v>1.36</v>
@@ -5885,13 +5885,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H46" t="n">
         <v>3.7</v>
       </c>
       <c r="I46" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J46" t="n">
         <v>1.04</v>
@@ -6373,44 +6373,44 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="H50" t="n">
-        <v>4.35</v>
+        <v>4.15</v>
       </c>
       <c r="I50" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M50" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="N50" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="O50" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="S50" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="T50" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U50" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V50" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="W50" t="n">
         <v>110</v>
@@ -6419,28 +6419,28 @@
         <v>55</v>
       </c>
       <c r="Y50" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z50" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AA50" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AB50" t="n">
         <v>16</v>
       </c>
       <c r="AC50" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD50" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE50" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AF50" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AG50" t="n">
         <v>7.1</v>
@@ -6449,10 +6449,10 @@
         <v>7.6</v>
       </c>
       <c r="AI50" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AJ50" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51">
@@ -6487,13 +6487,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H51" t="n">
         <v>3.5</v>
       </c>
       <c r="I51" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J51" t="n">
         <v>1.04</v>
@@ -6529,7 +6529,7 @@
         <v>8.5</v>
       </c>
       <c r="U51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V51" t="n">
         <v>9</v>
@@ -6538,16 +6538,16 @@
         <v>19</v>
       </c>
       <c r="X51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y51" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA51" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB51" t="n">
         <v>13</v>
@@ -6562,13 +6562,13 @@
         <v>11</v>
       </c>
       <c r="AF51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG51" t="n">
         <v>12</v>
       </c>
       <c r="AH51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI51" t="n">
         <v>26</v>
@@ -7228,10 +7228,10 @@
         <v>3.4</v>
       </c>
       <c r="N57" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O57" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P57" t="n">
         <v>1.4</v>
@@ -7329,13 +7329,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H58" t="n">
         <v>3.4</v>
       </c>
       <c r="I58" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J58" t="n">
         <v>1.04</v>
@@ -7362,10 +7362,10 @@
         <v>3.25</v>
       </c>
       <c r="R58" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S58" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T58" t="n">
         <v>11</v>
@@ -7374,10 +7374,10 @@
         <v>15</v>
       </c>
       <c r="V58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W58" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X58" t="n">
         <v>21</v>
@@ -7407,7 +7407,7 @@
         <v>13</v>
       </c>
       <c r="AG58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH58" t="n">
         <v>23</v>
@@ -7582,10 +7582,10 @@
         <v>3</v>
       </c>
       <c r="J60" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L60" t="n">
         <v>1.33</v>
@@ -7600,16 +7600,16 @@
         <v>1.73</v>
       </c>
       <c r="P60" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R60" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S60" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T60" t="n">
         <v>8</v>
@@ -7657,7 +7657,7 @@
         <v>29</v>
       </c>
       <c r="AI60" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ60" t="n">
         <v>34</v>
@@ -7704,10 +7704,10 @@
         <v>5</v>
       </c>
       <c r="J61" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L61" t="n">
         <v>1.29</v>
@@ -7716,10 +7716,10 @@
         <v>3.5</v>
       </c>
       <c r="N61" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O61" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P61" t="n">
         <v>1.36</v>
@@ -8183,13 +8183,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H65" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I65" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J65" t="n">
         <v>1.03</v>
@@ -8198,10 +8198,10 @@
         <v>15</v>
       </c>
       <c r="L65" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M65" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N65" t="n">
         <v>1.6</v>
@@ -8216,10 +8216,10 @@
         <v>3.5</v>
       </c>
       <c r="R65" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S65" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T65" t="n">
         <v>9</v>
@@ -8231,7 +8231,7 @@
         <v>8.5</v>
       </c>
       <c r="W65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X65" t="n">
         <v>12</v>
@@ -8255,7 +8255,7 @@
         <v>151</v>
       </c>
       <c r="AE65" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF65" t="n">
         <v>29</v>
@@ -8267,10 +8267,10 @@
         <v>51</v>
       </c>
       <c r="AI65" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ65" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="66">
@@ -8423,13 +8423,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="H67" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I67" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -8464,13 +8464,13 @@
         <v>8</v>
       </c>
       <c r="V67" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W67" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="X67" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y67" t="n">
         <v>35</v>
@@ -8482,7 +8482,7 @@
         <v>6.3</v>
       </c>
       <c r="AB67" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC67" t="n">
         <v>100</v>
@@ -8494,19 +8494,19 @@
         <v>9.5</v>
       </c>
       <c r="AF67" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG67" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH67" t="n">
         <v>65</v>
       </c>
       <c r="AI67" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ67" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68">
@@ -8663,13 +8663,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H69" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I69" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -8689,64 +8689,64 @@
         <v>1.44</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R69" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="S69" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T69" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U69" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V69" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="W69" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X69" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y69" t="n">
         <v>40</v>
       </c>
       <c r="Z69" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA69" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB69" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC69" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD69" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AE69" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AF69" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AG69" t="n">
         <v>9</v>
       </c>
       <c r="AH69" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI69" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ69" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70">
@@ -8816,7 +8816,7 @@
         <v>1.7</v>
       </c>
       <c r="T70" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="U70" t="n">
         <v>7.1</v>
@@ -8899,13 +8899,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="n">
         <v>3.7</v>
       </c>
       <c r="I71" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -8913,7 +8913,7 @@
         <v>1.3</v>
       </c>
       <c r="M71" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="N71" t="n">
         <v>1.88</v>
@@ -8925,7 +8925,7 @@
         <v>1.4</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R71" t="n">
         <v>1.9</v>
@@ -8934,7 +8934,7 @@
         <v>1.72</v>
       </c>
       <c r="T71" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U71" t="n">
         <v>7.1</v>
@@ -8943,7 +8943,7 @@
         <v>8.25</v>
       </c>
       <c r="W71" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="X71" t="n">
         <v>13.5</v>
@@ -8955,7 +8955,7 @@
         <v>9.5</v>
       </c>
       <c r="AA71" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB71" t="n">
         <v>18</v>
@@ -8970,19 +8970,19 @@
         <v>12.5</v>
       </c>
       <c r="AF71" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG71" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH71" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI71" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ71" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72">
@@ -9139,18 +9139,18 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H73" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="I73" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M73" t="n">
         <v>2.55</v>
@@ -9168,25 +9168,25 @@
         <v>2.15</v>
       </c>
       <c r="R73" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S73" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T73" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="U73" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="V73" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W73" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X73" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y73" t="n">
         <v>32</v>
@@ -9204,25 +9204,25 @@
         <v>65</v>
       </c>
       <c r="AD73" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE73" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF73" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG73" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AH73" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI73" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ73" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74">
@@ -9257,90 +9257,90 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="H74" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I74" t="n">
         <v>2.9</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3.05</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M74" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="N74" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="O74" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="P74" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="Q74" t="n">
-        <v>2.35</v>
+        <v>2.47</v>
       </c>
       <c r="R74" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="S74" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T74" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="U74" t="n">
         <v>9</v>
       </c>
       <c r="V74" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="W74" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="X74" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y74" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z74" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="AA74" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AB74" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AC74" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD74" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE74" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF74" t="n">
         <v>12.5</v>
       </c>
       <c r="AG74" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH74" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI74" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AJ74" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
@@ -9384,10 +9384,10 @@
         <v>5.5</v>
       </c>
       <c r="J75" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K75" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L75" t="n">
         <v>1.11</v>
@@ -9497,13 +9497,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H76" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I76" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J76" t="n">
         <v>1.03</v>
@@ -9518,16 +9518,16 @@
         <v>4.5</v>
       </c>
       <c r="N76" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O76" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P76" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q76" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R76" t="n">
         <v>1.53</v>
@@ -9536,19 +9536,19 @@
         <v>2.38</v>
       </c>
       <c r="T76" t="n">
+        <v>15</v>
+      </c>
+      <c r="U76" t="n">
+        <v>21</v>
+      </c>
+      <c r="V76" t="n">
         <v>13</v>
       </c>
-      <c r="U76" t="n">
-        <v>19</v>
-      </c>
-      <c r="V76" t="n">
-        <v>12</v>
-      </c>
       <c r="W76" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X76" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y76" t="n">
         <v>29</v>
@@ -9572,7 +9572,7 @@
         <v>10</v>
       </c>
       <c r="AF76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG76" t="n">
         <v>9</v>
@@ -9631,7 +9631,7 @@
         <v>1.04</v>
       </c>
       <c r="K77" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L77" t="n">
         <v>1.25</v>
@@ -9994,10 +9994,10 @@
         <v>3.5</v>
       </c>
       <c r="N80" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O80" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P80" t="n">
         <v>1.36</v>
@@ -10226,10 +10226,10 @@
         <v>3.8</v>
       </c>
       <c r="J82" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K82" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L82" t="n">
         <v>1.5</v>
@@ -10238,10 +10238,10 @@
         <v>2.5</v>
       </c>
       <c r="N82" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O82" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P82" t="n">
         <v>1.53</v>
@@ -10473,25 +10473,25 @@
         <v>1.06</v>
       </c>
       <c r="K84" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L84" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M84" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N84" t="n">
         <v>2.05</v>
       </c>
       <c r="O84" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="P84" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R84" t="n">
         <v>1.95</v>
@@ -10503,7 +10503,7 @@
         <v>6.5</v>
       </c>
       <c r="U84" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V84" t="n">
         <v>8.5</v>
@@ -10518,7 +10518,7 @@
         <v>29</v>
       </c>
       <c r="Z84" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA84" t="n">
         <v>7</v>
@@ -10530,7 +10530,7 @@
         <v>51</v>
       </c>
       <c r="AD84" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE84" t="n">
         <v>11</v>
@@ -10612,7 +10612,7 @@
         <v>2.55</v>
       </c>
       <c r="R85" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S85" t="n">
         <v>1.75</v>
@@ -10666,7 +10666,7 @@
         <v>12.5</v>
       </c>
       <c r="AJ85" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86">
@@ -10718,7 +10718,7 @@
         <v>3.05</v>
       </c>
       <c r="N86" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="O86" t="n">
         <v>1.78</v>
@@ -10851,28 +10851,28 @@
         <v>1.72</v>
       </c>
       <c r="S87" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T87" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="U87" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="V87" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W87" t="n">
         <v>26</v>
       </c>
       <c r="X87" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y87" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z87" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA87" t="n">
         <v>6.1</v>
@@ -10887,13 +10887,13 @@
         <v>500</v>
       </c>
       <c r="AE87" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF87" t="n">
         <v>14</v>
       </c>
       <c r="AG87" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH87" t="n">
         <v>32</v>
@@ -10902,7 +10902,7 @@
         <v>24</v>
       </c>
       <c r="AJ87" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88">
@@ -10954,7 +10954,7 @@
         <v>2.67</v>
       </c>
       <c r="N88" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="O88" t="n">
         <v>1.62</v>
@@ -10972,7 +10972,7 @@
         <v>1.72</v>
       </c>
       <c r="T88" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="U88" t="n">
         <v>8.25</v>
@@ -10981,16 +10981,16 @@
         <v>8.5</v>
       </c>
       <c r="W88" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="X88" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y88" t="n">
         <v>32</v>
       </c>
       <c r="Z88" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA88" t="n">
         <v>6.4</v>
@@ -11008,7 +11008,7 @@
         <v>9.75</v>
       </c>
       <c r="AF88" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG88" t="n">
         <v>13.5</v>
@@ -11066,10 +11066,10 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M89" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N89" t="n">
         <v>1.93</v>
@@ -11084,10 +11084,10 @@
         <v>2.47</v>
       </c>
       <c r="R89" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="S89" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="T89" t="n">
         <v>8.25</v>
@@ -11306,28 +11306,28 @@
         <v>21</v>
       </c>
       <c r="L91" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M91" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N91" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O91" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R91" t="n">
         <v>1.44</v>
       </c>
-      <c r="O91" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P91" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>4</v>
-      </c>
-      <c r="R91" t="n">
-        <v>1.4</v>
-      </c>
       <c r="S91" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T91" t="n">
         <v>13</v>
@@ -11363,13 +11363,13 @@
         <v>81</v>
       </c>
       <c r="AE91" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF91" t="n">
         <v>19</v>
       </c>
       <c r="AG91" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH91" t="n">
         <v>34</v>
@@ -11378,7 +11378,7 @@
         <v>21</v>
       </c>
       <c r="AJ91" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92">
@@ -11657,19 +11657,19 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H94" t="n">
         <v>3.7</v>
       </c>
       <c r="I94" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J94" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K94" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L94" t="n">
         <v>1.14</v>
@@ -11699,7 +11699,7 @@
         <v>13</v>
       </c>
       <c r="U94" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V94" t="n">
         <v>10</v>
@@ -11729,7 +11729,7 @@
         <v>81</v>
       </c>
       <c r="AE94" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF94" t="n">
         <v>17</v>
@@ -11738,10 +11738,10 @@
         <v>10</v>
       </c>
       <c r="AH94" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI94" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ94" t="n">
         <v>21</v>
@@ -12178,10 +12178,10 @@
         <v>3.75</v>
       </c>
       <c r="R98" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S98" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T98" t="n">
         <v>19</v>
@@ -12276,10 +12276,10 @@
         <v>3.1</v>
       </c>
       <c r="J99" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K99" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L99" t="n">
         <v>1.11</v>
@@ -12389,13 +12389,13 @@
         </is>
       </c>
       <c r="G100" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H100" t="n">
         <v>3.4</v>
       </c>
-      <c r="H100" t="n">
-        <v>3.5</v>
-      </c>
       <c r="I100" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="J100" t="n">
         <v>1.03</v>
@@ -12443,7 +12443,7 @@
         <v>23</v>
       </c>
       <c r="Y100" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z100" t="n">
         <v>13</v>
@@ -12464,13 +12464,13 @@
         <v>10</v>
       </c>
       <c r="AF100" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG100" t="n">
         <v>9</v>
       </c>
       <c r="AH100" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI100" t="n">
         <v>15</v>
@@ -12702,7 +12702,7 @@
         <v>67</v>
       </c>
       <c r="AD102" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE102" t="n">
         <v>8</v>
@@ -12877,21 +12877,21 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="H104" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I104" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M104" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="N104" t="n">
         <v>2.34</v>
@@ -12900,28 +12900,28 @@
         <v>1.53</v>
       </c>
       <c r="P104" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R104" t="n">
-        <v>2.18</v>
+        <v>2.19</v>
       </c>
       <c r="S104" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="T104" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="U104" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="V104" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="W104" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X104" t="n">
         <v>14</v>
@@ -12930,13 +12930,13 @@
         <v>35</v>
       </c>
       <c r="Z104" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AA104" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AB104" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC104" t="n">
         <v>101</v>
@@ -12945,22 +12945,22 @@
         <v>101</v>
       </c>
       <c r="AE104" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AF104" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG104" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH104" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AI104" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ104" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105">
@@ -12995,13 +12995,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I105" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -13009,19 +13009,19 @@
         <v>1.48</v>
       </c>
       <c r="M105" t="n">
-        <v>2.47</v>
+        <v>2.48</v>
       </c>
       <c r="N105" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="O105" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P105" t="n">
         <v>1.56</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="R105" t="n">
         <v>2.09</v>
@@ -13030,19 +13030,19 @@
         <v>1.66</v>
       </c>
       <c r="T105" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="U105" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="V105" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W105" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X105" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y105" t="n">
         <v>40</v>
@@ -13051,7 +13051,7 @@
         <v>5.4</v>
       </c>
       <c r="AA105" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AB105" t="n">
         <v>15</v>
@@ -13063,19 +13063,19 @@
         <v>101</v>
       </c>
       <c r="AE105" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AF105" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG105" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AH105" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI105" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ105" t="n">
         <v>45</v>
@@ -13357,19 +13357,19 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H108" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I108" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J108" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K108" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L108" t="n">
         <v>1.29</v>
@@ -13378,10 +13378,10 @@
         <v>3.5</v>
       </c>
       <c r="N108" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O108" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P108" t="n">
         <v>1.36</v>
@@ -13420,10 +13420,10 @@
         <v>6.5</v>
       </c>
       <c r="AB108" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC108" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD108" t="n">
         <v>201</v>
@@ -13518,10 +13518,10 @@
         <v>2.2</v>
       </c>
       <c r="T109" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U109" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V109" t="n">
         <v>8.5</v>
@@ -13622,10 +13622,10 @@
         <v>3.4</v>
       </c>
       <c r="N110" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O110" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P110" t="n">
         <v>1.36</v>
@@ -13742,10 +13742,10 @@
         <v>3.75</v>
       </c>
       <c r="N111" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O111" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P111" t="n">
         <v>1.33</v>
@@ -14263,10 +14263,10 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H116" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I116" t="n">
         <v>3</v>
@@ -14278,16 +14278,16 @@
         <v>10</v>
       </c>
       <c r="L116" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M116" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N116" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O116" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P116" t="n">
         <v>1.3</v>
@@ -14302,7 +14302,7 @@
         <v>2.2</v>
       </c>
       <c r="T116" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U116" t="n">
         <v>11</v>
@@ -14338,7 +14338,7 @@
         <v>12</v>
       </c>
       <c r="AF116" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG116" t="n">
         <v>12</v>
@@ -14507,19 +14507,19 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H118" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I118" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J118" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K118" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="L118" t="n">
         <v>1.14</v>
@@ -14540,10 +14540,10 @@
         <v>3.75</v>
       </c>
       <c r="R118" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S118" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T118" t="n">
         <v>9</v>
@@ -14710,7 +14710,7 @@
         <v>9</v>
       </c>
       <c r="AH119" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI119" t="n">
         <v>15</v>
@@ -14820,7 +14820,7 @@
         <v>67</v>
       </c>
       <c r="AD120" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE120" t="n">
         <v>26</v>
@@ -15605,16 +15605,16 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="H127" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I127" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J127" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K127" t="n">
         <v>7.1</v>
@@ -15635,16 +15635,16 @@
         <v>1.39</v>
       </c>
       <c r="Q127" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="R127" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S127" t="n">
         <v>1.9</v>
       </c>
       <c r="T127" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="U127" t="n">
         <v>14.5</v>
@@ -15665,7 +15665,7 @@
         <v>7.1</v>
       </c>
       <c r="AA127" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB127" t="n">
         <v>15</v>
@@ -15677,19 +15677,19 @@
         <v>600</v>
       </c>
       <c r="AE127" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AF127" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AG127" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH127" t="n">
         <v>21</v>
       </c>
       <c r="AI127" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AJ127" t="n">
         <v>30</v>
@@ -15742,16 +15742,16 @@
         <v>11</v>
       </c>
       <c r="L128" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M128" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N128" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O128" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P128" t="n">
         <v>1.36</v>
@@ -15858,10 +15858,10 @@
         <v>3.8</v>
       </c>
       <c r="J129" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K129" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L129" t="n">
         <v>1.33</v>
@@ -16102,10 +16102,10 @@
         <v>2</v>
       </c>
       <c r="J131" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K131" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L131" t="n">
         <v>1.33</v>
@@ -16126,10 +16126,10 @@
         <v>2.63</v>
       </c>
       <c r="R131" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S131" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T131" t="n">
         <v>9.5</v>
@@ -16141,7 +16141,7 @@
         <v>13</v>
       </c>
       <c r="W131" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X131" t="n">
         <v>29</v>
@@ -16150,13 +16150,13 @@
         <v>41</v>
       </c>
       <c r="Z131" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA131" t="n">
         <v>6.5</v>
       </c>
       <c r="AB131" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC131" t="n">
         <v>51</v>
@@ -16174,7 +16174,7 @@
         <v>9.5</v>
       </c>
       <c r="AH131" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI131" t="n">
         <v>19</v>
@@ -16224,10 +16224,10 @@
         <v>3.3</v>
       </c>
       <c r="J132" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K132" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="L132" t="n">
         <v>1.33</v>
@@ -16287,7 +16287,7 @@
         <v>500</v>
       </c>
       <c r="AE132" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF132" t="n">
         <v>17</v>
@@ -16296,7 +16296,7 @@
         <v>13</v>
       </c>
       <c r="AH132" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI132" t="n">
         <v>29</v>
@@ -16703,13 +16703,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H136" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I136" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J136" t="n">
         <v>1.05</v>
@@ -16736,28 +16736,28 @@
         <v>3</v>
       </c>
       <c r="R136" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S136" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T136" t="n">
         <v>9</v>
       </c>
       <c r="U136" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V136" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W136" t="n">
         <v>23</v>
       </c>
       <c r="X136" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y136" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z136" t="n">
         <v>11</v>
@@ -16775,16 +16775,16 @@
         <v>201</v>
       </c>
       <c r="AE136" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF136" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG136" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH136" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI136" t="n">
         <v>21</v>
@@ -16950,18 +16950,18 @@
         <v>3</v>
       </c>
       <c r="H138" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I138" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M138" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="N138" t="n">
         <v>2.25</v>
@@ -16982,25 +16982,25 @@
         <v>1.65</v>
       </c>
       <c r="T138" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="U138" t="n">
         <v>14</v>
       </c>
       <c r="V138" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="W138" t="n">
         <v>37</v>
       </c>
       <c r="X138" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y138" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z138" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AA138" t="n">
         <v>6.1</v>
@@ -17009,7 +17009,7 @@
         <v>17.5</v>
       </c>
       <c r="AC138" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD138" t="n">
         <v>101</v>
@@ -17018,13 +17018,13 @@
         <v>6.3</v>
       </c>
       <c r="AF138" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AG138" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH138" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI138" t="n">
         <v>22</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-02.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
@@ -692,7 +692,7 @@
         <v>8.5</v>
       </c>
       <c r="V2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W2" t="n">
         <v>11</v>
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
         <v>17</v>
@@ -716,7 +716,7 @@
         <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE2" t="n">
         <v>26</v>
@@ -725,7 +725,7 @@
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH2" t="n">
         <v>101</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
         <v>1.03</v>
@@ -784,16 +784,16 @@
         <v>15</v>
       </c>
       <c r="L3" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O3" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="P3" t="n">
         <v>1.29</v>
@@ -823,13 +823,13 @@
         <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z3" t="n">
         <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB3" t="n">
         <v>17</v>
@@ -850,10 +850,10 @@
         <v>21</v>
       </c>
       <c r="AH3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L4" t="n">
         <v>1.22</v>
@@ -912,10 +912,10 @@
         <v>4.33</v>
       </c>
       <c r="N4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="P4" t="n">
         <v>1.33</v>
@@ -948,7 +948,7 @@
         <v>23</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
         <v>6.5</v>
@@ -966,7 +966,7 @@
         <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
@@ -1013,7 +1013,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -1040,16 +1040,16 @@
         <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q5" t="n">
         <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T5" t="n">
         <v>6.5</v>
@@ -1076,7 +1076,7 @@
         <v>5.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC5" t="n">
         <v>51</v>
@@ -1085,7 +1085,7 @@
         <v>401</v>
       </c>
       <c r="AE5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
@@ -1135,19 +1135,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>1.57</v>
@@ -1162,28 +1162,28 @@
         <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Q6" t="n">
         <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V6" t="n">
         <v>10</v>
       </c>
       <c r="W6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X6" t="n">
         <v>23</v>
@@ -1214,13 +1214,13 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI6" t="n">
         <v>34</v>
       </c>
       <c r="AJ6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -1282,10 +1282,10 @@
         <v>1.53</v>
       </c>
       <c r="P7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="R7" t="n">
         <v>2.1</v>
@@ -1386,10 +1386,10 @@
         <v>3.25</v>
       </c>
       <c r="J8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.5</v>
@@ -1404,19 +1404,19 @@
         <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="R8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U8" t="n">
         <v>10</v>
@@ -1425,16 +1425,16 @@
         <v>10</v>
       </c>
       <c r="W8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
         <v>41</v>
       </c>
       <c r="Z8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA8" t="n">
         <v>6</v>
@@ -1499,19 +1499,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
         <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
@@ -1526,10 +1526,10 @@
         <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="R9" t="n">
         <v>2.05</v>
@@ -1541,7 +1541,7 @@
         <v>6.5</v>
       </c>
       <c r="U9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V9" t="n">
         <v>10</v>
@@ -1571,10 +1571,10 @@
         <v>501</v>
       </c>
       <c r="AE9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
         <v>12</v>
@@ -1633,7 +1633,7 @@
         <v>1.07</v>
       </c>
       <c r="K10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.36</v>
@@ -1648,16 +1648,16 @@
         <v>1.65</v>
       </c>
       <c r="P10" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S10" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T10" t="n">
         <v>6.5</v>
@@ -1666,7 +1666,7 @@
         <v>9.5</v>
       </c>
       <c r="V10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W10" t="n">
         <v>19</v>
@@ -1678,7 +1678,7 @@
         <v>34</v>
       </c>
       <c r="Z10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA10" t="n">
         <v>6.5</v>
@@ -1687,13 +1687,13 @@
         <v>17</v>
       </c>
       <c r="AC10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD10" t="n">
         <v>401</v>
       </c>
       <c r="AE10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF10" t="n">
         <v>17</v>
@@ -1743,13 +1743,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
         <v>1.08</v>
@@ -1770,10 +1770,10 @@
         <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="R11" t="n">
         <v>2.1</v>
@@ -1809,10 +1809,10 @@
         <v>19</v>
       </c>
       <c r="AC11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD11" t="n">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
@@ -2130,10 +2130,10 @@
         <v>3.75</v>
       </c>
       <c r="N14" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O14" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P14" t="n">
         <v>1.33</v>
@@ -2270,7 +2270,7 @@
         <v>2.12</v>
       </c>
       <c r="T15" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="U15" t="n">
         <v>11.75</v>
@@ -2303,10 +2303,10 @@
         <v>350</v>
       </c>
       <c r="AE15" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG15" t="n">
         <v>10.25</v>
@@ -2318,7 +2318,7 @@
         <v>22</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -2353,13 +2353,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="H16" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I16" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J16" t="n">
         <v>1.03</v>
@@ -2374,7 +2374,7 @@
         <v>4.9</v>
       </c>
       <c r="N16" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="O16" t="n">
         <v>2.57</v>
@@ -2389,19 +2389,19 @@
         <v>1.42</v>
       </c>
       <c r="S16" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="T16" t="n">
         <v>14</v>
       </c>
       <c r="U16" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="V16" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X16" t="n">
         <v>17</v>
@@ -2413,7 +2413,7 @@
         <v>9.75</v>
       </c>
       <c r="AA16" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AB16" t="n">
         <v>11.25</v>
@@ -2597,67 +2597,67 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.82</v>
+        <v>2.42</v>
       </c>
       <c r="H18" t="n">
         <v>3.75</v>
       </c>
       <c r="I18" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M18" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="N18" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O18" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="P18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S18" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="T18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="U18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="V18" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="W18" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="X18" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA18" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AB18" t="n">
         <v>12.5</v>
@@ -2666,22 +2666,22 @@
         <v>45</v>
       </c>
       <c r="AD18" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE18" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="AF18" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AI18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ18" t="n">
         <v>23</v>
@@ -2966,7 +2966,7 @@
         <v>1.57</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I21" t="n">
         <v>5.7</v>
@@ -2974,55 +2974,55 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M21" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="N21" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O21" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P21" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="R21" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="S21" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="T21" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="U21" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="V21" t="n">
         <v>8.5</v>
       </c>
       <c r="W21" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="X21" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y21" t="n">
         <v>35</v>
       </c>
       <c r="Z21" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA21" t="n">
         <v>7.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC21" t="n">
         <v>120</v>
@@ -3031,13 +3031,13 @@
         <v>101</v>
       </c>
       <c r="AE21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF21" t="n">
         <v>32</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH21" t="n">
         <v>120</v>
@@ -3226,10 +3226,10 @@
         <v>5.5</v>
       </c>
       <c r="N24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O24" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P24" t="n">
         <v>1.25</v>
@@ -3339,7 +3339,7 @@
         <v>1.04</v>
       </c>
       <c r="K25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L25" t="n">
         <v>1.22</v>
@@ -3348,10 +3348,10 @@
         <v>4</v>
       </c>
       <c r="N25" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O25" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P25" t="n">
         <v>1.33</v>
@@ -3576,16 +3576,16 @@
         <v>4.75</v>
       </c>
       <c r="J27" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K27" t="n">
         <v>8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M27" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N27" t="n">
         <v>2.35</v>
@@ -3698,13 +3698,13 @@
         <v>3.3</v>
       </c>
       <c r="J28" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K28" t="n">
         <v>10</v>
       </c>
       <c r="L28" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M28" t="n">
         <v>3.5</v>
@@ -3933,13 +3933,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J30" t="n">
         <v>1.07</v>
@@ -3954,16 +3954,16 @@
         <v>3.25</v>
       </c>
       <c r="N30" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O30" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R30" t="n">
         <v>1.91</v>
@@ -3978,7 +3978,7 @@
         <v>8</v>
       </c>
       <c r="V30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W30" t="n">
         <v>15</v>
@@ -3993,7 +3993,7 @@
         <v>9</v>
       </c>
       <c r="AA30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB30" t="n">
         <v>17</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H35" t="n">
         <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J35" t="n">
         <v>1.03</v>
@@ -4576,10 +4576,10 @@
         <v>3.75</v>
       </c>
       <c r="R35" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S35" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T35" t="n">
         <v>10</v>
@@ -4597,10 +4597,10 @@
         <v>12</v>
       </c>
       <c r="Y35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA35" t="n">
         <v>8</v>
@@ -4618,10 +4618,10 @@
         <v>17</v>
       </c>
       <c r="AF35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
         <v>41</v>
@@ -4680,16 +4680,16 @@
         <v>13</v>
       </c>
       <c r="L36" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M36" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N36" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O36" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P36" t="n">
         <v>1.33</v>
@@ -5046,16 +5046,16 @@
         <v>7</v>
       </c>
       <c r="L39" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M39" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N39" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O39" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P39" t="n">
         <v>1.5</v>
@@ -5769,7 +5769,7 @@
         <v>3.5</v>
       </c>
       <c r="I45" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J45" t="n">
         <v>1.05</v>
@@ -5891,7 +5891,7 @@
         <v>3.7</v>
       </c>
       <c r="I46" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J46" t="n">
         <v>1.04</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="H47" t="n">
         <v>4</v>
@@ -6986,10 +6986,10 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M55" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="N55" t="n">
         <v>1.4</v>
@@ -7089,27 +7089,27 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="H56" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I56" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="M56" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="N56" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="O56" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="P56" t="n">
         <v>1.4</v>
@@ -7118,13 +7118,13 @@
         <v>2.52</v>
       </c>
       <c r="R56" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S56" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="T56" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="U56" t="n">
         <v>17</v>
@@ -7133,46 +7133,46 @@
         <v>10.25</v>
       </c>
       <c r="W56" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X56" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y56" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z56" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA56" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AB56" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF56" t="n">
         <v>12</v>
       </c>
-      <c r="AC56" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AG56" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH56" t="n">
         <v>25</v>
       </c>
       <c r="AI56" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AJ56" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57">
@@ -7213,7 +7213,7 @@
         <v>3.9</v>
       </c>
       <c r="I57" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="J57" t="n">
         <v>1.05</v>
@@ -7243,7 +7243,7 @@
         <v>2.1</v>
       </c>
       <c r="S57" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="T57" t="n">
         <v>13</v>
@@ -7344,16 +7344,16 @@
         <v>13</v>
       </c>
       <c r="L58" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N58" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O58" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P58" t="n">
         <v>1.33</v>
@@ -7362,7 +7362,7 @@
         <v>3.25</v>
       </c>
       <c r="R58" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S58" t="n">
         <v>2.25</v>
@@ -7454,76 +7454,76 @@
         <v>2.4</v>
       </c>
       <c r="H59" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I59" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J59" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K59" t="n">
+        <v>15</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O59" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="T59" t="n">
         <v>11</v>
-      </c>
-      <c r="L59" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N59" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P59" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>3</v>
-      </c>
-      <c r="R59" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S59" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T59" t="n">
-        <v>9.5</v>
       </c>
       <c r="U59" t="n">
         <v>13</v>
       </c>
       <c r="V59" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W59" t="n">
         <v>23</v>
       </c>
       <c r="X59" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y59" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z59" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA59" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC59" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD59" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE59" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF59" t="n">
         <v>15</v>
@@ -7532,13 +7532,13 @@
         <v>10</v>
       </c>
       <c r="AH59" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI59" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ59" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60">
@@ -7573,19 +7573,19 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H60" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="J60" t="n">
         <v>1.07</v>
       </c>
       <c r="K60" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L60" t="n">
         <v>1.33</v>
@@ -7606,37 +7606,37 @@
         <v>2.63</v>
       </c>
       <c r="R60" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="S60" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="T60" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U60" t="n">
+        <v>13</v>
+      </c>
+      <c r="V60" t="n">
         <v>11</v>
       </c>
-      <c r="V60" t="n">
-        <v>10</v>
-      </c>
       <c r="W60" t="n">
+        <v>26</v>
+      </c>
+      <c r="X60" t="n">
         <v>23</v>
       </c>
-      <c r="X60" t="n">
-        <v>21</v>
-      </c>
       <c r="Y60" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z60" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA60" t="n">
         <v>6</v>
       </c>
       <c r="AB60" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC60" t="n">
         <v>51</v>
@@ -7645,19 +7645,19 @@
         <v>251</v>
       </c>
       <c r="AE60" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF60" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG60" t="n">
         <v>11</v>
       </c>
       <c r="AH60" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI60" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ60" t="n">
         <v>34</v>
@@ -7728,10 +7728,10 @@
         <v>3</v>
       </c>
       <c r="R61" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S61" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T61" t="n">
         <v>7</v>
@@ -7826,10 +7826,10 @@
         <v>2.3</v>
       </c>
       <c r="J62" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L62" t="n">
         <v>1.29</v>
@@ -7838,10 +7838,10 @@
         <v>3.5</v>
       </c>
       <c r="N62" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O62" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P62" t="n">
         <v>1.4</v>
@@ -7850,10 +7850,10 @@
         <v>2.75</v>
       </c>
       <c r="R62" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S62" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T62" t="n">
         <v>9.5</v>
@@ -7939,19 +7939,19 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I63" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="J63" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L63" t="n">
         <v>1.3</v>
@@ -7960,10 +7960,10 @@
         <v>3.4</v>
       </c>
       <c r="N63" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O63" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P63" t="n">
         <v>1.4</v>
@@ -7972,22 +7972,22 @@
         <v>2.75</v>
       </c>
       <c r="R63" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S63" t="n">
         <v>1.8</v>
       </c>
       <c r="T63" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U63" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="V63" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X63" t="n">
         <v>15</v>
@@ -7996,34 +7996,34 @@
         <v>29</v>
       </c>
       <c r="Z63" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA63" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB63" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC63" t="n">
         <v>51</v>
       </c>
       <c r="AD63" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE63" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF63" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH63" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI63" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ63" t="n">
         <v>41</v>
@@ -8061,19 +8061,19 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
       <c r="H64" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="I64" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="J64" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L64" t="n">
         <v>1.22</v>
@@ -8094,22 +8094,22 @@
         <v>3.4</v>
       </c>
       <c r="R64" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="S64" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="T64" t="n">
+        <v>15</v>
+      </c>
+      <c r="U64" t="n">
+        <v>29</v>
+      </c>
+      <c r="V64" t="n">
         <v>17</v>
       </c>
-      <c r="U64" t="n">
-        <v>34</v>
-      </c>
-      <c r="V64" t="n">
-        <v>19</v>
-      </c>
       <c r="W64" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="X64" t="n">
         <v>41</v>
@@ -8121,34 +8121,34 @@
         <v>13</v>
       </c>
       <c r="AA64" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB64" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC64" t="n">
         <v>51</v>
       </c>
       <c r="AD64" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE64" t="n">
         <v>7.5</v>
       </c>
       <c r="AF64" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG64" t="n">
         <v>8.5</v>
       </c>
       <c r="AH64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI64" t="n">
         <v>12</v>
       </c>
       <c r="AJ64" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
@@ -8183,13 +8183,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="H65" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="I65" t="n">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="J65" t="n">
         <v>1.03</v>
@@ -8204,10 +8204,10 @@
         <v>4.5</v>
       </c>
       <c r="N65" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O65" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P65" t="n">
         <v>1.29</v>
@@ -8216,25 +8216,25 @@
         <v>3.5</v>
       </c>
       <c r="R65" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="S65" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T65" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U65" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V65" t="n">
         <v>8.5</v>
       </c>
       <c r="W65" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y65" t="n">
         <v>21</v>
@@ -8243,31 +8243,31 @@
         <v>15</v>
       </c>
       <c r="AA65" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC65" t="n">
         <v>41</v>
       </c>
       <c r="AD65" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE65" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF65" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI65" t="n">
         <v>29</v>
-      </c>
-      <c r="AG65" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>41</v>
       </c>
       <c r="AJ65" t="n">
         <v>34</v>
@@ -9381,7 +9381,7 @@
         <v>4.75</v>
       </c>
       <c r="I75" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J75" t="n">
         <v>1.02</v>
@@ -9414,13 +9414,13 @@
         <v>2.38</v>
       </c>
       <c r="T75" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U75" t="n">
         <v>10</v>
       </c>
       <c r="V75" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W75" t="n">
         <v>12</v>
@@ -9432,13 +9432,13 @@
         <v>19</v>
       </c>
       <c r="Z75" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA75" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB75" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC75" t="n">
         <v>41</v>
@@ -9497,13 +9497,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H76" t="n">
         <v>3.5</v>
       </c>
       <c r="I76" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J76" t="n">
         <v>1.03</v>
@@ -9530,10 +9530,10 @@
         <v>3.5</v>
       </c>
       <c r="R76" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S76" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -9563,7 +9563,7 @@
         <v>12</v>
       </c>
       <c r="AC76" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD76" t="n">
         <v>126</v>
@@ -9578,7 +9578,7 @@
         <v>9</v>
       </c>
       <c r="AH76" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI76" t="n">
         <v>15</v>
@@ -9741,27 +9741,27 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H78" t="n">
         <v>3.7</v>
       </c>
       <c r="I78" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="M78" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="N78" t="n">
         <v>1.57</v>
       </c>
       <c r="O78" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
@@ -9769,13 +9769,13 @@
         <v>1.53</v>
       </c>
       <c r="S78" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T78" t="n">
         <v>13</v>
       </c>
       <c r="U78" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="V78" t="n">
         <v>11.5</v>
@@ -9784,7 +9784,7 @@
         <v>45</v>
       </c>
       <c r="X78" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y78" t="n">
         <v>28</v>
@@ -9805,16 +9805,16 @@
         <v>250</v>
       </c>
       <c r="AE78" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF78" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AG78" t="n">
         <v>8.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI78" t="n">
         <v>14</v>
@@ -9973,25 +9973,25 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H80" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I80" t="n">
         <v>5.25</v>
       </c>
       <c r="J80" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L80" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M80" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N80" t="n">
         <v>1.93</v>
@@ -10006,13 +10006,13 @@
         <v>3</v>
       </c>
       <c r="R80" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S80" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T80" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U80" t="n">
         <v>7.5</v>
@@ -10027,13 +10027,13 @@
         <v>13</v>
       </c>
       <c r="Y80" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z80" t="n">
         <v>10</v>
       </c>
       <c r="AA80" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB80" t="n">
         <v>17</v>
@@ -10042,16 +10042,16 @@
         <v>51</v>
       </c>
       <c r="AD80" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE80" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF80" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG80" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH80" t="n">
         <v>51</v>
@@ -10238,10 +10238,10 @@
         <v>2.5</v>
       </c>
       <c r="N82" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O82" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P82" t="n">
         <v>1.53</v>
@@ -10348,10 +10348,10 @@
         <v>2.35</v>
       </c>
       <c r="J83" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L83" t="n">
         <v>1.4</v>
@@ -10360,10 +10360,10 @@
         <v>2.75</v>
       </c>
       <c r="N83" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O83" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P83" t="n">
         <v>1.44</v>
@@ -10473,7 +10473,7 @@
         <v>1.06</v>
       </c>
       <c r="K84" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L84" t="n">
         <v>1.3</v>
@@ -10583,7 +10583,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H85" t="n">
         <v>3.75</v>
@@ -10609,7 +10609,7 @@
         <v>1.39</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R85" t="n">
         <v>1.85</v>
@@ -10618,55 +10618,55 @@
         <v>1.75</v>
       </c>
       <c r="T85" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="U85" t="n">
         <v>32</v>
       </c>
       <c r="V85" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W85" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="X85" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y85" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z85" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA85" t="n">
         <v>7.3</v>
       </c>
       <c r="AB85" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC85" t="n">
         <v>90</v>
       </c>
       <c r="AD85" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE85" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AF85" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AG85" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH85" t="n">
         <v>11.25</v>
       </c>
       <c r="AI85" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ85" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
@@ -10854,7 +10854,7 @@
         <v>1.9</v>
       </c>
       <c r="T87" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="U87" t="n">
         <v>12</v>
@@ -10887,10 +10887,10 @@
         <v>500</v>
       </c>
       <c r="AE87" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF87" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG87" t="n">
         <v>10.25</v>
@@ -10899,7 +10899,7 @@
         <v>32</v>
       </c>
       <c r="AI87" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ87" t="n">
         <v>35</v>
@@ -12267,13 +12267,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
         <v>3.9</v>
       </c>
       <c r="I99" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J99" t="n">
         <v>1.01</v>
@@ -12318,7 +12318,7 @@
         <v>21</v>
       </c>
       <c r="X99" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y99" t="n">
         <v>17</v>
@@ -12342,13 +12342,13 @@
         <v>19</v>
       </c>
       <c r="AF99" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH99" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI99" t="n">
         <v>21</v>
@@ -12398,10 +12398,10 @@
         <v>2.15</v>
       </c>
       <c r="J100" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K100" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L100" t="n">
         <v>1.2</v>
@@ -12410,10 +12410,10 @@
         <v>4.33</v>
       </c>
       <c r="N100" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O100" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P100" t="n">
         <v>1.3</v>
@@ -12654,10 +12654,10 @@
         <v>2.75</v>
       </c>
       <c r="N102" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O102" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P102" t="n">
         <v>1.5</v>
@@ -13003,34 +13003,38 @@
       <c r="I105" t="n">
         <v>2.8</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K105" t="n">
+        <v>6</v>
+      </c>
       <c r="L105" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="N105" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="O105" t="n">
         <v>1.48</v>
       </c>
-      <c r="M105" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="N105" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="O105" t="n">
-        <v>1.49</v>
-      </c>
       <c r="P105" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q105" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="R105" t="n">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="S105" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="T105" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="U105" t="n">
         <v>8.4</v>
@@ -13054,7 +13058,7 @@
         <v>4.8</v>
       </c>
       <c r="AB105" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC105" t="n">
         <v>101</v>
@@ -13075,7 +13079,7 @@
         <v>29</v>
       </c>
       <c r="AI105" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ105" t="n">
         <v>45</v>
@@ -13721,13 +13725,13 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H111" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I111" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J111" t="n">
         <v>1.05</v>
@@ -13748,10 +13752,10 @@
         <v>2</v>
       </c>
       <c r="P111" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q111" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R111" t="n">
         <v>1.73</v>
@@ -13760,7 +13764,7 @@
         <v>2</v>
       </c>
       <c r="T111" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U111" t="n">
         <v>9</v>
@@ -13781,13 +13785,13 @@
         <v>11</v>
       </c>
       <c r="AA111" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB111" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC111" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD111" t="n">
         <v>201</v>
@@ -13796,7 +13800,7 @@
         <v>13</v>
       </c>
       <c r="AF111" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG111" t="n">
         <v>15</v>
@@ -13843,19 +13847,19 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I112" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J112" t="n">
         <v>1.06</v>
       </c>
       <c r="K112" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L112" t="n">
         <v>1.3</v>
@@ -13876,13 +13880,13 @@
         <v>2.75</v>
       </c>
       <c r="R112" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S112" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T112" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U112" t="n">
         <v>15</v>
@@ -13900,28 +13904,28 @@
         <v>34</v>
       </c>
       <c r="Z112" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA112" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB112" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC112" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD112" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE112" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF112" t="n">
         <v>12</v>
       </c>
       <c r="AG112" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH112" t="n">
         <v>23</v>
@@ -14263,19 +14267,19 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H116" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K116" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L116" t="n">
         <v>1.22</v>
@@ -14296,13 +14300,13 @@
         <v>3.4</v>
       </c>
       <c r="R116" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S116" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T116" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U116" t="n">
         <v>11</v>
@@ -14311,7 +14315,7 @@
         <v>9</v>
       </c>
       <c r="W116" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X116" t="n">
         <v>15</v>
@@ -14320,13 +14324,13 @@
         <v>23</v>
       </c>
       <c r="Z116" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA116" t="n">
         <v>7.5</v>
       </c>
       <c r="AB116" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC116" t="n">
         <v>41</v>
@@ -14338,7 +14342,7 @@
         <v>12</v>
       </c>
       <c r="AF116" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG116" t="n">
         <v>12</v>
@@ -14751,31 +14755,31 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I120" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J120" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K120" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L120" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M120" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N120" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="O120" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="P120" t="n">
         <v>1.25</v>
@@ -14784,28 +14788,28 @@
         <v>3.75</v>
       </c>
       <c r="R120" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S120" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T120" t="n">
         <v>8.5</v>
       </c>
       <c r="U120" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="V120" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W120" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X120" t="n">
         <v>11</v>
       </c>
       <c r="Y120" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z120" t="n">
         <v>17</v>
@@ -14820,25 +14824,25 @@
         <v>67</v>
       </c>
       <c r="AD120" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AE120" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF120" t="n">
         <v>51</v>
       </c>
       <c r="AG120" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH120" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI120" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ120" t="n">
         <v>67</v>
-      </c>
-      <c r="AJ120" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="121">
@@ -15004,22 +15008,22 @@
         <v>2.4</v>
       </c>
       <c r="J122" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K122" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L122" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M122" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N122" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="O122" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P122" t="n">
         <v>1.57</v>
@@ -15504,10 +15508,10 @@
         <v>10</v>
       </c>
       <c r="N126" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="O126" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P126" t="n">
         <v>1.14</v>
@@ -15528,7 +15532,7 @@
         <v>13</v>
       </c>
       <c r="V126" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W126" t="n">
         <v>15</v>
@@ -15742,16 +15746,16 @@
         <v>11</v>
       </c>
       <c r="L128" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M128" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N128" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O128" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P128" t="n">
         <v>1.36</v>
@@ -15870,10 +15874,10 @@
         <v>3.25</v>
       </c>
       <c r="N129" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O129" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P129" t="n">
         <v>1.4</v>
@@ -15980,22 +15984,22 @@
         <v>3.8</v>
       </c>
       <c r="J130" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K130" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L130" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M130" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N130" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O130" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P130" t="n">
         <v>1.4</v>
@@ -16215,19 +16219,19 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="H132" t="n">
         <v>3.1</v>
       </c>
       <c r="I132" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J132" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K132" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="L132" t="n">
         <v>1.33</v>
@@ -16254,28 +16258,28 @@
         <v>1.83</v>
       </c>
       <c r="T132" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U132" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V132" t="n">
         <v>9.5</v>
       </c>
       <c r="W132" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X132" t="n">
         <v>19</v>
       </c>
       <c r="Y132" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z132" t="n">
         <v>8.5</v>
       </c>
       <c r="AA132" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB132" t="n">
         <v>15</v>
@@ -16287,19 +16291,19 @@
         <v>500</v>
       </c>
       <c r="AE132" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF132" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG132" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH132" t="n">
         <v>34</v>
       </c>
       <c r="AI132" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ132" t="n">
         <v>41</v>
@@ -16724,10 +16728,10 @@
         <v>3.75</v>
       </c>
       <c r="N136" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O136" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P136" t="n">
         <v>1.36</v>
@@ -17312,7 +17316,7 @@
         <v>2.8</v>
       </c>
       <c r="H141" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="I141" t="n">
         <v>2.62</v>
@@ -17348,28 +17352,28 @@
         <v>1.65</v>
       </c>
       <c r="T141" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="U141" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V141" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="W141" t="n">
         <v>35</v>
       </c>
       <c r="X141" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y141" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Z141" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AA141" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB141" t="n">
         <v>17</v>
@@ -17381,19 +17385,19 @@
         <v>101</v>
       </c>
       <c r="AE141" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AF141" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AG141" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH141" t="n">
         <v>30</v>
       </c>
       <c r="AI141" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ141" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-02.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.03</v>
@@ -811,7 +811,7 @@
         <v>8.5</v>
       </c>
       <c r="U3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V3" t="n">
         <v>8.5</v>
@@ -850,10 +850,10 @@
         <v>21</v>
       </c>
       <c r="AH3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="n">
         <v>41</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
@@ -966,7 +966,7 @@
         <v>11</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
         <v>11</v>
@@ -1040,7 +1040,7 @@
         <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q5" t="n">
         <v>2.5</v>
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
@@ -1162,7 +1162,7 @@
         <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Q6" t="n">
         <v>2.25</v>
@@ -1198,14 +1198,14 @@
         <v>6</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
         <v>81</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF6" t="n">
         <v>15</v>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
@@ -1282,10 +1282,10 @@
         <v>1.53</v>
       </c>
       <c r="P7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="R7" t="n">
         <v>2.1</v>
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
@@ -1386,10 +1386,10 @@
         <v>3.25</v>
       </c>
       <c r="J8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
         <v>1.5</v>
@@ -1404,10 +1404,10 @@
         <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="R8" t="n">
         <v>2.1</v>
@@ -1499,10 +1499,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I9" t="n">
         <v>3.2</v>
@@ -1526,10 +1526,10 @@
         <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="R9" t="n">
         <v>2.05</v>
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
@@ -1633,7 +1633,7 @@
         <v>1.07</v>
       </c>
       <c r="K10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L10" t="n">
         <v>1.36</v>
@@ -1648,10 +1648,10 @@
         <v>1.65</v>
       </c>
       <c r="P10" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R10" t="n">
         <v>1.95</v>
@@ -1770,10 +1770,10 @@
         <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="R11" t="n">
         <v>2.1</v>
@@ -1880,10 +1880,10 @@
         <v>6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="M12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N12" t="n">
         <v>2.88</v>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="H13" t="n">
         <v>3.7</v>
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
@@ -2719,31 +2719,31 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="H19" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="J19" t="n">
         <v>1.08</v>
       </c>
       <c r="K19" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M19" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="N19" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P19" t="n">
         <v>1.47</v>
@@ -2752,22 +2752,22 @@
         <v>2.5</v>
       </c>
       <c r="R19" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S19" t="n">
         <v>1.9</v>
       </c>
       <c r="T19" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="U19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V19" t="n">
         <v>10.25</v>
       </c>
       <c r="W19" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X19" t="n">
         <v>25</v>
@@ -2776,7 +2776,7 @@
         <v>35</v>
       </c>
       <c r="Z19" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AA19" t="n">
         <v>6</v>
@@ -2791,19 +2791,19 @@
         <v>600</v>
       </c>
       <c r="AE19" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AF19" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AG19" t="n">
         <v>9.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ19" t="n">
         <v>32</v>
@@ -2963,13 +2963,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H21" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -2977,7 +2977,7 @@
         <v>1.34</v>
       </c>
       <c r="M21" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="N21" t="n">
         <v>1.98</v>
@@ -3001,13 +3001,13 @@
         <v>5.6</v>
       </c>
       <c r="U21" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="V21" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W21" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="X21" t="n">
         <v>14</v>
@@ -3022,31 +3022,31 @@
         <v>7.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD21" t="n">
         <v>101</v>
       </c>
       <c r="AE21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF21" t="n">
         <v>32</v>
       </c>
       <c r="AG21" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>70</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -3226,7 +3226,7 @@
         <v>5.5</v>
       </c>
       <c r="N24" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="O24" t="n">
         <v>2.5</v>
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="H25" t="n">
         <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J25" t="n">
         <v>1.04</v>
@@ -3348,10 +3348,10 @@
         <v>4</v>
       </c>
       <c r="N25" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="O25" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="P25" t="n">
         <v>1.33</v>
@@ -3360,22 +3360,22 @@
         <v>3.25</v>
       </c>
       <c r="R25" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S25" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X25" t="n">
         <v>15</v>
@@ -3384,7 +3384,7 @@
         <v>23</v>
       </c>
       <c r="Z25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA25" t="n">
         <v>7</v>
@@ -3402,7 +3402,7 @@
         <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -3411,10 +3411,10 @@
         <v>41</v>
       </c>
       <c r="AI25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -3594,7 +3594,7 @@
         <v>1.57</v>
       </c>
       <c r="P27" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q27" t="n">
         <v>2.5</v>
@@ -3689,13 +3689,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H28" t="n">
         <v>3.3</v>
       </c>
       <c r="I28" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J28" t="n">
         <v>1.06</v>
@@ -3716,7 +3716,7 @@
         <v>1.85</v>
       </c>
       <c r="P28" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q28" t="n">
         <v>2.75</v>
@@ -3734,16 +3734,16 @@
         <v>11</v>
       </c>
       <c r="V28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W28" t="n">
         <v>21</v>
       </c>
       <c r="X28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z28" t="n">
         <v>10</v>
@@ -4546,22 +4546,22 @@
         <v>1.73</v>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I35" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J35" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L35" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M35" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N35" t="n">
         <v>1.53</v>
@@ -4594,7 +4594,7 @@
         <v>15</v>
       </c>
       <c r="X35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
         <v>19</v>
@@ -4603,7 +4603,7 @@
         <v>19</v>
       </c>
       <c r="AA35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB35" t="n">
         <v>13</v>
@@ -4615,7 +4615,7 @@
         <v>126</v>
       </c>
       <c r="AE35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
         <v>23</v>
@@ -4686,10 +4686,10 @@
         <v>4</v>
       </c>
       <c r="N36" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O36" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P36" t="n">
         <v>1.33</v>
@@ -4787,7 +4787,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H37" t="n">
         <v>3</v>
@@ -5031,7 +5031,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="H39" t="n">
         <v>3.3</v>
@@ -5153,13 +5153,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="H40" t="n">
         <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J40" t="n">
         <v>1.08</v>
@@ -5195,10 +5195,10 @@
         <v>5.5</v>
       </c>
       <c r="U40" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W40" t="n">
         <v>15</v>
@@ -5216,7 +5216,7 @@
         <v>7</v>
       </c>
       <c r="AB40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC40" t="n">
         <v>81</v>
@@ -5225,10 +5225,10 @@
         <v>101</v>
       </c>
       <c r="AE40" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG40" t="n">
         <v>15</v>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="H41" t="n">
         <v>3.6</v>
@@ -5769,7 +5769,7 @@
         <v>3.5</v>
       </c>
       <c r="I45" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J45" t="n">
         <v>1.05</v>
@@ -5885,13 +5885,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H46" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I46" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="J46" t="n">
         <v>1.04</v>
@@ -5933,10 +5933,10 @@
         <v>10</v>
       </c>
       <c r="W46" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X46" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y46" t="n">
         <v>26</v>
@@ -5969,7 +5969,7 @@
         <v>23</v>
       </c>
       <c r="AI46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ46" t="n">
         <v>23</v>
@@ -6007,7 +6007,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="H47" t="n">
         <v>4</v>
@@ -6129,19 +6129,19 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H48" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="I48" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J48" t="n">
         <v>1.17</v>
       </c>
       <c r="K48" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="L48" t="n">
         <v>1.7</v>
@@ -6162,34 +6162,34 @@
         <v>2.05</v>
       </c>
       <c r="R48" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="S48" t="n">
         <v>1.5</v>
       </c>
       <c r="T48" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="U48" t="n">
         <v>8.5</v>
       </c>
       <c r="V48" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="W48" t="n">
         <v>22</v>
       </c>
       <c r="X48" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y48" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Z48" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AA48" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB48" t="n">
         <v>23</v>
@@ -6201,22 +6201,22 @@
         <v>101</v>
       </c>
       <c r="AE48" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AF48" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG48" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI48" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ48" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49">
@@ -6487,13 +6487,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H51" t="n">
         <v>3.5</v>
       </c>
       <c r="I51" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J51" t="n">
         <v>1.04</v>
@@ -6526,16 +6526,16 @@
         <v>2.05</v>
       </c>
       <c r="T51" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U51" t="n">
         <v>10</v>
       </c>
       <c r="V51" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W51" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X51" t="n">
         <v>15</v>
@@ -6559,7 +6559,7 @@
         <v>201</v>
       </c>
       <c r="AE51" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF51" t="n">
         <v>19</v>
@@ -6571,7 +6571,7 @@
         <v>41</v>
       </c>
       <c r="AI51" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ51" t="n">
         <v>34</v>
@@ -6621,7 +6621,7 @@
         <v>1.03</v>
       </c>
       <c r="K52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L52" t="n">
         <v>1.18</v>
@@ -6740,10 +6740,10 @@
         <v>1.95</v>
       </c>
       <c r="J53" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L53" t="n">
         <v>1.14</v>
@@ -6752,10 +6752,10 @@
         <v>5.5</v>
       </c>
       <c r="N53" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O53" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P53" t="n">
         <v>1.25</v>
@@ -6868,16 +6868,16 @@
         <v>11</v>
       </c>
       <c r="L54" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M54" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N54" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="O54" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="P54" t="n">
         <v>1.36</v>
@@ -7213,7 +7213,7 @@
         <v>3.9</v>
       </c>
       <c r="I57" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="J57" t="n">
         <v>1.05</v>
@@ -7243,7 +7243,7 @@
         <v>2.1</v>
       </c>
       <c r="S57" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="T57" t="n">
         <v>13</v>
@@ -7329,19 +7329,19 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H58" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I58" t="n">
         <v>2.5</v>
       </c>
       <c r="J58" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K58" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L58" t="n">
         <v>1.2</v>
@@ -7350,25 +7350,25 @@
         <v>4.33</v>
       </c>
       <c r="N58" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O58" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P58" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q58" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R58" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="S58" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U58" t="n">
         <v>15</v>
@@ -7380,31 +7380,31 @@
         <v>26</v>
       </c>
       <c r="X58" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y58" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z58" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA58" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB58" t="n">
         <v>12</v>
       </c>
       <c r="AC58" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD58" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF58" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG58" t="n">
         <v>10</v>
@@ -7457,7 +7457,7 @@
         <v>3.6</v>
       </c>
       <c r="I59" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J59" t="n">
         <v>1.03</v>
@@ -7484,19 +7484,19 @@
         <v>3.5</v>
       </c>
       <c r="R59" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S59" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T59" t="n">
         <v>11</v>
       </c>
       <c r="U59" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V59" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W59" t="n">
         <v>23</v>
@@ -7573,19 +7573,19 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H60" t="n">
         <v>3.1</v>
       </c>
       <c r="I60" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J60" t="n">
         <v>1.07</v>
       </c>
       <c r="K60" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L60" t="n">
         <v>1.33</v>
@@ -7594,10 +7594,10 @@
         <v>3.25</v>
       </c>
       <c r="N60" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O60" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P60" t="n">
         <v>1.44</v>
@@ -7606,10 +7606,10 @@
         <v>2.63</v>
       </c>
       <c r="R60" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="S60" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="T60" t="n">
         <v>8.5</v>
@@ -7621,7 +7621,7 @@
         <v>11</v>
       </c>
       <c r="W60" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X60" t="n">
         <v>23</v>
@@ -7636,7 +7636,7 @@
         <v>6</v>
       </c>
       <c r="AB60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC60" t="n">
         <v>51</v>
@@ -7645,19 +7645,19 @@
         <v>251</v>
       </c>
       <c r="AE60" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF60" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH60" t="n">
         <v>26</v>
       </c>
       <c r="AI60" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ60" t="n">
         <v>34</v>
@@ -7695,13 +7695,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H61" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I61" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J61" t="n">
         <v>1.05</v>
@@ -7728,16 +7728,16 @@
         <v>3</v>
       </c>
       <c r="R61" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S61" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T61" t="n">
         <v>7</v>
       </c>
       <c r="U61" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V61" t="n">
         <v>8.5</v>
@@ -7752,7 +7752,7 @@
         <v>26</v>
       </c>
       <c r="Z61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA61" t="n">
         <v>7</v>
@@ -7764,16 +7764,16 @@
         <v>51</v>
       </c>
       <c r="AD61" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE61" t="n">
         <v>13</v>
       </c>
       <c r="AF61" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH61" t="n">
         <v>51</v>
@@ -7850,10 +7850,10 @@
         <v>2.75</v>
       </c>
       <c r="R62" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S62" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T62" t="n">
         <v>9.5</v>
@@ -7939,13 +7939,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
         <v>3.5</v>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J63" t="n">
         <v>1.06</v>
@@ -7954,16 +7954,16 @@
         <v>10</v>
       </c>
       <c r="L63" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M63" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N63" t="n">
         <v>2.05</v>
       </c>
       <c r="O63" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P63" t="n">
         <v>1.4</v>
@@ -7972,25 +7972,25 @@
         <v>2.75</v>
       </c>
       <c r="R63" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S63" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T63" t="n">
         <v>7</v>
       </c>
       <c r="U63" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V63" t="n">
         <v>9</v>
       </c>
       <c r="W63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y63" t="n">
         <v>29</v>
@@ -8011,10 +8011,10 @@
         <v>301</v>
       </c>
       <c r="AE63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF63" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG63" t="n">
         <v>13</v>
@@ -8023,7 +8023,7 @@
         <v>41</v>
       </c>
       <c r="AI63" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ63" t="n">
         <v>41</v>
@@ -8061,13 +8061,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="H64" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="I64" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="J64" t="n">
         <v>1.04</v>
@@ -8076,37 +8076,37 @@
         <v>13</v>
       </c>
       <c r="L64" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M64" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N64" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="O64" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="P64" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="Q64" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="R64" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="S64" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="T64" t="n">
+        <v>13</v>
+      </c>
+      <c r="U64" t="n">
+        <v>23</v>
+      </c>
+      <c r="V64" t="n">
         <v>15</v>
-      </c>
-      <c r="U64" t="n">
-        <v>29</v>
-      </c>
-      <c r="V64" t="n">
-        <v>17</v>
       </c>
       <c r="W64" t="n">
         <v>51</v>
@@ -8118,10 +8118,10 @@
         <v>41</v>
       </c>
       <c r="Z64" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA64" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB64" t="n">
         <v>17</v>
@@ -8130,25 +8130,25 @@
         <v>51</v>
       </c>
       <c r="AD64" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE64" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF64" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG64" t="n">
         <v>8.5</v>
       </c>
       <c r="AH64" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ64" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
@@ -8183,13 +8183,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="H65" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I65" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="J65" t="n">
         <v>1.03</v>
@@ -8216,7 +8216,7 @@
         <v>3.5</v>
       </c>
       <c r="R65" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S65" t="n">
         <v>2.25</v>
@@ -8225,16 +8225,16 @@
         <v>9.5</v>
       </c>
       <c r="U65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V65" t="n">
         <v>8.5</v>
       </c>
       <c r="W65" t="n">
+        <v>17</v>
+      </c>
+      <c r="X65" t="n">
         <v>15</v>
-      </c>
-      <c r="X65" t="n">
-        <v>13</v>
       </c>
       <c r="Y65" t="n">
         <v>21</v>
@@ -8243,10 +8243,10 @@
         <v>15</v>
       </c>
       <c r="AA65" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC65" t="n">
         <v>41</v>
@@ -8258,19 +8258,19 @@
         <v>15</v>
       </c>
       <c r="AF65" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH65" t="n">
         <v>41</v>
       </c>
       <c r="AI65" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ65" t="n">
         <v>29</v>
-      </c>
-      <c r="AJ65" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="66">
@@ -9150,7 +9150,7 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M73" t="n">
         <v>2.55</v>
@@ -9168,10 +9168,10 @@
         <v>2.15</v>
       </c>
       <c r="R73" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S73" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T73" t="n">
         <v>7.4</v>
@@ -9192,7 +9192,7 @@
         <v>32</v>
       </c>
       <c r="Z73" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AA73" t="n">
         <v>5.1</v>
@@ -9375,13 +9375,13 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H75" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I75" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J75" t="n">
         <v>1.02</v>
@@ -9390,16 +9390,16 @@
         <v>21</v>
       </c>
       <c r="L75" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M75" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N75" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="O75" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="P75" t="n">
         <v>1.22</v>
@@ -9408,13 +9408,13 @@
         <v>4</v>
       </c>
       <c r="R75" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S75" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T75" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U75" t="n">
         <v>10</v>
@@ -9423,7 +9423,7 @@
         <v>8.5</v>
       </c>
       <c r="W75" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X75" t="n">
         <v>11</v>
@@ -9441,7 +9441,7 @@
         <v>13</v>
       </c>
       <c r="AC75" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD75" t="n">
         <v>101</v>
@@ -9497,13 +9497,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H76" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I76" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J76" t="n">
         <v>1.03</v>
@@ -9530,10 +9530,10 @@
         <v>3.5</v>
       </c>
       <c r="R76" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S76" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -9563,7 +9563,7 @@
         <v>12</v>
       </c>
       <c r="AC76" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD76" t="n">
         <v>126</v>
@@ -9628,10 +9628,10 @@
         <v>3.3</v>
       </c>
       <c r="J77" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K77" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L77" t="n">
         <v>1.25</v>
@@ -9640,10 +9640,10 @@
         <v>3.75</v>
       </c>
       <c r="N77" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O77" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P77" t="n">
         <v>1.33</v>
@@ -9741,13 +9741,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H78" t="n">
         <v>3.7</v>
       </c>
       <c r="I78" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -9761,7 +9761,7 @@
         <v>1.57</v>
       </c>
       <c r="O78" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
@@ -9769,16 +9769,16 @@
         <v>1.53</v>
       </c>
       <c r="S78" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T78" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="U78" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V78" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="W78" t="n">
         <v>45</v>
@@ -9861,21 +9861,21 @@
         <v>3.15</v>
       </c>
       <c r="I79" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M79" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="N79" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="O79" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P79" t="n">
         <v>1.4</v>
@@ -9890,25 +9890,25 @@
         <v>1.93</v>
       </c>
       <c r="T79" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="U79" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V79" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W79" t="n">
+        <v>32</v>
+      </c>
+      <c r="X79" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y79" t="n">
         <v>30</v>
       </c>
-      <c r="X79" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>32</v>
-      </c>
       <c r="Z79" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA79" t="n">
         <v>6.1</v>
@@ -9923,22 +9923,22 @@
         <v>500</v>
       </c>
       <c r="AE79" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF79" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG79" t="n">
         <v>9.5</v>
       </c>
       <c r="AH79" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI79" t="n">
         <v>21</v>
       </c>
       <c r="AJ79" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80">
@@ -10095,13 +10095,13 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H81" t="n">
         <v>3.8</v>
       </c>
       <c r="I81" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J81" t="n">
         <v>1.07</v>
@@ -10134,19 +10134,19 @@
         <v>1.7</v>
       </c>
       <c r="T81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U81" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V81" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W81" t="n">
         <v>67</v>
       </c>
       <c r="X81" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y81" t="n">
         <v>51</v>
@@ -10176,13 +10176,13 @@
         <v>8.5</v>
       </c>
       <c r="AH81" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI81" t="n">
         <v>15</v>
       </c>
       <c r="AJ81" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
@@ -10241,7 +10241,7 @@
         <v>2.5</v>
       </c>
       <c r="O82" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P82" t="n">
         <v>1.53</v>
@@ -10363,7 +10363,7 @@
         <v>2.3</v>
       </c>
       <c r="O83" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P83" t="n">
         <v>1.44</v>
@@ -10461,19 +10461,19 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H84" t="n">
         <v>3.6</v>
       </c>
       <c r="I84" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J84" t="n">
         <v>1.06</v>
       </c>
       <c r="K84" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L84" t="n">
         <v>1.3</v>
@@ -10509,7 +10509,7 @@
         <v>8.5</v>
       </c>
       <c r="W84" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X84" t="n">
         <v>15</v>
@@ -10530,13 +10530,13 @@
         <v>51</v>
       </c>
       <c r="AD84" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE84" t="n">
         <v>11</v>
       </c>
       <c r="AF84" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG84" t="n">
         <v>15</v>
@@ -10612,7 +10612,7 @@
         <v>2.57</v>
       </c>
       <c r="R85" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S85" t="n">
         <v>1.75</v>
@@ -10642,7 +10642,7 @@
         <v>7.3</v>
       </c>
       <c r="AB85" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC85" t="n">
         <v>90</v>
@@ -10940,10 +10940,10 @@
         <v>1.88</v>
       </c>
       <c r="H88" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I88" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -10960,16 +10960,16 @@
         <v>1.62</v>
       </c>
       <c r="P88" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R88" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="S88" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T88" t="n">
         <v>6.2</v>
@@ -10978,7 +10978,7 @@
         <v>8.25</v>
       </c>
       <c r="V88" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W88" t="n">
         <v>15.5</v>
@@ -10990,31 +10990,31 @@
         <v>32</v>
       </c>
       <c r="Z88" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA88" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AB88" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC88" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD88" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE88" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF88" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG88" t="n">
         <v>13.5</v>
       </c>
       <c r="AH88" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI88" t="n">
         <v>40</v>
@@ -11055,24 +11055,24 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H89" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I89" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M89" t="n">
         <v>3.25</v>
       </c>
       <c r="N89" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="O89" t="n">
         <v>1.7</v>
@@ -11090,10 +11090,10 @@
         <v>1.92</v>
       </c>
       <c r="T89" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="U89" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="V89" t="n">
         <v>10.5</v>
@@ -11102,43 +11102,43 @@
         <v>40</v>
       </c>
       <c r="X89" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y89" t="n">
         <v>32</v>
       </c>
       <c r="Z89" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA89" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AB89" t="n">
         <v>12</v>
       </c>
       <c r="AC89" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD89" t="n">
         <v>350</v>
       </c>
       <c r="AE89" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AF89" t="n">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="AG89" t="n">
         <v>7.1</v>
       </c>
       <c r="AH89" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI89" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ89" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90">
@@ -11535,13 +11535,13 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H93" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I93" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
         <v>1.02</v>
@@ -11580,10 +11580,10 @@
         <v>13</v>
       </c>
       <c r="V93" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W93" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X93" t="n">
         <v>15</v>
@@ -11595,7 +11595,7 @@
         <v>19</v>
       </c>
       <c r="AA93" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB93" t="n">
         <v>11</v>
@@ -11604,22 +11604,22 @@
         <v>29</v>
       </c>
       <c r="AD93" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE93" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF93" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG93" t="n">
         <v>12</v>
       </c>
       <c r="AH93" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI93" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ93" t="n">
         <v>23</v>
@@ -11663,7 +11663,7 @@
         <v>3.7</v>
       </c>
       <c r="I94" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J94" t="n">
         <v>1.03</v>
@@ -11726,10 +11726,10 @@
         <v>29</v>
       </c>
       <c r="AD94" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE94" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF94" t="n">
         <v>17</v>
@@ -11738,7 +11738,7 @@
         <v>10</v>
       </c>
       <c r="AH94" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI94" t="n">
         <v>19</v>
@@ -12398,22 +12398,22 @@
         <v>2.15</v>
       </c>
       <c r="J100" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K100" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L100" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M100" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N100" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O100" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="P100" t="n">
         <v>1.3</v>
@@ -13138,10 +13138,10 @@
         <v>3.75</v>
       </c>
       <c r="N106" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="O106" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="P106" t="n">
         <v>1.36</v>
@@ -13370,10 +13370,10 @@
         <v>3.2</v>
       </c>
       <c r="J108" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K108" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L108" t="n">
         <v>1.29</v>
@@ -13382,10 +13382,10 @@
         <v>3.5</v>
       </c>
       <c r="N108" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="O108" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="P108" t="n">
         <v>1.36</v>
@@ -13605,31 +13605,31 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H110" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I110" t="n">
         <v>9.5</v>
       </c>
       <c r="J110" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K110" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L110" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M110" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N110" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O110" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="P110" t="n">
         <v>1.36</v>
@@ -13662,10 +13662,10 @@
         <v>41</v>
       </c>
       <c r="Z110" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA110" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB110" t="n">
         <v>29</v>
@@ -13847,13 +13847,13 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H112" t="n">
         <v>3.2</v>
       </c>
       <c r="I112" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J112" t="n">
         <v>1.06</v>
@@ -13880,16 +13880,16 @@
         <v>2.75</v>
       </c>
       <c r="R112" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S112" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T112" t="n">
         <v>9</v>
       </c>
       <c r="U112" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V112" t="n">
         <v>11</v>
@@ -13916,16 +13916,16 @@
         <v>51</v>
       </c>
       <c r="AD112" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE112" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF112" t="n">
         <v>12</v>
       </c>
       <c r="AG112" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH112" t="n">
         <v>23</v>
@@ -14091,83 +14091,87 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="H114" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I114" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="M114" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="N114" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="O114" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
+        <v>1.8</v>
+      </c>
+      <c r="P114" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>2.55</v>
+      </c>
       <c r="R114" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="S114" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="T114" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="U114" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V114" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="W114" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="X114" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG114" t="n">
         <v>13</v>
       </c>
-      <c r="X114" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y114" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z114" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA114" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AB114" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC114" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD114" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE114" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF114" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG114" t="n">
-        <v>15</v>
-      </c>
       <c r="AH114" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AI114" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ114" t="n">
         <v>40</v>
@@ -14276,10 +14280,10 @@
         <v>3.1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K116" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L116" t="n">
         <v>1.22</v>
@@ -14410,10 +14414,10 @@
         <v>3</v>
       </c>
       <c r="N117" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O117" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P117" t="n">
         <v>1.5</v>
@@ -14526,16 +14530,16 @@
         <v>10.5</v>
       </c>
       <c r="L118" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M118" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N118" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O118" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="P118" t="n">
         <v>1.25</v>
@@ -14648,16 +14652,16 @@
         <v>9</v>
       </c>
       <c r="L119" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M119" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N119" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O119" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P119" t="n">
         <v>1.33</v>
@@ -14755,10 +14759,10 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H120" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I120" t="n">
         <v>11</v>
@@ -14770,10 +14774,10 @@
         <v>11</v>
       </c>
       <c r="L120" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M120" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N120" t="n">
         <v>1.44</v>
@@ -14782,10 +14786,10 @@
         <v>2.63</v>
       </c>
       <c r="P120" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q120" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R120" t="n">
         <v>2.1</v>
@@ -14794,7 +14798,7 @@
         <v>1.67</v>
       </c>
       <c r="T120" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U120" t="n">
         <v>6.5</v>
@@ -14815,10 +14819,10 @@
         <v>17</v>
       </c>
       <c r="AA120" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB120" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC120" t="n">
         <v>67</v>
@@ -14839,7 +14843,7 @@
         <v>151</v>
       </c>
       <c r="AI120" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ120" t="n">
         <v>67</v>
@@ -14999,19 +15003,19 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H122" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I122" t="n">
         <v>2.4</v>
       </c>
       <c r="J122" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K122" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L122" t="n">
         <v>1.5</v>
@@ -15026,22 +15030,22 @@
         <v>1.5</v>
       </c>
       <c r="P122" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q122" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R122" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S122" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T122" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V122" t="n">
         <v>12</v>
@@ -15056,7 +15060,7 @@
         <v>41</v>
       </c>
       <c r="Z122" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA122" t="n">
         <v>6.5</v>
@@ -15071,7 +15075,7 @@
         <v>800</v>
       </c>
       <c r="AE122" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF122" t="n">
         <v>10</v>
@@ -15083,7 +15087,7 @@
         <v>23</v>
       </c>
       <c r="AI122" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ122" t="n">
         <v>41</v>
@@ -15874,10 +15878,10 @@
         <v>3.25</v>
       </c>
       <c r="N129" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O129" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P129" t="n">
         <v>1.4</v>
@@ -16728,10 +16732,10 @@
         <v>3.75</v>
       </c>
       <c r="N136" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O136" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P136" t="n">
         <v>1.36</v>
@@ -16829,19 +16833,19 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="H137" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I137" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="J137" t="n">
         <v>1.11</v>
       </c>
       <c r="K137" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="L137" t="n">
         <v>1.47</v>
@@ -16856,43 +16860,43 @@
         <v>1.45</v>
       </c>
       <c r="P137" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="R137" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S137" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="T137" t="n">
         <v>9.25</v>
       </c>
       <c r="U137" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V137" t="n">
         <v>15.5</v>
       </c>
       <c r="W137" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="X137" t="n">
         <v>55</v>
       </c>
       <c r="Y137" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Z137" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AA137" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB137" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC137" t="n">
         <v>150</v>
@@ -16904,7 +16908,7 @@
         <v>5.1</v>
       </c>
       <c r="AF137" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AG137" t="n">
         <v>9</v>
@@ -16913,7 +16917,7 @@
         <v>15</v>
       </c>
       <c r="AI137" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ137" t="n">
         <v>45</v>
@@ -17069,52 +17073,52 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H139" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I139" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J139" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K139" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L139" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M139" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N139" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O139" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P139" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q139" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R139" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S139" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T139" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U139" t="n">
         <v>10</v>
       </c>
       <c r="V139" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W139" t="n">
         <v>21</v>
@@ -17126,7 +17130,7 @@
         <v>34</v>
       </c>
       <c r="Z139" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA139" t="n">
         <v>6</v>
@@ -17135,19 +17139,19 @@
         <v>17</v>
       </c>
       <c r="AC139" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD139" t="n">
         <v>351</v>
       </c>
       <c r="AE139" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF139" t="n">
         <v>15</v>
       </c>
       <c r="AG139" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH139" t="n">
         <v>34</v>
@@ -17316,7 +17320,7 @@
         <v>2.8</v>
       </c>
       <c r="H141" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="I141" t="n">
         <v>2.62</v>
@@ -17334,7 +17338,7 @@
         <v>2.32</v>
       </c>
       <c r="N141" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="O141" t="n">
         <v>1.45</v>
@@ -17373,7 +17377,7 @@
         <v>6.3</v>
       </c>
       <c r="AA141" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB141" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-02.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-02.xlsx
@@ -662,16 +662,16 @@
         <v>17</v>
       </c>
       <c r="L2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="P2" t="n">
         <v>1.25</v>
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
         <v>1.03</v>
@@ -811,7 +811,7 @@
         <v>8.5</v>
       </c>
       <c r="U3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V3" t="n">
         <v>8.5</v>
@@ -850,7 +850,7 @@
         <v>21</v>
       </c>
       <c r="AH3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="n">
         <v>41</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
         <v>1.13</v>
@@ -1214,7 +1214,7 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI6" t="n">
         <v>34</v>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
@@ -1377,19 +1377,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
         <v>3.25</v>
       </c>
       <c r="J8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.5</v>
@@ -1398,16 +1398,16 @@
         <v>2.5</v>
       </c>
       <c r="N8" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="P8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R8" t="n">
         <v>2.1</v>
@@ -1461,7 +1461,7 @@
         <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="n">
         <v>41</v>
@@ -1499,10 +1499,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
         <v>3.2</v>
@@ -1621,19 +1621,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
         <v>1.07</v>
       </c>
       <c r="K10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.36</v>
@@ -1642,10 +1642,10 @@
         <v>3</v>
       </c>
       <c r="N10" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P10" t="n">
         <v>1.44</v>
@@ -1660,7 +1660,7 @@
         <v>1.8</v>
       </c>
       <c r="T10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U10" t="n">
         <v>9.5</v>
@@ -1675,7 +1675,7 @@
         <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z10" t="n">
         <v>8.5</v>
@@ -1690,19 +1690,19 @@
         <v>51</v>
       </c>
       <c r="AD10" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE10" t="n">
         <v>9</v>
       </c>
       <c r="AF10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI10" t="n">
         <v>29</v>
@@ -1743,19 +1743,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
         <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
         <v>1.5</v>
@@ -1791,7 +1791,7 @@
         <v>10</v>
       </c>
       <c r="W11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X11" t="n">
         <v>23</v>
@@ -1815,7 +1815,7 @@
         <v>501</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF11" t="n">
         <v>13</v>
@@ -1987,19 +1987,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="H13" t="n">
         <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>1.2</v>
@@ -2270,7 +2270,7 @@
         <v>2.12</v>
       </c>
       <c r="T15" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U15" t="n">
         <v>11.75</v>
@@ -2303,10 +2303,10 @@
         <v>350</v>
       </c>
       <c r="AE15" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
         <v>10.25</v>
@@ -2318,7 +2318,7 @@
         <v>22</v>
       </c>
       <c r="AJ15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -2359,7 +2359,7 @@
         <v>3.9</v>
       </c>
       <c r="I16" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="J16" t="n">
         <v>1.03</v>
@@ -2389,31 +2389,31 @@
         <v>1.42</v>
       </c>
       <c r="S16" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="T16" t="n">
         <v>14</v>
       </c>
       <c r="U16" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="V16" t="n">
         <v>9.75</v>
       </c>
       <c r="W16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z16" t="n">
         <v>9.75</v>
       </c>
       <c r="AA16" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB16" t="n">
         <v>11.25</v>
@@ -2428,7 +2428,7 @@
         <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG16" t="n">
         <v>9.75</v>
@@ -2437,10 +2437,10 @@
         <v>28</v>
       </c>
       <c r="AI16" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="17">
@@ -2508,7 +2508,7 @@
         <v>3.05</v>
       </c>
       <c r="R17" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="S17" t="n">
         <v>2.32</v>
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I19" t="n">
         <v>2.57</v>
@@ -2755,22 +2755,22 @@
         <v>1.82</v>
       </c>
       <c r="S19" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T19" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="U19" t="n">
         <v>13</v>
       </c>
       <c r="V19" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y19" t="n">
         <v>35</v>
@@ -2785,19 +2785,19 @@
         <v>14.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="n">
         <v>600</v>
       </c>
       <c r="AE19" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AF19" t="n">
         <v>12.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH19" t="n">
         <v>28</v>
@@ -2806,7 +2806,7 @@
         <v>22</v>
       </c>
       <c r="AJ19" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
@@ -2847,13 +2847,13 @@
         <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="J20" t="n">
         <v>1.09</v>
       </c>
       <c r="K20" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="L20" t="n">
         <v>1.44</v>
@@ -2886,7 +2886,7 @@
         <v>7.7</v>
       </c>
       <c r="V20" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W20" t="n">
         <v>15</v>
@@ -2895,13 +2895,13 @@
         <v>17.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB20" t="n">
         <v>19</v>
@@ -3205,31 +3205,31 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
         <v>4.75</v>
       </c>
       <c r="J24" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L24" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N24" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="O24" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P24" t="n">
         <v>1.25</v>
@@ -3244,7 +3244,7 @@
         <v>2.38</v>
       </c>
       <c r="T24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U24" t="n">
         <v>10</v>
@@ -3262,10 +3262,10 @@
         <v>19</v>
       </c>
       <c r="Z24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB24" t="n">
         <v>13</v>
@@ -3274,7 +3274,7 @@
         <v>34</v>
       </c>
       <c r="AD24" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
@@ -3292,7 +3292,7 @@
         <v>34</v>
       </c>
       <c r="AJ24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -3348,10 +3348,10 @@
         <v>4</v>
       </c>
       <c r="N25" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="O25" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="P25" t="n">
         <v>1.33</v>
@@ -3484,7 +3484,7 @@
         <v>1.82</v>
       </c>
       <c r="T26" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="U26" t="n">
         <v>9.25</v>
@@ -3502,7 +3502,7 @@
         <v>28</v>
       </c>
       <c r="Z26" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA26" t="n">
         <v>6</v>
@@ -3517,22 +3517,22 @@
         <v>600</v>
       </c>
       <c r="AE26" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF26" t="n">
         <v>21</v>
       </c>
       <c r="AG26" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
         <v>65</v>
       </c>
       <c r="AI26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>45</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="27">
@@ -3567,19 +3567,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H27" t="n">
         <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
         <v>1.08</v>
       </c>
       <c r="K27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.44</v>
@@ -3594,7 +3594,7 @@
         <v>1.57</v>
       </c>
       <c r="P27" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q27" t="n">
         <v>2.5</v>
@@ -3639,10 +3639,10 @@
         <v>351</v>
       </c>
       <c r="AE27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
         <v>17</v>
@@ -3704,19 +3704,19 @@
         <v>10</v>
       </c>
       <c r="L28" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O28" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P28" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q28" t="n">
         <v>2.75</v>
@@ -4058,7 +4058,7 @@
         <v>2.92</v>
       </c>
       <c r="H31" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I31" t="n">
         <v>2.3</v>
@@ -4067,7 +4067,7 @@
         <v>1.06</v>
       </c>
       <c r="K31" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="L31" t="n">
         <v>1.31</v>
@@ -4109,13 +4109,13 @@
         <v>27</v>
       </c>
       <c r="Y31" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z31" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AA31" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AB31" t="n">
         <v>15</v>
@@ -4787,7 +4787,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H37" t="n">
         <v>3</v>
@@ -5031,7 +5031,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
         <v>3.3</v>
@@ -5153,19 +5153,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="H40" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I40" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K40" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L40" t="n">
         <v>1.5</v>
@@ -5186,31 +5186,31 @@
         <v>2.38</v>
       </c>
       <c r="R40" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S40" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T40" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V40" t="n">
         <v>10</v>
       </c>
       <c r="W40" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y40" t="n">
         <v>41</v>
       </c>
       <c r="Z40" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA40" t="n">
         <v>7</v>
@@ -5225,22 +5225,22 @@
         <v>101</v>
       </c>
       <c r="AE40" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ40" t="n">
         <v>41</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="41">
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="H41" t="n">
         <v>3.6</v>
@@ -5519,13 +5519,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="H43" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
         <v>1.05</v>
@@ -5540,10 +5540,10 @@
         <v>3.75</v>
       </c>
       <c r="N43" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O43" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P43" t="n">
         <v>1.36</v>
@@ -5558,22 +5558,22 @@
         <v>2.1</v>
       </c>
       <c r="T43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U43" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V43" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W43" t="n">
+        <v>21</v>
+      </c>
+      <c r="X43" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y43" t="n">
         <v>26</v>
-      </c>
-      <c r="X43" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>29</v>
       </c>
       <c r="Z43" t="n">
         <v>11</v>
@@ -5591,19 +5591,19 @@
         <v>201</v>
       </c>
       <c r="AE43" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF43" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AG43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH43" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AI43" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ43" t="n">
         <v>29</v>
@@ -6853,49 +6853,49 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I54" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J54" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L54" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M54" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N54" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="O54" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P54" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q54" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R54" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T54" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V54" t="n">
         <v>8.5</v>
@@ -6910,10 +6910,10 @@
         <v>23</v>
       </c>
       <c r="Z54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB54" t="n">
         <v>13</v>
@@ -6922,16 +6922,16 @@
         <v>41</v>
       </c>
       <c r="AD54" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE54" t="n">
         <v>12</v>
       </c>
       <c r="AF54" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH54" t="n">
         <v>41</v>
@@ -7466,22 +7466,22 @@
         <v>15</v>
       </c>
       <c r="L59" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M59" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N59" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O59" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P59" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q59" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R59" t="n">
         <v>1.53</v>
@@ -7573,19 +7573,19 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H60" t="n">
         <v>3.1</v>
       </c>
       <c r="I60" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J60" t="n">
         <v>1.07</v>
       </c>
       <c r="K60" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L60" t="n">
         <v>1.33</v>
@@ -7621,7 +7621,7 @@
         <v>11</v>
       </c>
       <c r="W60" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X60" t="n">
         <v>23</v>
@@ -7645,19 +7645,19 @@
         <v>251</v>
       </c>
       <c r="AE60" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF60" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH60" t="n">
         <v>26</v>
       </c>
       <c r="AI60" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ60" t="n">
         <v>34</v>
@@ -8061,13 +8061,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="H64" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I64" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J64" t="n">
         <v>1.04</v>
@@ -8094,13 +8094,13 @@
         <v>3</v>
       </c>
       <c r="R64" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S64" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U64" t="n">
         <v>23</v>
@@ -8112,13 +8112,13 @@
         <v>51</v>
       </c>
       <c r="X64" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y64" t="n">
         <v>41</v>
       </c>
       <c r="Z64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA64" t="n">
         <v>7.5</v>
@@ -8130,13 +8130,13 @@
         <v>51</v>
       </c>
       <c r="AD64" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE64" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF64" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG64" t="n">
         <v>8.5</v>
@@ -8183,13 +8183,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I65" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J65" t="n">
         <v>1.03</v>
@@ -8216,22 +8216,22 @@
         <v>3.5</v>
       </c>
       <c r="R65" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S65" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T65" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U65" t="n">
         <v>11</v>
       </c>
       <c r="V65" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W65" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X65" t="n">
         <v>15</v>
@@ -8255,13 +8255,13 @@
         <v>126</v>
       </c>
       <c r="AE65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF65" t="n">
         <v>21</v>
       </c>
       <c r="AG65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH65" t="n">
         <v>41</v>
@@ -8331,7 +8331,7 @@
         <v>1.4</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="R66" t="n">
         <v>1.82</v>
@@ -8340,19 +8340,19 @@
         <v>1.78</v>
       </c>
       <c r="T66" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U66" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V66" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="W66" t="n">
         <v>40</v>
       </c>
       <c r="X66" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y66" t="n">
         <v>40</v>
@@ -8367,28 +8367,28 @@
         <v>15</v>
       </c>
       <c r="AC66" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD66" t="n">
         <v>700</v>
       </c>
       <c r="AE66" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AF66" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG66" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH66" t="n">
         <v>23</v>
       </c>
       <c r="AI66" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ66" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67">
@@ -8429,7 +8429,7 @@
         <v>3.25</v>
       </c>
       <c r="I67" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -8479,7 +8479,7 @@
         <v>7.7</v>
       </c>
       <c r="AA67" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB67" t="n">
         <v>17.5</v>
@@ -8497,7 +8497,7 @@
         <v>21</v>
       </c>
       <c r="AG67" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH67" t="n">
         <v>65</v>
@@ -8580,7 +8580,7 @@
         <v>1.65</v>
       </c>
       <c r="T68" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U68" t="n">
         <v>10.75</v>
@@ -8613,19 +8613,19 @@
         <v>101</v>
       </c>
       <c r="AE68" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AF68" t="n">
         <v>14.5</v>
       </c>
       <c r="AG68" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH68" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI68" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ68" t="n">
         <v>55</v>
@@ -8666,7 +8666,7 @@
         <v>3.15</v>
       </c>
       <c r="H69" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I69" t="n">
         <v>2.12</v>
@@ -8677,7 +8677,7 @@
         <v>1.34</v>
       </c>
       <c r="M69" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="N69" t="n">
         <v>1.98</v>
@@ -8695,7 +8695,7 @@
         <v>1.82</v>
       </c>
       <c r="S69" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T69" t="n">
         <v>8.75</v>
@@ -8710,19 +8710,19 @@
         <v>40</v>
       </c>
       <c r="X69" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y69" t="n">
         <v>40</v>
       </c>
       <c r="Z69" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA69" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB69" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC69" t="n">
         <v>80</v>
@@ -8734,7 +8734,7 @@
         <v>6.9</v>
       </c>
       <c r="AF69" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AG69" t="n">
         <v>9</v>
@@ -8913,7 +8913,7 @@
         <v>1.3</v>
       </c>
       <c r="M71" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="N71" t="n">
         <v>1.88</v>
@@ -8934,7 +8934,7 @@
         <v>1.72</v>
       </c>
       <c r="T71" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="U71" t="n">
         <v>7.1</v>
@@ -8949,7 +8949,7 @@
         <v>13.5</v>
       </c>
       <c r="Y71" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z71" t="n">
         <v>9.5</v>
@@ -8970,7 +8970,7 @@
         <v>12.5</v>
       </c>
       <c r="AF71" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG71" t="n">
         <v>17</v>
@@ -9497,13 +9497,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H76" t="n">
         <v>3.6</v>
       </c>
       <c r="I76" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J76" t="n">
         <v>1.03</v>
@@ -9530,10 +9530,10 @@
         <v>3.5</v>
       </c>
       <c r="R76" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S76" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T76" t="n">
         <v>15</v>
@@ -9548,7 +9548,7 @@
         <v>41</v>
       </c>
       <c r="X76" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y76" t="n">
         <v>29</v>
@@ -9563,7 +9563,7 @@
         <v>12</v>
       </c>
       <c r="AC76" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD76" t="n">
         <v>126</v>
@@ -9575,13 +9575,13 @@
         <v>11</v>
       </c>
       <c r="AG76" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH76" t="n">
         <v>17</v>
       </c>
       <c r="AI76" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ76" t="n">
         <v>21</v>
@@ -9741,13 +9741,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="H78" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I78" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -9758,10 +9758,10 @@
         <v>3.75</v>
       </c>
       <c r="N78" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O78" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
@@ -9769,34 +9769,34 @@
         <v>1.53</v>
       </c>
       <c r="S78" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="T78" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="U78" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V78" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="W78" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="X78" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y78" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z78" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA78" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AB78" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC78" t="n">
         <v>45</v>
@@ -9808,19 +9808,19 @@
         <v>9.5</v>
       </c>
       <c r="AF78" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AG78" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH78" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI78" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ78" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79">
@@ -9855,27 +9855,27 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="H79" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="I79" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M79" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="N79" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="O79" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="P79" t="n">
         <v>1.4</v>
@@ -9884,61 +9884,61 @@
         <v>2.55</v>
       </c>
       <c r="R79" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="S79" t="n">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="T79" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="U79" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="V79" t="n">
         <v>9.75</v>
       </c>
       <c r="W79" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="X79" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y79" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Z79" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG79" t="n">
         <v>9.25</v>
       </c>
-      <c r="AA79" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG79" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AH79" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI79" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AJ79" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
@@ -10241,7 +10241,7 @@
         <v>2.5</v>
       </c>
       <c r="O82" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P82" t="n">
         <v>1.53</v>
@@ -10348,10 +10348,10 @@
         <v>2.35</v>
       </c>
       <c r="J83" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K83" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L83" t="n">
         <v>1.4</v>
@@ -10360,10 +10360,10 @@
         <v>2.75</v>
       </c>
       <c r="N83" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O83" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P83" t="n">
         <v>1.44</v>
@@ -10639,7 +10639,7 @@
         <v>10</v>
       </c>
       <c r="AA85" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AB85" t="n">
         <v>17.5</v>
@@ -10842,10 +10842,10 @@
         <v>1.7</v>
       </c>
       <c r="P87" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="R87" t="n">
         <v>1.72</v>
@@ -10854,7 +10854,7 @@
         <v>1.9</v>
       </c>
       <c r="T87" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="U87" t="n">
         <v>12</v>
@@ -10887,10 +10887,10 @@
         <v>500</v>
       </c>
       <c r="AE87" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF87" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG87" t="n">
         <v>10.25</v>
@@ -11202,10 +11202,10 @@
         <v>2.47</v>
       </c>
       <c r="R90" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="S90" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="T90" t="n">
         <v>7.6</v>
@@ -11657,19 +11657,19 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H94" t="n">
         <v>3.7</v>
       </c>
       <c r="I94" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="J94" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K94" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L94" t="n">
         <v>1.14</v>
@@ -11699,7 +11699,7 @@
         <v>13</v>
       </c>
       <c r="U94" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V94" t="n">
         <v>10</v>
@@ -11708,7 +11708,7 @@
         <v>26</v>
       </c>
       <c r="X94" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y94" t="n">
         <v>21</v>
@@ -11726,13 +11726,13 @@
         <v>29</v>
       </c>
       <c r="AD94" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE94" t="n">
         <v>13</v>
       </c>
       <c r="AF94" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG94" t="n">
         <v>10</v>
@@ -11741,7 +11741,7 @@
         <v>26</v>
       </c>
       <c r="AI94" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ94" t="n">
         <v>21</v>
@@ -12276,10 +12276,10 @@
         <v>3.2</v>
       </c>
       <c r="J99" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K99" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L99" t="n">
         <v>1.11</v>
@@ -13138,10 +13138,10 @@
         <v>3.75</v>
       </c>
       <c r="N106" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="O106" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="P106" t="n">
         <v>1.36</v>
@@ -13382,10 +13382,10 @@
         <v>3.5</v>
       </c>
       <c r="N108" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="O108" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="P108" t="n">
         <v>1.36</v>
@@ -13626,10 +13626,10 @@
         <v>3.5</v>
       </c>
       <c r="N110" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O110" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="P110" t="n">
         <v>1.36</v>
@@ -13990,10 +13990,10 @@
         <v>4</v>
       </c>
       <c r="N113" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O113" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P113" t="n">
         <v>1.33</v>
@@ -14286,16 +14286,16 @@
         <v>10</v>
       </c>
       <c r="L116" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M116" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N116" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O116" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P116" t="n">
         <v>1.3</v>
@@ -14393,22 +14393,22 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I117" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J117" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="K117" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L117" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M117" t="n">
         <v>3</v>
@@ -14420,43 +14420,43 @@
         <v>1.67</v>
       </c>
       <c r="P117" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R117" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="S117" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="T117" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U117" t="n">
         <v>9.5</v>
       </c>
       <c r="V117" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W117" t="n">
         <v>19</v>
       </c>
       <c r="X117" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y117" t="n">
         <v>34</v>
       </c>
       <c r="Z117" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA117" t="n">
         <v>6</v>
       </c>
       <c r="AB117" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC117" t="n">
         <v>51</v>
@@ -14465,7 +14465,7 @@
         <v>700</v>
       </c>
       <c r="AE117" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF117" t="n">
         <v>17</v>
@@ -14477,7 +14477,7 @@
         <v>41</v>
       </c>
       <c r="AI117" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ117" t="n">
         <v>41</v>
@@ -14524,13 +14524,13 @@
         <v>7.5</v>
       </c>
       <c r="J118" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K118" t="n">
         <v>10.5</v>
       </c>
       <c r="L118" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M118" t="n">
         <v>4.5</v>
@@ -14646,13 +14646,13 @@
         <v>2</v>
       </c>
       <c r="J119" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K119" t="n">
         <v>9</v>
       </c>
       <c r="L119" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M119" t="n">
         <v>4</v>
@@ -14768,16 +14768,16 @@
         <v>11</v>
       </c>
       <c r="J120" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K120" t="n">
         <v>11</v>
       </c>
       <c r="L120" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="M120" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N120" t="n">
         <v>1.44</v>
@@ -14890,13 +14890,13 @@
         <v>3.8</v>
       </c>
       <c r="J121" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K121" t="n">
         <v>8.5</v>
       </c>
       <c r="L121" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M121" t="n">
         <v>3.5</v>
@@ -15012,13 +15012,13 @@
         <v>2.4</v>
       </c>
       <c r="J122" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K122" t="n">
         <v>7</v>
       </c>
       <c r="L122" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M122" t="n">
         <v>2.5</v>
@@ -15134,13 +15134,13 @@
         <v>1.62</v>
       </c>
       <c r="J123" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K123" t="n">
         <v>8</v>
       </c>
       <c r="L123" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M123" t="n">
         <v>3</v>
@@ -15491,13 +15491,13 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="H126" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I126" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="J126" t="n">
         <v>1.01</v>
@@ -15506,22 +15506,22 @@
         <v>34</v>
       </c>
       <c r="L126" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="M126" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N126" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="O126" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P126" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Q126" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="R126" t="n">
         <v>1.36</v>
@@ -15536,7 +15536,7 @@
         <v>13</v>
       </c>
       <c r="V126" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W126" t="n">
         <v>15</v>
@@ -15551,10 +15551,10 @@
         <v>34</v>
       </c>
       <c r="AA126" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB126" t="n">
         <v>13</v>
-      </c>
-      <c r="AB126" t="n">
-        <v>15</v>
       </c>
       <c r="AC126" t="n">
         <v>29</v>
@@ -15563,13 +15563,13 @@
         <v>67</v>
       </c>
       <c r="AE126" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AF126" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG126" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH126" t="n">
         <v>51</v>
@@ -15735,13 +15735,13 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="H128" t="n">
         <v>3.4</v>
       </c>
       <c r="I128" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="J128" t="n">
         <v>1.05</v>
@@ -15774,16 +15774,16 @@
         <v>2.1</v>
       </c>
       <c r="T128" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U128" t="n">
+        <v>13</v>
+      </c>
+      <c r="V128" t="n">
         <v>10</v>
       </c>
-      <c r="U128" t="n">
-        <v>15</v>
-      </c>
-      <c r="V128" t="n">
-        <v>11</v>
-      </c>
       <c r="W128" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X128" t="n">
         <v>21</v>
@@ -15810,19 +15810,19 @@
         <v>9</v>
       </c>
       <c r="AF128" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG128" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH128" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI128" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ128" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129">
@@ -15988,22 +15988,22 @@
         <v>3.8</v>
       </c>
       <c r="J130" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K130" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L130" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M130" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N130" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O130" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P130" t="n">
         <v>1.4</v>
@@ -17082,10 +17082,10 @@
         <v>3.25</v>
       </c>
       <c r="J139" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K139" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L139" t="n">
         <v>1.44</v>
@@ -17094,10 +17094,10 @@
         <v>2.63</v>
       </c>
       <c r="N139" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O139" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P139" t="n">
         <v>1.5</v>
@@ -17195,19 +17195,19 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H140" t="n">
         <v>3.25</v>
       </c>
       <c r="I140" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J140" t="n">
         <v>1.06</v>
       </c>
       <c r="K140" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L140" t="n">
         <v>1.33</v>
@@ -17234,7 +17234,7 @@
         <v>1.83</v>
       </c>
       <c r="T140" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U140" t="n">
         <v>15</v>
@@ -17243,10 +17243,10 @@
         <v>11</v>
       </c>
       <c r="W140" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X140" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y140" t="n">
         <v>34</v>
@@ -17279,7 +17279,7 @@
         <v>21</v>
       </c>
       <c r="AI140" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ140" t="n">
         <v>29</v>
@@ -17317,10 +17317,10 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H141" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="I141" t="n">
         <v>2.62</v>
@@ -17338,7 +17338,7 @@
         <v>2.32</v>
       </c>
       <c r="N141" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="O141" t="n">
         <v>1.45</v>
@@ -17356,7 +17356,7 @@
         <v>1.65</v>
       </c>
       <c r="T141" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="U141" t="n">
         <v>12.5</v>
@@ -17377,7 +17377,7 @@
         <v>6.3</v>
       </c>
       <c r="AA141" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB141" t="n">
         <v>17</v>
